--- a/name/vnindex/20230109/VNINDEX_HOSE_5p_20230109.xlsx
+++ b/name/vnindex/20230109/VNINDEX_HOSE_5p_20230109.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:P117"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -454,2407 +454,5807 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1673255700000</v>
+        <v>1673255640000</v>
       </c>
       <c r="B2">
-        <v>5436900</v>
+        <v>1903000</v>
       </c>
       <c r="C2">
-        <v>9157800</v>
+        <v>2776700</v>
       </c>
       <c r="D2">
-        <v>3093700</v>
+        <v>3050200</v>
       </c>
       <c r="E2">
-        <v>80103305000</v>
+        <v>26176201000</v>
       </c>
       <c r="F2">
-        <v>147625990000</v>
+        <v>49189760000</v>
       </c>
       <c r="G2">
-        <v>45770762000</v>
+        <v>45143237000</v>
       </c>
       <c r="H2">
-        <v>17688400</v>
+        <v>7729900</v>
       </c>
       <c r="I2">
-        <v>273500057000</v>
+        <v>120509198000</v>
       </c>
       <c r="J2" t="str">
-        <v>2023-01-09T09:15:00.000Z</v>
+        <v>2023-01-09T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>273500057000</v>
+        <v>120509198000</v>
       </c>
       <c r="L2">
-        <v>17688400</v>
+        <v>7729900</v>
       </c>
       <c r="M2">
-        <v>3720900</v>
+        <v>873700</v>
       </c>
       <c r="N2">
-        <v>67522685000</v>
+        <v>23013559000</v>
       </c>
       <c r="O2">
-        <v>3720900</v>
+        <v>873700</v>
       </c>
       <c r="P2">
-        <v>67522685000</v>
+        <v>23013559000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1673256000000</v>
+        <v>1673255760000</v>
       </c>
       <c r="B3">
-        <v>6237100</v>
+        <v>1703100</v>
       </c>
       <c r="C3">
-        <v>7535700</v>
+        <v>3076600</v>
       </c>
       <c r="D3">
-        <v>122500</v>
+        <v>27600</v>
       </c>
       <c r="E3">
-        <v>106390162000</v>
+        <v>24585408000</v>
       </c>
       <c r="F3">
-        <v>126088628000</v>
+        <v>47085708000</v>
       </c>
       <c r="G3">
-        <v>1885149000</v>
+        <v>385315000</v>
       </c>
       <c r="H3">
-        <v>13895300</v>
+        <v>4807300</v>
       </c>
       <c r="I3">
-        <v>234363939000</v>
+        <v>72056431000</v>
       </c>
       <c r="J3" t="str">
-        <v>2023-01-09T09:20:00.000Z</v>
+        <v>2023-01-09T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>507863996000</v>
+        <v>192565629000</v>
       </c>
       <c r="L3">
-        <v>31583700</v>
+        <v>12537200</v>
       </c>
       <c r="M3">
-        <v>1298600</v>
+        <v>1373500</v>
       </c>
       <c r="N3">
-        <v>19698466000</v>
+        <v>22500300000</v>
       </c>
       <c r="O3">
-        <v>5019500</v>
+        <v>2247200</v>
       </c>
       <c r="P3">
-        <v>87221151000</v>
+        <v>45513859000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1673256300000</v>
+        <v>1673255880000</v>
       </c>
       <c r="B4">
-        <v>4608200</v>
+        <v>1830800</v>
       </c>
       <c r="C4">
-        <v>3328400</v>
+        <v>3304500</v>
       </c>
       <c r="D4">
-        <v>22300</v>
+        <v>15900</v>
       </c>
       <c r="E4">
-        <v>76277953000</v>
+        <v>29341696000</v>
       </c>
       <c r="F4">
-        <v>57617212000</v>
+        <v>51350522000</v>
       </c>
       <c r="G4">
-        <v>783457000</v>
+        <v>242210000</v>
       </c>
       <c r="H4">
-        <v>7958900</v>
+        <v>5151200</v>
       </c>
       <c r="I4">
-        <v>134678622000</v>
+        <v>80934428000</v>
       </c>
       <c r="J4" t="str">
-        <v>2023-01-09T09:25:00.000Z</v>
+        <v>2023-01-09T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>642542618000</v>
+        <v>273500057000</v>
       </c>
       <c r="L4">
-        <v>39542600</v>
+        <v>17688400</v>
       </c>
       <c r="M4">
-        <v>-1279800</v>
+        <v>1473700</v>
       </c>
       <c r="N4">
-        <v>-18660741000</v>
+        <v>22008826000</v>
       </c>
       <c r="O4">
-        <v>3739700</v>
+        <v>3720900</v>
       </c>
       <c r="P4">
-        <v>68560410000</v>
+        <v>67522685000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1673256600000</v>
+        <v>1673256000000</v>
       </c>
       <c r="B5">
-        <v>3771900</v>
+        <v>1922300</v>
       </c>
       <c r="C5">
-        <v>3677700</v>
+        <v>3698000</v>
       </c>
       <c r="D5">
-        <v>124400</v>
+        <v>41500</v>
       </c>
       <c r="E5">
-        <v>59611674000</v>
+        <v>31548659000</v>
       </c>
       <c r="F5">
-        <v>63012371000</v>
+        <v>63909972000</v>
       </c>
       <c r="G5">
-        <v>2035521000</v>
+        <v>760191000</v>
       </c>
       <c r="H5">
-        <v>7574000</v>
+        <v>5661800</v>
       </c>
       <c r="I5">
-        <v>124659566000</v>
+        <v>96218822000</v>
       </c>
       <c r="J5" t="str">
-        <v>2023-01-09T09:30:00.000Z</v>
+        <v>2023-01-09T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>767202184000</v>
+        <v>369718879000</v>
       </c>
       <c r="L5">
-        <v>47116600</v>
+        <v>23350200</v>
       </c>
       <c r="M5">
-        <v>-94200</v>
+        <v>1775700</v>
       </c>
       <c r="N5">
-        <v>3400697000</v>
+        <v>32361313000</v>
       </c>
       <c r="O5">
-        <v>3645500</v>
+        <v>5496600</v>
       </c>
       <c r="P5">
-        <v>71961107000</v>
+        <v>99883998000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1673256900000</v>
+        <v>1673256120000</v>
       </c>
       <c r="B6">
-        <v>3590400</v>
+        <v>2695500</v>
       </c>
       <c r="C6">
-        <v>2805900</v>
+        <v>2991000</v>
       </c>
       <c r="D6">
-        <v>59700</v>
+        <v>31700</v>
       </c>
       <c r="E6">
-        <v>62293187000</v>
+        <v>48448686000</v>
       </c>
       <c r="F6">
-        <v>46616702000</v>
+        <v>48116572000</v>
       </c>
       <c r="G6">
-        <v>1366164000</v>
+        <v>671921000</v>
       </c>
       <c r="H6">
-        <v>6456000</v>
+        <v>5718200</v>
       </c>
       <c r="I6">
-        <v>110276053000</v>
+        <v>97237179000</v>
       </c>
       <c r="J6" t="str">
-        <v>2023-01-09T09:35:00.000Z</v>
+        <v>2023-01-09T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>877478237000</v>
+        <v>466956058000</v>
       </c>
       <c r="L6">
-        <v>53572600</v>
+        <v>29068400</v>
       </c>
       <c r="M6">
-        <v>-784500</v>
+        <v>295500</v>
       </c>
       <c r="N6">
-        <v>-15676485000</v>
+        <v>-332114000</v>
       </c>
       <c r="O6">
-        <v>2861000</v>
+        <v>5792100</v>
       </c>
       <c r="P6">
-        <v>56284622000</v>
+        <v>99551884000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1673257200000</v>
+        <v>1673256240000</v>
       </c>
       <c r="B7">
-        <v>3972900</v>
+        <v>2728500</v>
       </c>
       <c r="C7">
-        <v>2793200</v>
+        <v>1596600</v>
       </c>
       <c r="D7">
-        <v>27500</v>
+        <v>52200</v>
       </c>
       <c r="E7">
-        <v>65847498000</v>
+        <v>44873945000</v>
       </c>
       <c r="F7">
-        <v>43986410000</v>
+        <v>25876276000</v>
       </c>
       <c r="G7">
-        <v>637990000</v>
+        <v>489250000</v>
       </c>
       <c r="H7">
-        <v>6793600</v>
+        <v>4377300</v>
       </c>
       <c r="I7">
-        <v>110471898000</v>
+        <v>71239471000</v>
       </c>
       <c r="J7" t="str">
-        <v>2023-01-09T09:40:00.000Z</v>
+        <v>2023-01-09T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>987950135000</v>
+        <v>538195529000</v>
       </c>
       <c r="L7">
-        <v>60366200</v>
+        <v>33445700</v>
       </c>
       <c r="M7">
-        <v>-1179700</v>
+        <v>-1131900</v>
       </c>
       <c r="N7">
-        <v>-21861088000</v>
+        <v>-18997669000</v>
       </c>
       <c r="O7">
-        <v>1681300</v>
+        <v>4660200</v>
       </c>
       <c r="P7">
-        <v>34423534000</v>
+        <v>80554215000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1673257500000</v>
+        <v>1673256360000</v>
       </c>
       <c r="B8">
-        <v>4597100</v>
+        <v>2038100</v>
       </c>
       <c r="C8">
-        <v>2891000</v>
+        <v>1178700</v>
       </c>
       <c r="D8">
-        <v>44300</v>
+        <v>18200</v>
       </c>
       <c r="E8">
-        <v>77736702000</v>
+        <v>33729028000</v>
       </c>
       <c r="F8">
-        <v>48859489000</v>
+        <v>19382559000</v>
       </c>
       <c r="G8">
-        <v>869957000</v>
+        <v>723270000</v>
       </c>
       <c r="H8">
-        <v>7532400</v>
+        <v>3235000</v>
       </c>
       <c r="I8">
-        <v>127466148000</v>
+        <v>53834857000</v>
       </c>
       <c r="J8" t="str">
-        <v>2023-01-09T09:45:00.000Z</v>
+        <v>2023-01-09T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>1115416283000</v>
+        <v>592030386000</v>
       </c>
       <c r="L8">
-        <v>67898600</v>
+        <v>36680700</v>
       </c>
       <c r="M8">
-        <v>-1706100</v>
+        <v>-859400</v>
       </c>
       <c r="N8">
-        <v>-28877213000</v>
+        <v>-14346469000</v>
       </c>
       <c r="O8">
-        <v>-24800</v>
+        <v>3800800</v>
       </c>
       <c r="P8">
-        <v>5546321000</v>
+        <v>66207746000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1673257800000</v>
+        <v>1673256480000</v>
       </c>
       <c r="B9">
-        <v>3635300</v>
+        <v>1460900</v>
       </c>
       <c r="C9">
-        <v>4947500</v>
+        <v>1399800</v>
       </c>
       <c r="D9">
-        <v>17000</v>
+        <v>1200</v>
       </c>
       <c r="E9">
-        <v>61982896000</v>
+        <v>24067797000</v>
       </c>
       <c r="F9">
-        <v>47101549000</v>
+        <v>26420461000</v>
       </c>
       <c r="G9">
-        <v>369443000</v>
+        <v>23974000</v>
       </c>
       <c r="H9">
-        <v>8599800</v>
+        <v>2861900</v>
       </c>
       <c r="I9">
-        <v>109453888000</v>
+        <v>50512232000</v>
       </c>
       <c r="J9" t="str">
-        <v>2023-01-09T09:50:00.000Z</v>
+        <v>2023-01-09T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>1224870171000</v>
+        <v>642542618000</v>
       </c>
       <c r="L9">
-        <v>76498400</v>
+        <v>39542600</v>
       </c>
       <c r="M9">
-        <v>1312200</v>
+        <v>-61100</v>
       </c>
       <c r="N9">
-        <v>-14881347000</v>
+        <v>2352664000</v>
       </c>
       <c r="O9">
-        <v>1287400</v>
+        <v>3739700</v>
       </c>
       <c r="P9">
-        <v>-9335026000</v>
+        <v>68560410000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1673258100000</v>
+        <v>1673256600000</v>
       </c>
       <c r="B10">
-        <v>3458200</v>
+        <v>1295800</v>
       </c>
       <c r="C10">
-        <v>4236100</v>
+        <v>1366900</v>
       </c>
       <c r="D10">
-        <v>64500</v>
+        <v>35300</v>
       </c>
       <c r="E10">
-        <v>52206931000</v>
+        <v>22368194000</v>
       </c>
       <c r="F10">
-        <v>68028614000</v>
+        <v>23126817000</v>
       </c>
       <c r="G10">
-        <v>1492656000</v>
+        <v>1009929000</v>
       </c>
       <c r="H10">
-        <v>7758800</v>
+        <v>2698000</v>
       </c>
       <c r="I10">
-        <v>121728201000</v>
+        <v>46504940000</v>
       </c>
       <c r="J10" t="str">
-        <v>2023-01-09T09:55:00.000Z</v>
+        <v>2023-01-09T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>1346598372000</v>
+        <v>689047558000</v>
       </c>
       <c r="L10">
-        <v>84257200</v>
+        <v>42240600</v>
       </c>
       <c r="M10">
-        <v>777900</v>
+        <v>71100</v>
       </c>
       <c r="N10">
-        <v>15821683000</v>
+        <v>758623000</v>
       </c>
       <c r="O10">
-        <v>2065300</v>
+        <v>3810800</v>
       </c>
       <c r="P10">
-        <v>6486657000</v>
+        <v>69319033000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1673258400000</v>
+        <v>1673256720000</v>
       </c>
       <c r="B11">
-        <v>2886400</v>
+        <v>1677500</v>
       </c>
       <c r="C11">
-        <v>4572400</v>
+        <v>1358900</v>
       </c>
       <c r="D11">
-        <v>45700</v>
+        <v>41000</v>
       </c>
       <c r="E11">
-        <v>51757551000</v>
+        <v>25137358000</v>
       </c>
       <c r="F11">
-        <v>84810783000</v>
+        <v>24324809000</v>
       </c>
       <c r="G11">
-        <v>1037628000</v>
+        <v>654863000</v>
       </c>
       <c r="H11">
-        <v>7504500</v>
+        <v>3077400</v>
       </c>
       <c r="I11">
-        <v>137605962000</v>
+        <v>50117030000</v>
       </c>
       <c r="J11" t="str">
-        <v>2023-01-09T10:00:00.000Z</v>
+        <v>2023-01-09T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>1484204334000</v>
+        <v>739164588000</v>
       </c>
       <c r="L11">
-        <v>91761700</v>
+        <v>45318000</v>
       </c>
       <c r="M11">
-        <v>1686000</v>
+        <v>-318600</v>
       </c>
       <c r="N11">
-        <v>33053232000</v>
+        <v>-812549000</v>
       </c>
       <c r="O11">
-        <v>3751300</v>
+        <v>3492200</v>
       </c>
       <c r="P11">
-        <v>39539889000</v>
+        <v>68506484000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1673258700000</v>
+        <v>1673256840000</v>
       </c>
       <c r="B12">
-        <v>2295500</v>
+        <v>1483900</v>
       </c>
       <c r="C12">
-        <v>3734700</v>
+        <v>1508400</v>
       </c>
       <c r="D12">
-        <v>39500</v>
+        <v>53200</v>
       </c>
       <c r="E12">
-        <v>44105291000</v>
+        <v>23331674000</v>
       </c>
       <c r="F12">
-        <v>75700735000</v>
+        <v>26328356000</v>
       </c>
       <c r="G12">
-        <v>524967000</v>
+        <v>489954000</v>
       </c>
       <c r="H12">
-        <v>6069700</v>
+        <v>3045500</v>
       </c>
       <c r="I12">
-        <v>120330993000</v>
+        <v>50149984000</v>
       </c>
       <c r="J12" t="str">
-        <v>2023-01-09T10:05:00.000Z</v>
+        <v>2023-01-09T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>1604535327000</v>
+        <v>789314572000</v>
       </c>
       <c r="L12">
-        <v>97831400</v>
+        <v>48363500</v>
       </c>
       <c r="M12">
-        <v>1439200</v>
+        <v>24500</v>
       </c>
       <c r="N12">
-        <v>31595444000</v>
+        <v>2996682000</v>
       </c>
       <c r="O12">
-        <v>5190500</v>
+        <v>3516700</v>
       </c>
       <c r="P12">
-        <v>71135333000</v>
+        <v>71503166000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1673259000000</v>
+        <v>1673256960000</v>
       </c>
       <c r="B13">
-        <v>2627600</v>
+        <v>1225400</v>
       </c>
       <c r="C13">
-        <v>4079500</v>
+        <v>1312300</v>
       </c>
       <c r="D13">
-        <v>42200</v>
+        <v>39100</v>
       </c>
       <c r="E13">
-        <v>55042112000</v>
+        <v>22161228000</v>
       </c>
       <c r="F13">
-        <v>75540413000</v>
+        <v>19249554000</v>
       </c>
       <c r="G13">
-        <v>788190000</v>
+        <v>760462000</v>
       </c>
       <c r="H13">
-        <v>6749300</v>
+        <v>2576800</v>
       </c>
       <c r="I13">
-        <v>131370715000</v>
+        <v>42171244000</v>
       </c>
       <c r="J13" t="str">
-        <v>2023-01-09T10:10:00.000Z</v>
+        <v>2023-01-09T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>1735906042000</v>
+        <v>831485816000</v>
       </c>
       <c r="L13">
-        <v>104580700</v>
+        <v>50940300</v>
       </c>
       <c r="M13">
-        <v>1451900</v>
+        <v>86900</v>
       </c>
       <c r="N13">
-        <v>20498301000</v>
+        <v>-2911674000</v>
       </c>
       <c r="O13">
-        <v>6642400</v>
+        <v>3603600</v>
       </c>
       <c r="P13">
-        <v>91633634000</v>
+        <v>68591492000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1673259300000</v>
+        <v>1673257080000</v>
       </c>
       <c r="B14">
-        <v>3246800</v>
+        <v>1679700</v>
       </c>
       <c r="C14">
-        <v>2063700</v>
+        <v>937100</v>
       </c>
       <c r="D14">
-        <v>20300</v>
+        <v>15500</v>
       </c>
       <c r="E14">
-        <v>62688324000</v>
+        <v>28906407000</v>
       </c>
       <c r="F14">
-        <v>36676583000</v>
+        <v>16599537000</v>
       </c>
       <c r="G14">
-        <v>360649000</v>
+        <v>486477000</v>
       </c>
       <c r="H14">
-        <v>5330800</v>
+        <v>2632300</v>
       </c>
       <c r="I14">
-        <v>99725556000</v>
+        <v>45992421000</v>
       </c>
       <c r="J14" t="str">
-        <v>2023-01-09T10:15:00.000Z</v>
+        <v>2023-01-09T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>1835631598000</v>
+        <v>877478237000</v>
       </c>
       <c r="L14">
-        <v>109911500</v>
+        <v>53572600</v>
       </c>
       <c r="M14">
-        <v>-1183100</v>
+        <v>-742600</v>
       </c>
       <c r="N14">
-        <v>-26011741000</v>
+        <v>-12306870000</v>
       </c>
       <c r="O14">
-        <v>5459300</v>
+        <v>2861000</v>
       </c>
       <c r="P14">
-        <v>65621893000</v>
+        <v>56284622000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1673259600000</v>
+        <v>1673257200000</v>
       </c>
       <c r="B15">
-        <v>1833000</v>
+        <v>1575000</v>
       </c>
       <c r="C15">
-        <v>2928300</v>
+        <v>869100</v>
       </c>
       <c r="D15">
-        <v>11200</v>
+        <v>7900</v>
       </c>
       <c r="E15">
-        <v>31537308000</v>
+        <v>25620948000</v>
       </c>
       <c r="F15">
-        <v>57802822000</v>
+        <v>14929143000</v>
       </c>
       <c r="G15">
-        <v>232320000</v>
+        <v>184000000</v>
       </c>
       <c r="H15">
-        <v>4772500</v>
+        <v>2452000</v>
       </c>
       <c r="I15">
-        <v>89572450000</v>
+        <v>40734091000</v>
       </c>
       <c r="J15" t="str">
-        <v>2023-01-09T10:20:00.000Z</v>
+        <v>2023-01-09T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>1925204048000</v>
+        <v>918212328000</v>
       </c>
       <c r="L15">
-        <v>114684000</v>
+        <v>56024600</v>
       </c>
       <c r="M15">
-        <v>1095300</v>
+        <v>-705900</v>
       </c>
       <c r="N15">
-        <v>26265514000</v>
+        <v>-10691805000</v>
       </c>
       <c r="O15">
-        <v>6554600</v>
+        <v>2155100</v>
       </c>
       <c r="P15">
-        <v>91887407000</v>
+        <v>45592817000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1673259900000</v>
+        <v>1673257320000</v>
       </c>
       <c r="B16">
-        <v>1331100</v>
+        <v>1492700</v>
       </c>
       <c r="C16">
-        <v>3534200</v>
+        <v>1165900</v>
       </c>
       <c r="D16">
-        <v>13900</v>
+        <v>18500</v>
       </c>
       <c r="E16">
-        <v>25210911000</v>
+        <v>26011573000</v>
       </c>
       <c r="F16">
-        <v>69354132000</v>
+        <v>17769378000</v>
       </c>
       <c r="G16">
-        <v>296520000</v>
+        <v>397156000</v>
       </c>
       <c r="H16">
-        <v>4879200</v>
+        <v>2677100</v>
       </c>
       <c r="I16">
-        <v>94861563000</v>
+        <v>44178107000</v>
       </c>
       <c r="J16" t="str">
-        <v>2023-01-09T10:25:00.000Z</v>
+        <v>2023-01-09T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>2020065611000</v>
+        <v>962390435000</v>
       </c>
       <c r="L16">
-        <v>119563200</v>
+        <v>58701700</v>
       </c>
       <c r="M16">
-        <v>2203100</v>
+        <v>-326800</v>
       </c>
       <c r="N16">
-        <v>44143221000</v>
+        <v>-8242195000</v>
       </c>
       <c r="O16">
-        <v>8757700</v>
+        <v>1828300</v>
       </c>
       <c r="P16">
-        <v>136030628000</v>
+        <v>37350622000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1673260200000</v>
+        <v>1673257440000</v>
       </c>
       <c r="B17">
-        <v>2139200</v>
+        <v>1691000</v>
       </c>
       <c r="C17">
-        <v>3869200</v>
+        <v>1362100</v>
       </c>
       <c r="D17">
-        <v>48800</v>
+        <v>18900</v>
       </c>
       <c r="E17">
-        <v>39771445000</v>
+        <v>26929700000</v>
       </c>
       <c r="F17">
-        <v>76884410000</v>
+        <v>20725206000</v>
       </c>
       <c r="G17">
-        <v>448373000</v>
+        <v>465234000</v>
       </c>
       <c r="H17">
-        <v>6057200</v>
+        <v>3072000</v>
       </c>
       <c r="I17">
-        <v>117104228000</v>
+        <v>48120140000</v>
       </c>
       <c r="J17" t="str">
-        <v>2023-01-09T10:30:00.000Z</v>
+        <v>2023-01-09T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>2137169839000</v>
+        <v>1010510575000</v>
       </c>
       <c r="L17">
-        <v>125620400</v>
+        <v>61773700</v>
       </c>
       <c r="M17">
-        <v>1730000</v>
+        <v>-328900</v>
       </c>
       <c r="N17">
-        <v>37112965000</v>
+        <v>-6204494000</v>
       </c>
       <c r="O17">
-        <v>10487700</v>
+        <v>1499400</v>
       </c>
       <c r="P17">
-        <v>173143593000</v>
+        <v>31146128000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1673260500000</v>
+        <v>1673257560000</v>
       </c>
       <c r="B18">
-        <v>3074000</v>
+        <v>2131900</v>
       </c>
       <c r="C18">
-        <v>3808500</v>
+        <v>1272600</v>
       </c>
       <c r="D18">
-        <v>11300</v>
+        <v>20700</v>
       </c>
       <c r="E18">
-        <v>53785643000</v>
+        <v>36999444000</v>
       </c>
       <c r="F18">
-        <v>70654373000</v>
+        <v>22017789000</v>
       </c>
       <c r="G18">
-        <v>148516000</v>
+        <v>374136000</v>
       </c>
       <c r="H18">
-        <v>6893800</v>
+        <v>3425200</v>
       </c>
       <c r="I18">
-        <v>124588532000</v>
+        <v>59391369000</v>
       </c>
       <c r="J18" t="str">
-        <v>2023-01-09T10:35:00.000Z</v>
+        <v>2023-01-09T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>2261758371000</v>
+        <v>1069901944000</v>
       </c>
       <c r="L18">
-        <v>132514200</v>
+        <v>65198900</v>
       </c>
       <c r="M18">
-        <v>734500</v>
+        <v>-859300</v>
       </c>
       <c r="N18">
-        <v>16868730000</v>
+        <v>-14981655000</v>
       </c>
       <c r="O18">
-        <v>11222200</v>
+        <v>640100</v>
       </c>
       <c r="P18">
-        <v>190012323000</v>
+        <v>16164473000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1673260800000</v>
+        <v>1673257680000</v>
       </c>
       <c r="B19">
-        <v>3546400</v>
+        <v>1679400</v>
       </c>
       <c r="C19">
-        <v>1849000</v>
+        <v>1014500</v>
       </c>
       <c r="D19">
-        <v>66200</v>
+        <v>5800</v>
       </c>
       <c r="E19">
-        <v>69892728000</v>
+        <v>28022535000</v>
       </c>
       <c r="F19">
-        <v>34063904000</v>
+        <v>17404383000</v>
       </c>
       <c r="G19">
-        <v>939153000</v>
+        <v>87421000</v>
       </c>
       <c r="H19">
-        <v>5461600</v>
+        <v>2699700</v>
       </c>
       <c r="I19">
-        <v>104895785000</v>
+        <v>45514339000</v>
       </c>
       <c r="J19" t="str">
-        <v>2023-01-09T10:40:00.000Z</v>
+        <v>2023-01-09T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>2366654156000</v>
+        <v>1115416283000</v>
       </c>
       <c r="L19">
-        <v>137975800</v>
+        <v>67898600</v>
       </c>
       <c r="M19">
-        <v>-1697400</v>
+        <v>-664900</v>
       </c>
       <c r="N19">
-        <v>-35828824000</v>
+        <v>-10618152000</v>
       </c>
       <c r="O19">
-        <v>9524800</v>
+        <v>-24800</v>
       </c>
       <c r="P19">
-        <v>154183499000</v>
+        <v>5546321000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1673261100000</v>
+        <v>1673257800000</v>
       </c>
       <c r="B20">
-        <v>3149800</v>
+        <v>1061300</v>
       </c>
       <c r="C20">
-        <v>1442000</v>
+        <v>1006300</v>
       </c>
       <c r="D20">
-        <v>76600</v>
+        <v>4600</v>
       </c>
       <c r="E20">
-        <v>55736617000</v>
+        <v>16504386000</v>
       </c>
       <c r="F20">
-        <v>28344599000</v>
+        <v>13829644000</v>
       </c>
       <c r="G20">
-        <v>1162072000</v>
+        <v>63526000</v>
       </c>
       <c r="H20">
-        <v>4668400</v>
+        <v>2072200</v>
       </c>
       <c r="I20">
-        <v>85243288000</v>
+        <v>30397556000</v>
       </c>
       <c r="J20" t="str">
-        <v>2023-01-09T10:45:00.000Z</v>
+        <v>2023-01-09T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>2451897444000</v>
+        <v>1145813839000</v>
       </c>
       <c r="L20">
-        <v>142644200</v>
+        <v>69970800</v>
       </c>
       <c r="M20">
-        <v>-1707800</v>
+        <v>-55000</v>
       </c>
       <c r="N20">
-        <v>-27392018000</v>
+        <v>-2674742000</v>
       </c>
       <c r="O20">
-        <v>7817000</v>
+        <v>-79800</v>
       </c>
       <c r="P20">
-        <v>126791481000</v>
+        <v>2871579000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1673261400000</v>
+        <v>1673257920000</v>
       </c>
       <c r="B21">
-        <v>2337000</v>
+        <v>1820500</v>
       </c>
       <c r="C21">
-        <v>1873700</v>
+        <v>1535600</v>
       </c>
       <c r="D21">
-        <v>7800</v>
+        <v>11600</v>
       </c>
       <c r="E21">
-        <v>38283220000</v>
+        <v>31640217000</v>
       </c>
       <c r="F21">
-        <v>44170005000</v>
+        <v>15922523000</v>
       </c>
       <c r="G21">
-        <v>229879000</v>
+        <v>292202000</v>
       </c>
       <c r="H21">
-        <v>4218500</v>
+        <v>3367700</v>
       </c>
       <c r="I21">
-        <v>82683104000</v>
+        <v>47854942000</v>
       </c>
       <c r="J21" t="str">
-        <v>2023-01-09T10:50:00.000Z</v>
+        <v>2023-01-09T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>2534580548000</v>
+        <v>1193668781000</v>
       </c>
       <c r="L21">
-        <v>146862700</v>
+        <v>73338500</v>
       </c>
       <c r="M21">
-        <v>-463300</v>
+        <v>-284900</v>
       </c>
       <c r="N21">
-        <v>5886785000</v>
+        <v>-15717694000</v>
       </c>
       <c r="O21">
-        <v>7353700</v>
+        <v>-364700</v>
       </c>
       <c r="P21">
-        <v>132678266000</v>
+        <v>-12846115000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1673261700000</v>
+        <v>1673258040000</v>
       </c>
       <c r="B22">
-        <v>2185600</v>
+        <v>1734400</v>
       </c>
       <c r="C22">
-        <v>2437600</v>
+        <v>3145400</v>
       </c>
       <c r="D22">
-        <v>35500</v>
+        <v>3400</v>
       </c>
       <c r="E22">
-        <v>36365106000</v>
+        <v>28125354000</v>
       </c>
       <c r="F22">
-        <v>50180430000</v>
+        <v>27201342000</v>
       </c>
       <c r="G22">
-        <v>523426000</v>
+        <v>131556000</v>
       </c>
       <c r="H22">
-        <v>4658700</v>
+        <v>4883200</v>
       </c>
       <c r="I22">
-        <v>87068962000</v>
+        <v>55458252000</v>
       </c>
       <c r="J22" t="str">
-        <v>2023-01-09T10:55:00.000Z</v>
+        <v>2023-01-09T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>2621649510000</v>
+        <v>1249127033000</v>
       </c>
       <c r="L22">
-        <v>151521400</v>
+        <v>78221700</v>
       </c>
       <c r="M22">
-        <v>252000</v>
+        <v>1411000</v>
       </c>
       <c r="N22">
-        <v>13815324000</v>
+        <v>-924012000</v>
       </c>
       <c r="O22">
-        <v>7605700</v>
+        <v>1046300</v>
       </c>
       <c r="P22">
-        <v>146493590000</v>
+        <v>-13770127000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1673262000000</v>
+        <v>1673258160000</v>
       </c>
       <c r="B23">
-        <v>2722600</v>
+        <v>1418700</v>
       </c>
       <c r="C23">
-        <v>2063800</v>
+        <v>1259400</v>
       </c>
       <c r="D23">
-        <v>21100</v>
+        <v>43500</v>
       </c>
       <c r="E23">
-        <v>49179113000</v>
+        <v>20085128000</v>
       </c>
       <c r="F23">
-        <v>43253208000</v>
+        <v>22126928000</v>
       </c>
       <c r="G23">
-        <v>473290000</v>
+        <v>915004000</v>
       </c>
       <c r="H23">
-        <v>4807500</v>
+        <v>2721600</v>
       </c>
       <c r="I23">
-        <v>92905611000</v>
+        <v>43127060000</v>
       </c>
       <c r="J23" t="str">
-        <v>2023-01-09T11:00:00.000Z</v>
+        <v>2023-01-09T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>2714555121000</v>
+        <v>1292254093000</v>
       </c>
       <c r="L23">
-        <v>156328900</v>
+        <v>80943300</v>
       </c>
       <c r="M23">
-        <v>-658800</v>
+        <v>-159300</v>
       </c>
       <c r="N23">
-        <v>-5925905000</v>
+        <v>2041800000</v>
       </c>
       <c r="O23">
-        <v>6946900</v>
+        <v>887000</v>
       </c>
       <c r="P23">
-        <v>140567685000</v>
+        <v>-11728327000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1673262300000</v>
+        <v>1673258280000</v>
       </c>
       <c r="B24">
-        <v>2197600</v>
+        <v>1058600</v>
       </c>
       <c r="C24">
-        <v>1698300</v>
+        <v>2236900</v>
       </c>
       <c r="D24">
-        <v>29400</v>
+        <v>18400</v>
       </c>
       <c r="E24">
-        <v>37090616000</v>
+        <v>17834742000</v>
       </c>
       <c r="F24">
-        <v>37082947000</v>
+        <v>36049726000</v>
       </c>
       <c r="G24">
-        <v>302933000</v>
+        <v>459811000</v>
       </c>
       <c r="H24">
-        <v>3925300</v>
+        <v>3313900</v>
       </c>
       <c r="I24">
-        <v>74476496000</v>
+        <v>54344279000</v>
       </c>
       <c r="J24" t="str">
-        <v>2023-01-09T11:05:00.000Z</v>
+        <v>2023-01-09T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>2789031617000</v>
+        <v>1346598372000</v>
       </c>
       <c r="L24">
-        <v>160254200</v>
+        <v>84257200</v>
       </c>
       <c r="M24">
-        <v>-499300</v>
+        <v>1178300</v>
       </c>
       <c r="N24">
-        <v>-7669000</v>
+        <v>18214984000</v>
       </c>
       <c r="O24">
-        <v>6447600</v>
+        <v>2065300</v>
       </c>
       <c r="P24">
-        <v>140560016000</v>
+        <v>6486657000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1673262600000</v>
+        <v>1673258400000</v>
       </c>
       <c r="B25">
-        <v>1605200</v>
+        <v>1249300</v>
       </c>
       <c r="C25">
-        <v>2140200</v>
+        <v>2197900</v>
       </c>
       <c r="D25">
-        <v>14100</v>
+        <v>12200</v>
       </c>
       <c r="E25">
-        <v>27021564000</v>
+        <v>22590863000</v>
       </c>
       <c r="F25">
-        <v>50306495000</v>
+        <v>36675767000</v>
       </c>
       <c r="G25">
-        <v>331934000</v>
+        <v>146578000</v>
       </c>
       <c r="H25">
-        <v>3759500</v>
+        <v>3459400</v>
       </c>
       <c r="I25">
-        <v>77659993000</v>
+        <v>59413208000</v>
       </c>
       <c r="J25" t="str">
-        <v>2023-01-09T11:10:00.000Z</v>
+        <v>2023-01-09T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>2866691610000</v>
+        <v>1406011580000</v>
       </c>
       <c r="L25">
-        <v>164013700</v>
+        <v>87716600</v>
       </c>
       <c r="M25">
-        <v>535000</v>
+        <v>948600</v>
       </c>
       <c r="N25">
-        <v>23284931000</v>
+        <v>14084904000</v>
       </c>
       <c r="O25">
-        <v>6982600</v>
+        <v>3013900</v>
       </c>
       <c r="P25">
-        <v>163844947000</v>
+        <v>20571561000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1673262900000</v>
+        <v>1673258520000</v>
       </c>
       <c r="B26">
-        <v>2733900</v>
+        <v>1285100</v>
       </c>
       <c r="C26">
-        <v>1003700</v>
+        <v>1756100</v>
       </c>
       <c r="D26">
-        <v>16200</v>
+        <v>29000</v>
       </c>
       <c r="E26">
-        <v>51102041000</v>
+        <v>22499194000</v>
       </c>
       <c r="F26">
-        <v>19679953000</v>
+        <v>35827862000</v>
       </c>
       <c r="G26">
-        <v>390674000</v>
+        <v>829445000</v>
       </c>
       <c r="H26">
-        <v>3753800</v>
+        <v>3070200</v>
       </c>
       <c r="I26">
-        <v>71172668000</v>
+        <v>59156501000</v>
       </c>
       <c r="J26" t="str">
-        <v>2023-01-09T11:15:00.000Z</v>
+        <v>2023-01-09T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>2937864278000</v>
+        <v>1465168081000</v>
       </c>
       <c r="L26">
-        <v>167767500</v>
+        <v>90786800</v>
       </c>
       <c r="M26">
-        <v>-1730200</v>
+        <v>471000</v>
       </c>
       <c r="N26">
-        <v>-31422088000</v>
+        <v>13328668000</v>
       </c>
       <c r="O26">
-        <v>5252400</v>
+        <v>3484900</v>
       </c>
       <c r="P26">
-        <v>132422859000</v>
+        <v>33900229000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1673263200000</v>
+        <v>1673258640000</v>
       </c>
       <c r="B27">
-        <v>2508900</v>
+        <v>696300</v>
       </c>
       <c r="C27">
-        <v>1316800</v>
+        <v>1592100</v>
       </c>
       <c r="D27">
-        <v>17100</v>
+        <v>5700</v>
       </c>
       <c r="E27">
-        <v>43598706000</v>
+        <v>13742395000</v>
       </c>
       <c r="F27">
-        <v>27779266000</v>
+        <v>31489345000</v>
       </c>
       <c r="G27">
-        <v>471911000</v>
+        <v>144045000</v>
       </c>
       <c r="H27">
-        <v>3842800</v>
+        <v>2294100</v>
       </c>
       <c r="I27">
-        <v>71849883000</v>
+        <v>45375785000</v>
       </c>
       <c r="J27" t="str">
-        <v>2023-01-09T11:20:00.000Z</v>
+        <v>2023-01-09T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>3009714161000</v>
+        <v>1510543866000</v>
       </c>
       <c r="L27">
-        <v>171610300</v>
+        <v>93080900</v>
       </c>
       <c r="M27">
-        <v>-1192100</v>
+        <v>895800</v>
       </c>
       <c r="N27">
-        <v>-15819440000</v>
+        <v>17746950000</v>
       </c>
       <c r="O27">
-        <v>4060300</v>
+        <v>4380700</v>
       </c>
       <c r="P27">
-        <v>116603419000</v>
+        <v>51647179000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1673263500000</v>
+        <v>1673258760000</v>
       </c>
       <c r="B28">
-        <v>4130500</v>
+        <v>1063800</v>
       </c>
       <c r="C28">
-        <v>1664100</v>
+        <v>1688700</v>
       </c>
       <c r="D28">
-        <v>36900</v>
+        <v>25000</v>
       </c>
       <c r="E28">
-        <v>79429527000</v>
+        <v>21219558000</v>
       </c>
       <c r="F28">
-        <v>32043849000</v>
+        <v>32718730000</v>
       </c>
       <c r="G28">
-        <v>553474000</v>
+        <v>275667000</v>
       </c>
       <c r="H28">
-        <v>5831500</v>
+        <v>2777500</v>
       </c>
       <c r="I28">
-        <v>112026850000</v>
+        <v>54213955000</v>
       </c>
       <c r="J28" t="str">
-        <v>2023-01-09T11:25:00.000Z</v>
+        <v>2023-01-09T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>3121741011000</v>
+        <v>1564757821000</v>
       </c>
       <c r="L28">
-        <v>177441800</v>
+        <v>95858400</v>
       </c>
       <c r="M28">
-        <v>-2466400</v>
+        <v>624900</v>
       </c>
       <c r="N28">
-        <v>-47385678000</v>
+        <v>11499172000</v>
       </c>
       <c r="O28">
-        <v>1593900</v>
+        <v>5005600</v>
       </c>
       <c r="P28">
-        <v>69217741000</v>
+        <v>63146351000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1673263800000</v>
+        <v>1673258880000</v>
       </c>
       <c r="B29">
-        <v>17100</v>
+        <v>887400</v>
       </c>
       <c r="C29">
-        <v>100</v>
+        <v>1072300</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>13300</v>
       </c>
       <c r="E29">
-        <v>263778000</v>
+        <v>15810832000</v>
       </c>
       <c r="F29">
-        <v>1495000</v>
+        <v>23799814000</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>166860000</v>
       </c>
       <c r="H29">
-        <v>17200</v>
+        <v>1973000</v>
       </c>
       <c r="I29">
-        <v>265273000</v>
+        <v>39777506000</v>
       </c>
       <c r="J29" t="str">
-        <v>2023-01-09T11:30:00.000Z</v>
+        <v>2023-01-09T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>3122006284000</v>
+        <v>1604535327000</v>
       </c>
       <c r="L29">
-        <v>177459000</v>
+        <v>97831400</v>
       </c>
       <c r="M29">
-        <v>-17000</v>
+        <v>184900</v>
       </c>
       <c r="N29">
-        <v>-262283000</v>
+        <v>7988982000</v>
       </c>
       <c r="O29">
-        <v>1576900</v>
+        <v>5190500</v>
       </c>
       <c r="P29">
-        <v>68955458000</v>
+        <v>71135333000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1673269200000</v>
+        <v>1673259000000</v>
       </c>
       <c r="B30">
-        <v>6590600</v>
+        <v>719700</v>
       </c>
       <c r="C30">
-        <v>4304400</v>
+        <v>1927800</v>
       </c>
       <c r="D30">
-        <v>184500</v>
+        <v>19600</v>
       </c>
       <c r="E30">
-        <v>114475099000</v>
+        <v>14036821000</v>
       </c>
       <c r="F30">
-        <v>80522799000</v>
+        <v>36239387000</v>
       </c>
       <c r="G30">
-        <v>5398758000</v>
+        <v>270680000</v>
       </c>
       <c r="H30">
-        <v>11079500</v>
+        <v>2667100</v>
       </c>
       <c r="I30">
-        <v>200396656000</v>
+        <v>50546888000</v>
       </c>
       <c r="J30" t="str">
-        <v>2023-01-09T13:00:00.000Z</v>
+        <v>2023-01-09T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>3322402940000</v>
+        <v>1655082215000</v>
       </c>
       <c r="L30">
-        <v>188538500</v>
+        <v>100498500</v>
       </c>
       <c r="M30">
-        <v>-2286200</v>
+        <v>1208100</v>
       </c>
       <c r="N30">
-        <v>-33952300000</v>
+        <v>22202566000</v>
       </c>
       <c r="O30">
-        <v>-709300</v>
+        <v>6398600</v>
       </c>
       <c r="P30">
-        <v>35003158000</v>
+        <v>93337899000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1673269500000</v>
+        <v>1673259120000</v>
       </c>
       <c r="B31">
-        <v>4568200</v>
+        <v>949500</v>
       </c>
       <c r="C31">
-        <v>2251900</v>
+        <v>1664900</v>
       </c>
       <c r="D31">
-        <v>32000</v>
+        <v>21900</v>
       </c>
       <c r="E31">
-        <v>83265904000</v>
+        <v>20652904000</v>
       </c>
       <c r="F31">
-        <v>45228607000</v>
+        <v>30324030000</v>
       </c>
       <c r="G31">
-        <v>737375000</v>
+        <v>487795000</v>
       </c>
       <c r="H31">
-        <v>6852100</v>
+        <v>2636300</v>
       </c>
       <c r="I31">
-        <v>129231886000</v>
+        <v>51464729000</v>
       </c>
       <c r="J31" t="str">
-        <v>2023-01-09T13:05:00.000Z</v>
+        <v>2023-01-09T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>3451634826000</v>
+        <v>1706546944000</v>
       </c>
       <c r="L31">
-        <v>195390600</v>
+        <v>103134800</v>
       </c>
       <c r="M31">
-        <v>-2316300</v>
+        <v>715400</v>
       </c>
       <c r="N31">
-        <v>-38037297000</v>
+        <v>9671126000</v>
       </c>
       <c r="O31">
-        <v>-3025600</v>
+        <v>7114000</v>
       </c>
       <c r="P31">
-        <v>-3034139000</v>
+        <v>103009025000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1673269800000</v>
+        <v>1673259240000</v>
       </c>
       <c r="B32">
-        <v>4613600</v>
+        <v>1796600</v>
       </c>
       <c r="C32">
-        <v>2148600</v>
+        <v>973600</v>
       </c>
       <c r="D32">
-        <v>37300</v>
+        <v>10000</v>
       </c>
       <c r="E32">
-        <v>79011959000</v>
+        <v>37817039000</v>
       </c>
       <c r="F32">
-        <v>40254314000</v>
+        <v>16846980000</v>
       </c>
       <c r="G32">
-        <v>825491000</v>
+        <v>246134000</v>
       </c>
       <c r="H32">
-        <v>6799500</v>
+        <v>2780200</v>
       </c>
       <c r="I32">
-        <v>120091764000</v>
+        <v>54910153000</v>
       </c>
       <c r="J32" t="str">
-        <v>2023-01-09T13:10:00.000Z</v>
+        <v>2023-01-09T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>3571726590000</v>
+        <v>1761457097000</v>
       </c>
       <c r="L32">
-        <v>202190100</v>
+        <v>105915000</v>
       </c>
       <c r="M32">
-        <v>-2465000</v>
+        <v>-823000</v>
       </c>
       <c r="N32">
-        <v>-38757645000</v>
+        <v>-20970059000</v>
       </c>
       <c r="O32">
-        <v>-5490600</v>
+        <v>6291000</v>
       </c>
       <c r="P32">
-        <v>-41791784000</v>
+        <v>82038966000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1673270100000</v>
+        <v>1673259360000</v>
       </c>
       <c r="B33">
-        <v>3765100</v>
+        <v>1221100</v>
       </c>
       <c r="C33">
-        <v>4133300</v>
+        <v>644000</v>
       </c>
       <c r="D33">
-        <v>64600</v>
+        <v>9000</v>
       </c>
       <c r="E33">
-        <v>60590419000</v>
+        <v>23896662000</v>
       </c>
       <c r="F33">
-        <v>79679116000</v>
+        <v>12216164000</v>
       </c>
       <c r="G33">
-        <v>872894000</v>
+        <v>95965000</v>
       </c>
       <c r="H33">
-        <v>7963000</v>
+        <v>1874100</v>
       </c>
       <c r="I33">
-        <v>141142429000</v>
+        <v>36208791000</v>
       </c>
       <c r="J33" t="str">
-        <v>2023-01-09T13:15:00.000Z</v>
+        <v>2023-01-09T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>3712869019000</v>
+        <v>1797665888000</v>
       </c>
       <c r="L33">
-        <v>210153100</v>
+        <v>107789100</v>
       </c>
       <c r="M33">
-        <v>368200</v>
+        <v>-577100</v>
       </c>
       <c r="N33">
-        <v>19088697000</v>
+        <v>-11680498000</v>
       </c>
       <c r="O33">
-        <v>-5122400</v>
+        <v>5713900</v>
       </c>
       <c r="P33">
-        <v>-22703087000</v>
+        <v>70358468000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1673270400000</v>
+        <v>1673259480000</v>
       </c>
       <c r="B34">
-        <v>2674300</v>
+        <v>1187500</v>
       </c>
       <c r="C34">
-        <v>3826400</v>
+        <v>932900</v>
       </c>
       <c r="D34">
-        <v>40000</v>
+        <v>2000</v>
       </c>
       <c r="E34">
-        <v>46790924000</v>
+        <v>21327010000</v>
       </c>
       <c r="F34">
-        <v>71946165000</v>
+        <v>16590435000</v>
       </c>
       <c r="G34">
-        <v>1094409000</v>
+        <v>48265000</v>
       </c>
       <c r="H34">
-        <v>6540700</v>
+        <v>2122400</v>
       </c>
       <c r="I34">
-        <v>119831498000</v>
+        <v>37965710000</v>
       </c>
       <c r="J34" t="str">
-        <v>2023-01-09T13:20:00.000Z</v>
+        <v>2023-01-09T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>3832700517000</v>
+        <v>1835631598000</v>
       </c>
       <c r="L34">
-        <v>216693800</v>
+        <v>109911500</v>
       </c>
       <c r="M34">
-        <v>1152100</v>
+        <v>-254600</v>
       </c>
       <c r="N34">
-        <v>25155241000</v>
+        <v>-4736575000</v>
       </c>
       <c r="O34">
-        <v>-3970300</v>
+        <v>5459300</v>
       </c>
       <c r="P34">
-        <v>2452154000</v>
+        <v>65621893000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1673270700000</v>
+        <v>1673259600000</v>
       </c>
       <c r="B35">
-        <v>4487600</v>
+        <v>599300</v>
       </c>
       <c r="C35">
-        <v>3237900</v>
+        <v>1279900</v>
       </c>
       <c r="D35">
-        <v>125100</v>
+        <v>4200</v>
       </c>
       <c r="E35">
-        <v>74322198000</v>
+        <v>10844040000</v>
       </c>
       <c r="F35">
-        <v>60906475000</v>
+        <v>26784121000</v>
       </c>
       <c r="G35">
-        <v>1815361000</v>
+        <v>112159000</v>
       </c>
       <c r="H35">
-        <v>7850600</v>
+        <v>1883400</v>
       </c>
       <c r="I35">
-        <v>137044034000</v>
+        <v>37740320000</v>
       </c>
       <c r="J35" t="str">
-        <v>2023-01-09T13:25:00.000Z</v>
+        <v>2023-01-09T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>3969744551000</v>
+        <v>1873371918000</v>
       </c>
       <c r="L35">
-        <v>224544400</v>
+        <v>111794900</v>
       </c>
       <c r="M35">
-        <v>-1249700</v>
+        <v>680600</v>
       </c>
       <c r="N35">
-        <v>-13415723000</v>
+        <v>15940081000</v>
       </c>
       <c r="O35">
-        <v>-5220000</v>
+        <v>6139900</v>
       </c>
       <c r="P35">
-        <v>-10963569000</v>
+        <v>81561974000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1673271000000</v>
+        <v>1673259720000</v>
       </c>
       <c r="B36">
-        <v>6589500</v>
+        <v>763700</v>
       </c>
       <c r="C36">
-        <v>3286800</v>
+        <v>1241400</v>
       </c>
       <c r="D36">
-        <v>68600</v>
+        <v>4800</v>
       </c>
       <c r="E36">
-        <v>109164214000</v>
+        <v>12211476000</v>
       </c>
       <c r="F36">
-        <v>63347601000</v>
+        <v>23890900000</v>
       </c>
       <c r="G36">
-        <v>1148143000</v>
+        <v>42011000</v>
       </c>
       <c r="H36">
-        <v>9944900</v>
+        <v>2009900</v>
       </c>
       <c r="I36">
-        <v>173659958000</v>
+        <v>36144387000</v>
       </c>
       <c r="J36" t="str">
-        <v>2023-01-09T13:30:00.000Z</v>
+        <v>2023-01-09T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>4143404509000</v>
+        <v>1909516305000</v>
       </c>
       <c r="L36">
-        <v>234489300</v>
+        <v>113804800</v>
       </c>
       <c r="M36">
-        <v>-3302700</v>
+        <v>477700</v>
       </c>
       <c r="N36">
-        <v>-45816613000</v>
+        <v>11679424000</v>
       </c>
       <c r="O36">
-        <v>-8522700</v>
+        <v>6617600</v>
       </c>
       <c r="P36">
-        <v>-56780182000</v>
+        <v>93241398000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1673271300000</v>
+        <v>1673259840000</v>
       </c>
       <c r="B37">
-        <v>6124400</v>
+        <v>772000</v>
       </c>
       <c r="C37">
-        <v>2401700</v>
+        <v>1050100</v>
       </c>
       <c r="D37">
-        <v>55200</v>
+        <v>9200</v>
       </c>
       <c r="E37">
-        <v>97460233000</v>
+        <v>13415887000</v>
       </c>
       <c r="F37">
-        <v>44151422000</v>
+        <v>17676703000</v>
       </c>
       <c r="G37">
-        <v>976855000</v>
+        <v>150250000</v>
       </c>
       <c r="H37">
-        <v>8581300</v>
+        <v>1831300</v>
       </c>
       <c r="I37">
-        <v>142588510000</v>
+        <v>31242840000</v>
       </c>
       <c r="J37" t="str">
-        <v>2023-01-09T13:35:00.000Z</v>
+        <v>2023-01-09T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>4285993019000</v>
+        <v>1940759145000</v>
       </c>
       <c r="L37">
-        <v>243070600</v>
+        <v>115636100</v>
       </c>
       <c r="M37">
-        <v>-3722700</v>
+        <v>278100</v>
       </c>
       <c r="N37">
-        <v>-53308811000</v>
+        <v>4260816000</v>
       </c>
       <c r="O37">
-        <v>-12245400</v>
+        <v>6895700</v>
       </c>
       <c r="P37">
-        <v>-110088993000</v>
+        <v>97502214000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1673271600000</v>
+        <v>1673259960000</v>
       </c>
       <c r="B38">
-        <v>5551100</v>
+        <v>580700</v>
       </c>
       <c r="C38">
-        <v>2870000</v>
+        <v>1189500</v>
       </c>
       <c r="D38">
-        <v>34900</v>
+        <v>1300</v>
       </c>
       <c r="E38">
-        <v>92978377000</v>
+        <v>11185847000</v>
       </c>
       <c r="F38">
-        <v>54903658000</v>
+        <v>23912563000</v>
       </c>
       <c r="G38">
-        <v>677656000</v>
+        <v>34798000</v>
       </c>
       <c r="H38">
-        <v>8456000</v>
+        <v>1771500</v>
       </c>
       <c r="I38">
-        <v>148559691000</v>
+        <v>35133208000</v>
       </c>
       <c r="J38" t="str">
-        <v>2023-01-09T13:40:00.000Z</v>
+        <v>2023-01-09T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>4434552710000</v>
+        <v>1975892353000</v>
       </c>
       <c r="L38">
-        <v>251526600</v>
+        <v>117407600</v>
       </c>
       <c r="M38">
-        <v>-2681100</v>
+        <v>608800</v>
       </c>
       <c r="N38">
-        <v>-38074719000</v>
+        <v>12726716000</v>
       </c>
       <c r="O38">
-        <v>-14926500</v>
+        <v>7504500</v>
       </c>
       <c r="P38">
-        <v>-148163712000</v>
+        <v>110228930000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1673271900000</v>
+        <v>1673260080000</v>
       </c>
       <c r="B39">
-        <v>8048200</v>
+        <v>448400</v>
       </c>
       <c r="C39">
-        <v>3445300</v>
+        <v>1701600</v>
       </c>
       <c r="D39">
-        <v>119900</v>
+        <v>5600</v>
       </c>
       <c r="E39">
-        <v>138609606000</v>
+        <v>9090969000</v>
       </c>
       <c r="F39">
-        <v>62272653000</v>
+        <v>34892667000</v>
       </c>
       <c r="G39">
-        <v>1172086000</v>
+        <v>189622000</v>
       </c>
       <c r="H39">
-        <v>11613400</v>
+        <v>2155600</v>
       </c>
       <c r="I39">
-        <v>202054345000</v>
+        <v>44173258000</v>
       </c>
       <c r="J39" t="str">
-        <v>2023-01-09T13:45:00.000Z</v>
+        <v>2023-01-09T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>4636607055000</v>
+        <v>2020065611000</v>
       </c>
       <c r="L39">
-        <v>263140000</v>
+        <v>119563200</v>
       </c>
       <c r="M39">
-        <v>-4602900</v>
+        <v>1253200</v>
       </c>
       <c r="N39">
-        <v>-76336953000</v>
+        <v>25801698000</v>
       </c>
       <c r="O39">
-        <v>-19529400</v>
+        <v>8757700</v>
       </c>
       <c r="P39">
-        <v>-224500665000</v>
+        <v>136030628000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1673272200000</v>
+        <v>1673260200000</v>
       </c>
       <c r="B40">
-        <v>2333800</v>
+        <v>797200</v>
       </c>
       <c r="C40">
-        <v>5719400</v>
+        <v>1529900</v>
       </c>
       <c r="D40">
-        <v>30500</v>
+        <v>33700</v>
       </c>
       <c r="E40">
-        <v>40561867000</v>
+        <v>13910930000</v>
       </c>
       <c r="F40">
-        <v>100005820000</v>
+        <v>29989653000</v>
       </c>
       <c r="G40">
-        <v>318020000</v>
+        <v>220182000</v>
       </c>
       <c r="H40">
-        <v>8083700</v>
+        <v>2360800</v>
       </c>
       <c r="I40">
-        <v>140885707000</v>
+        <v>44120765000</v>
       </c>
       <c r="J40" t="str">
-        <v>2023-01-09T13:50:00.000Z</v>
+        <v>2023-01-09T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>4777492762000</v>
+        <v>2064186376000</v>
       </c>
       <c r="L40">
-        <v>271223700</v>
+        <v>121924000</v>
       </c>
       <c r="M40">
-        <v>3385600</v>
+        <v>732700</v>
       </c>
       <c r="N40">
-        <v>59443953000</v>
+        <v>16078723000</v>
       </c>
       <c r="O40">
-        <v>-16143800</v>
+        <v>9490400</v>
       </c>
       <c r="P40">
-        <v>-165056712000</v>
+        <v>152109351000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1673272500000</v>
+        <v>1673260320000</v>
       </c>
       <c r="B41">
-        <v>3448300</v>
+        <v>884600</v>
       </c>
       <c r="C41">
-        <v>4229000</v>
+        <v>1577100</v>
       </c>
       <c r="D41">
-        <v>51100</v>
+        <v>7100</v>
       </c>
       <c r="E41">
-        <v>72292552000</v>
+        <v>17076706000</v>
       </c>
       <c r="F41">
-        <v>76000795000</v>
+        <v>31846132000</v>
       </c>
       <c r="G41">
-        <v>1389471000</v>
+        <v>70399000</v>
       </c>
       <c r="H41">
-        <v>7728400</v>
+        <v>2468800</v>
       </c>
       <c r="I41">
-        <v>149682818000</v>
+        <v>48993237000</v>
       </c>
       <c r="J41" t="str">
-        <v>2023-01-09T13:55:00.000Z</v>
+        <v>2023-01-09T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>4927175580000</v>
+        <v>2113179613000</v>
       </c>
       <c r="L41">
-        <v>278952100</v>
+        <v>124392800</v>
       </c>
       <c r="M41">
-        <v>780700</v>
+        <v>692500</v>
       </c>
       <c r="N41">
-        <v>3708243000</v>
+        <v>14769426000</v>
       </c>
       <c r="O41">
-        <v>-15363100</v>
+        <v>10182900</v>
       </c>
       <c r="P41">
-        <v>-161348469000</v>
+        <v>166878777000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1673272800000</v>
+        <v>1673260440000</v>
       </c>
       <c r="B42">
-        <v>2602400</v>
+        <v>1109900</v>
       </c>
       <c r="C42">
-        <v>2355200</v>
+        <v>1815100</v>
       </c>
       <c r="D42">
-        <v>59000</v>
+        <v>10600</v>
       </c>
       <c r="E42">
-        <v>47594181000</v>
+        <v>21146678000</v>
       </c>
       <c r="F42">
-        <v>41832123000</v>
+        <v>33504562000</v>
       </c>
       <c r="G42">
-        <v>817630000</v>
+        <v>166616000</v>
       </c>
       <c r="H42">
-        <v>5016600</v>
+        <v>2935600</v>
       </c>
       <c r="I42">
-        <v>90243934000</v>
+        <v>54817856000</v>
       </c>
       <c r="J42" t="str">
-        <v>2023-01-09T14:00:00.000Z</v>
+        <v>2023-01-09T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>5017419514000</v>
+        <v>2167997469000</v>
       </c>
       <c r="L42">
-        <v>283968700</v>
+        <v>127328400</v>
       </c>
       <c r="M42">
-        <v>-247200</v>
+        <v>705200</v>
       </c>
       <c r="N42">
-        <v>-5762058000</v>
+        <v>12357884000</v>
       </c>
       <c r="O42">
-        <v>-15610300</v>
+        <v>10888100</v>
       </c>
       <c r="P42">
-        <v>-167110527000</v>
+        <v>179236661000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1673273100000</v>
+        <v>1673260560000</v>
       </c>
       <c r="B43">
-        <v>3418200</v>
+        <v>949500</v>
       </c>
       <c r="C43">
-        <v>3913300</v>
+        <v>1686800</v>
       </c>
       <c r="D43">
-        <v>23000</v>
+        <v>100</v>
       </c>
       <c r="E43">
-        <v>60424759000</v>
+        <v>16566619000</v>
       </c>
       <c r="F43">
-        <v>82450895000</v>
+        <v>32450046000</v>
       </c>
       <c r="G43">
-        <v>421441000</v>
+        <v>8530000</v>
       </c>
       <c r="H43">
-        <v>7354500</v>
+        <v>2636400</v>
       </c>
       <c r="I43">
-        <v>143297095000</v>
+        <v>49025195000</v>
       </c>
       <c r="J43" t="str">
-        <v>2023-01-09T14:05:00.000Z</v>
+        <v>2023-01-09T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>5160716609000</v>
+        <v>2217022664000</v>
       </c>
       <c r="L43">
-        <v>291323200</v>
+        <v>129964800</v>
       </c>
       <c r="M43">
-        <v>495100</v>
+        <v>737300</v>
       </c>
       <c r="N43">
-        <v>22026136000</v>
+        <v>15883427000</v>
       </c>
       <c r="O43">
-        <v>-15115200</v>
+        <v>11625400</v>
       </c>
       <c r="P43">
-        <v>-145084391000</v>
+        <v>195120088000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1673273400000</v>
+        <v>1673260680000</v>
       </c>
       <c r="B44">
-        <v>7656300</v>
+        <v>1472000</v>
       </c>
       <c r="C44">
-        <v>2292000</v>
+        <v>1068800</v>
       </c>
       <c r="D44">
-        <v>22600</v>
+        <v>8600</v>
       </c>
       <c r="E44">
-        <v>134323492000</v>
+        <v>24856155000</v>
       </c>
       <c r="F44">
-        <v>44238700000</v>
+        <v>19748390000</v>
       </c>
       <c r="G44">
-        <v>510580000</v>
+        <v>131162000</v>
       </c>
       <c r="H44">
-        <v>9970900</v>
+        <v>2549400</v>
       </c>
       <c r="I44">
-        <v>179072772000</v>
+        <v>44735707000</v>
       </c>
       <c r="J44" t="str">
-        <v>2023-01-09T14:10:00.000Z</v>
+        <v>2023-01-09T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>5339789381000</v>
+        <v>2261758371000</v>
       </c>
       <c r="L44">
-        <v>301294100</v>
+        <v>132514200</v>
       </c>
       <c r="M44">
-        <v>-5364300</v>
+        <v>-403200</v>
       </c>
       <c r="N44">
-        <v>-90084792000</v>
+        <v>-5107765000</v>
       </c>
       <c r="O44">
-        <v>-20479500</v>
+        <v>11222200</v>
       </c>
       <c r="P44">
-        <v>-235169183000</v>
+        <v>190012323000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1673273700000</v>
+        <v>1673260800000</v>
       </c>
       <c r="B45">
-        <v>6222500</v>
+        <v>1694700</v>
       </c>
       <c r="C45">
-        <v>6062800</v>
+        <v>760800</v>
       </c>
       <c r="D45">
-        <v>69400</v>
+        <v>28200</v>
       </c>
       <c r="E45">
-        <v>105159967000</v>
+        <v>31364595000</v>
       </c>
       <c r="F45">
-        <v>108757608000</v>
+        <v>12461448000</v>
       </c>
       <c r="G45">
-        <v>1152808000</v>
+        <v>474166000</v>
       </c>
       <c r="H45">
-        <v>12354700</v>
+        <v>2483700</v>
       </c>
       <c r="I45">
-        <v>215070383000</v>
+        <v>44300209000</v>
       </c>
       <c r="J45" t="str">
-        <v>2023-01-09T14:15:00.000Z</v>
+        <v>2023-01-09T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>5554859764000</v>
+        <v>2306058580000</v>
       </c>
       <c r="L45">
-        <v>313648800</v>
+        <v>134997900</v>
       </c>
       <c r="M45">
-        <v>-159700</v>
+        <v>-933900</v>
       </c>
       <c r="N45">
-        <v>3597641000</v>
+        <v>-18903147000</v>
       </c>
       <c r="O45">
-        <v>-20639200</v>
+        <v>10288300</v>
       </c>
       <c r="P45">
-        <v>-231571542000</v>
+        <v>171109176000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1673274000000</v>
+        <v>1673260920000</v>
       </c>
       <c r="B46">
-        <v>6362600</v>
+        <v>1329900</v>
       </c>
       <c r="C46">
-        <v>4795700</v>
+        <v>774100</v>
       </c>
       <c r="D46">
-        <v>189800</v>
+        <v>4100</v>
       </c>
       <c r="E46">
-        <v>102279766000</v>
+        <v>29742690000</v>
       </c>
       <c r="F46">
-        <v>89390355000</v>
+        <v>15317789000</v>
       </c>
       <c r="G46">
-        <v>2301551000</v>
+        <v>173729000</v>
       </c>
       <c r="H46">
-        <v>11348100</v>
+        <v>2108100</v>
       </c>
       <c r="I46">
-        <v>193971672000</v>
+        <v>45234208000</v>
       </c>
       <c r="J46" t="str">
-        <v>2023-01-09T14:20:00.000Z</v>
+        <v>2023-01-09T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>5748831436000</v>
+        <v>2351292788000</v>
       </c>
       <c r="L46">
-        <v>324996900</v>
+        <v>137106000</v>
       </c>
       <c r="M46">
-        <v>-1566900</v>
+        <v>-555800</v>
       </c>
       <c r="N46">
-        <v>-12889411000</v>
+        <v>-14424901000</v>
       </c>
       <c r="O46">
-        <v>-22206100</v>
+        <v>9732500</v>
       </c>
       <c r="P46">
-        <v>-244460953000</v>
+        <v>156684275000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1673274300000</v>
+        <v>1673261040000</v>
       </c>
       <c r="B47">
-        <v>13165200</v>
+        <v>1281000</v>
       </c>
       <c r="C47">
-        <v>3626600</v>
+        <v>522300</v>
       </c>
       <c r="D47">
-        <v>297200</v>
+        <v>38600</v>
       </c>
       <c r="E47">
-        <v>208260368000</v>
+        <v>24299834000</v>
       </c>
       <c r="F47">
-        <v>57821931000</v>
+        <v>10455122000</v>
       </c>
       <c r="G47">
-        <v>4907838000</v>
+        <v>331943000</v>
       </c>
       <c r="H47">
-        <v>17089000</v>
+        <v>1841900</v>
       </c>
       <c r="I47">
-        <v>270990137000</v>
+        <v>35086899000</v>
       </c>
       <c r="J47" t="str">
-        <v>2023-01-09T14:25:00.000Z</v>
+        <v>2023-01-09T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>6019821573000</v>
+        <v>2386379687000</v>
       </c>
       <c r="L47">
-        <v>342085900</v>
+        <v>138947900</v>
       </c>
       <c r="M47">
-        <v>-9538600</v>
+        <v>-758700</v>
       </c>
       <c r="N47">
-        <v>-150438437000</v>
+        <v>-13844712000</v>
       </c>
       <c r="O47">
-        <v>-31744700</v>
+        <v>8973800</v>
       </c>
       <c r="P47">
-        <v>-394899390000</v>
+        <v>142839563000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1673274600000</v>
+        <v>1673261160000</v>
       </c>
       <c r="B48">
-        <v>24000</v>
+        <v>1280200</v>
       </c>
       <c r="C48">
-        <v>2100</v>
+        <v>587400</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>51500</v>
       </c>
       <c r="E48">
-        <v>479519000</v>
+        <v>22974761000</v>
       </c>
       <c r="F48">
-        <v>35668000</v>
+        <v>11927409000</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>950193000</v>
       </c>
       <c r="H48">
-        <v>26100</v>
+        <v>1919100</v>
       </c>
       <c r="I48">
-        <v>515187000</v>
+        <v>35852363000</v>
       </c>
       <c r="J48" t="str">
-        <v>2023-01-09T14:30:00.000Z</v>
+        <v>2023-01-09T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>6020336760000</v>
+        <v>2422232050000</v>
       </c>
       <c r="L48">
-        <v>342112000</v>
+        <v>140867000</v>
       </c>
       <c r="M48">
-        <v>-21900</v>
+        <v>-692800</v>
       </c>
       <c r="N48">
-        <v>-443851000</v>
+        <v>-11047352000</v>
       </c>
       <c r="O48">
-        <v>-31766600</v>
+        <v>8281000</v>
       </c>
       <c r="P48">
-        <v>-395343241000</v>
+        <v>131792211000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1673275500000</v>
+        <v>1673261280000</v>
       </c>
       <c r="B49">
+        <v>1110400</v>
+      </c>
+      <c r="C49">
+        <v>646400</v>
+      </c>
+      <c r="D49">
+        <v>20400</v>
+      </c>
+      <c r="E49">
+        <v>17247465000</v>
+      </c>
+      <c r="F49">
+        <v>12246735000</v>
+      </c>
+      <c r="G49">
+        <v>171194000</v>
+      </c>
+      <c r="H49">
+        <v>1777200</v>
+      </c>
+      <c r="I49">
+        <v>29665394000</v>
+      </c>
+      <c r="J49" t="str">
+        <v>2023-01-09T10:48:00.000Z</v>
+      </c>
+      <c r="K49">
+        <v>2451897444000</v>
+      </c>
+      <c r="L49">
+        <v>142644200</v>
+      </c>
+      <c r="M49">
+        <v>-464000</v>
+      </c>
+      <c r="N49">
+        <v>-5000730000</v>
+      </c>
+      <c r="O49">
+        <v>7817000</v>
+      </c>
+      <c r="P49">
+        <v>126791481000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>1673261400000</v>
+      </c>
+      <c r="B50">
+        <v>1118900</v>
+      </c>
+      <c r="C50">
+        <v>466000</v>
+      </c>
+      <c r="D50">
+        <v>800</v>
+      </c>
+      <c r="E50">
+        <v>19465596000</v>
+      </c>
+      <c r="F50">
+        <v>11697110000</v>
+      </c>
+      <c r="G50">
+        <v>18160000</v>
+      </c>
+      <c r="H50">
+        <v>1585700</v>
+      </c>
+      <c r="I50">
+        <v>31180866000</v>
+      </c>
+      <c r="J50" t="str">
+        <v>2023-01-09T10:50:00.000Z</v>
+      </c>
+      <c r="K50">
+        <v>2483078310000</v>
+      </c>
+      <c r="L50">
+        <v>144229900</v>
+      </c>
+      <c r="M50">
+        <v>-652900</v>
+      </c>
+      <c r="N50">
+        <v>-7768486000</v>
+      </c>
+      <c r="O50">
+        <v>7164100</v>
+      </c>
+      <c r="P50">
+        <v>119022995000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>1673261520000</v>
+      </c>
+      <c r="B51">
+        <v>898500</v>
+      </c>
+      <c r="C51">
+        <v>922200</v>
+      </c>
+      <c r="D51">
+        <v>6000</v>
+      </c>
+      <c r="E51">
+        <v>14255318000</v>
+      </c>
+      <c r="F51">
+        <v>21940839000</v>
+      </c>
+      <c r="G51">
+        <v>202870000</v>
+      </c>
+      <c r="H51">
+        <v>1826700</v>
+      </c>
+      <c r="I51">
+        <v>36399027000</v>
+      </c>
+      <c r="J51" t="str">
+        <v>2023-01-09T10:52:00.000Z</v>
+      </c>
+      <c r="K51">
+        <v>2519477337000</v>
+      </c>
+      <c r="L51">
+        <v>146056600</v>
+      </c>
+      <c r="M51">
+        <v>23700</v>
+      </c>
+      <c r="N51">
+        <v>7685521000</v>
+      </c>
+      <c r="O51">
+        <v>7187800</v>
+      </c>
+      <c r="P51">
+        <v>126708516000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>1673261640000</v>
+      </c>
+      <c r="B52">
+        <v>866000</v>
+      </c>
+      <c r="C52">
+        <v>1139700</v>
+      </c>
+      <c r="D52">
+        <v>1000</v>
+      </c>
+      <c r="E52">
+        <v>13652404000</v>
+      </c>
+      <c r="F52">
+        <v>22796313000</v>
+      </c>
+      <c r="G52">
+        <v>8849000</v>
+      </c>
+      <c r="H52">
+        <v>2006700</v>
+      </c>
+      <c r="I52">
+        <v>36457566000</v>
+      </c>
+      <c r="J52" t="str">
+        <v>2023-01-09T10:54:00.000Z</v>
+      </c>
+      <c r="K52">
+        <v>2555934903000</v>
+      </c>
+      <c r="L52">
+        <v>148063300</v>
+      </c>
+      <c r="M52">
+        <v>273700</v>
+      </c>
+      <c r="N52">
+        <v>9143909000</v>
+      </c>
+      <c r="O52">
+        <v>7461500</v>
+      </c>
+      <c r="P52">
+        <v>135852425000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>1673261760000</v>
+      </c>
+      <c r="B53">
+        <v>822600</v>
+      </c>
+      <c r="C53">
+        <v>1016600</v>
+      </c>
+      <c r="D53">
+        <v>14400</v>
+      </c>
+      <c r="E53">
+        <v>12798932000</v>
+      </c>
+      <c r="F53">
+        <v>20514167000</v>
+      </c>
+      <c r="G53">
+        <v>228208000</v>
+      </c>
+      <c r="H53">
+        <v>1853600</v>
+      </c>
+      <c r="I53">
+        <v>33541307000</v>
+      </c>
+      <c r="J53" t="str">
+        <v>2023-01-09T10:56:00.000Z</v>
+      </c>
+      <c r="K53">
+        <v>2589476210000</v>
+      </c>
+      <c r="L53">
+        <v>149916900</v>
+      </c>
+      <c r="M53">
+        <v>194000</v>
+      </c>
+      <c r="N53">
+        <v>7715235000</v>
+      </c>
+      <c r="O53">
+        <v>7655500</v>
+      </c>
+      <c r="P53">
+        <v>143567660000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>1673261880000</v>
+      </c>
+      <c r="B54">
+        <v>816600</v>
+      </c>
+      <c r="C54">
+        <v>766800</v>
+      </c>
+      <c r="D54">
+        <v>21100</v>
+      </c>
+      <c r="E54">
+        <v>14476076000</v>
+      </c>
+      <c r="F54">
+        <v>17402006000</v>
+      </c>
+      <c r="G54">
+        <v>295218000</v>
+      </c>
+      <c r="H54">
+        <v>1604500</v>
+      </c>
+      <c r="I54">
+        <v>32173300000</v>
+      </c>
+      <c r="J54" t="str">
+        <v>2023-01-09T10:58:00.000Z</v>
+      </c>
+      <c r="K54">
+        <v>2621649510000</v>
+      </c>
+      <c r="L54">
+        <v>151521400</v>
+      </c>
+      <c r="M54">
+        <v>-49800</v>
+      </c>
+      <c r="N54">
+        <v>2925930000</v>
+      </c>
+      <c r="O54">
+        <v>7605700</v>
+      </c>
+      <c r="P54">
+        <v>146493590000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>1673262000000</v>
+      </c>
+      <c r="B55">
+        <v>957500</v>
+      </c>
+      <c r="C55">
+        <v>1063800</v>
+      </c>
+      <c r="D55">
+        <v>6800</v>
+      </c>
+      <c r="E55">
+        <v>17357509000</v>
+      </c>
+      <c r="F55">
+        <v>23640067000</v>
+      </c>
+      <c r="G55">
+        <v>134016000</v>
+      </c>
+      <c r="H55">
+        <v>2028100</v>
+      </c>
+      <c r="I55">
+        <v>41131592000</v>
+      </c>
+      <c r="J55" t="str">
+        <v>2023-01-09T11:00:00.000Z</v>
+      </c>
+      <c r="K55">
+        <v>2662781102000</v>
+      </c>
+      <c r="L55">
+        <v>153549500</v>
+      </c>
+      <c r="M55">
+        <v>106300</v>
+      </c>
+      <c r="N55">
+        <v>6282558000</v>
+      </c>
+      <c r="O55">
+        <v>7712000</v>
+      </c>
+      <c r="P55">
+        <v>152776148000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>1673262120000</v>
+      </c>
+      <c r="B56">
+        <v>970900</v>
+      </c>
+      <c r="C56">
+        <v>590000</v>
+      </c>
+      <c r="D56">
+        <v>1400</v>
+      </c>
+      <c r="E56">
+        <v>19999524000</v>
+      </c>
+      <c r="F56">
+        <v>12326675000</v>
+      </c>
+      <c r="G56">
+        <v>18529000</v>
+      </c>
+      <c r="H56">
+        <v>1562300</v>
+      </c>
+      <c r="I56">
+        <v>32344728000</v>
+      </c>
+      <c r="J56" t="str">
+        <v>2023-01-09T11:02:00.000Z</v>
+      </c>
+      <c r="K56">
+        <v>2695125830000</v>
+      </c>
+      <c r="L56">
+        <v>155111800</v>
+      </c>
+      <c r="M56">
+        <v>-380900</v>
+      </c>
+      <c r="N56">
+        <v>-7672849000</v>
+      </c>
+      <c r="O56">
+        <v>7331100</v>
+      </c>
+      <c r="P56">
+        <v>145103299000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>1673262240000</v>
+      </c>
+      <c r="B57">
+        <v>1348300</v>
+      </c>
+      <c r="C57">
+        <v>910600</v>
+      </c>
+      <c r="D57">
+        <v>34600</v>
+      </c>
+      <c r="E57">
+        <v>20341683000</v>
+      </c>
+      <c r="F57">
+        <v>16431950000</v>
+      </c>
+      <c r="G57">
+        <v>421063000</v>
+      </c>
+      <c r="H57">
+        <v>2293500</v>
+      </c>
+      <c r="I57">
+        <v>37194696000</v>
+      </c>
+      <c r="J57" t="str">
+        <v>2023-01-09T11:04:00.000Z</v>
+      </c>
+      <c r="K57">
+        <v>2732320526000</v>
+      </c>
+      <c r="L57">
+        <v>157405300</v>
+      </c>
+      <c r="M57">
+        <v>-437700</v>
+      </c>
+      <c r="N57">
+        <v>-3909733000</v>
+      </c>
+      <c r="O57">
+        <v>6893400</v>
+      </c>
+      <c r="P57">
+        <v>141193566000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>1673262360000</v>
+      </c>
+      <c r="B58">
+        <v>710000</v>
+      </c>
+      <c r="C58">
+        <v>708400</v>
+      </c>
+      <c r="D58">
+        <v>5200</v>
+      </c>
+      <c r="E58">
+        <v>13148931000</v>
+      </c>
+      <c r="F58">
+        <v>16869945000</v>
+      </c>
+      <c r="G58">
+        <v>144760000</v>
+      </c>
+      <c r="H58">
+        <v>1423600</v>
+      </c>
+      <c r="I58">
+        <v>30163636000</v>
+      </c>
+      <c r="J58" t="str">
+        <v>2023-01-09T11:06:00.000Z</v>
+      </c>
+      <c r="K58">
+        <v>2762484162000</v>
+      </c>
+      <c r="L58">
+        <v>158828900</v>
+      </c>
+      <c r="M58">
+        <v>-1600</v>
+      </c>
+      <c r="N58">
+        <v>3721014000</v>
+      </c>
+      <c r="O58">
+        <v>6891800</v>
+      </c>
+      <c r="P58">
+        <v>144914580000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>1673262480000</v>
+      </c>
+      <c r="B59">
+        <v>933500</v>
+      </c>
+      <c r="C59">
+        <v>489300</v>
+      </c>
+      <c r="D59">
+        <v>2500</v>
+      </c>
+      <c r="E59">
+        <v>15422082000</v>
+      </c>
+      <c r="F59">
+        <v>11067518000</v>
+      </c>
+      <c r="G59">
+        <v>57855000</v>
+      </c>
+      <c r="H59">
+        <v>1425300</v>
+      </c>
+      <c r="I59">
+        <v>26547455000</v>
+      </c>
+      <c r="J59" t="str">
+        <v>2023-01-09T11:08:00.000Z</v>
+      </c>
+      <c r="K59">
+        <v>2789031617000</v>
+      </c>
+      <c r="L59">
+        <v>160254200</v>
+      </c>
+      <c r="M59">
+        <v>-444200</v>
+      </c>
+      <c r="N59">
+        <v>-4354564000</v>
+      </c>
+      <c r="O59">
+        <v>6447600</v>
+      </c>
+      <c r="P59">
+        <v>140560016000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>1673262600000</v>
+      </c>
+      <c r="B60">
+        <v>527200</v>
+      </c>
+      <c r="C60">
+        <v>692600</v>
+      </c>
+      <c r="D60">
+        <v>2000</v>
+      </c>
+      <c r="E60">
+        <v>9348482000</v>
+      </c>
+      <c r="F60">
+        <v>17641076000</v>
+      </c>
+      <c r="G60">
+        <v>151754000</v>
+      </c>
+      <c r="H60">
+        <v>1221800</v>
+      </c>
+      <c r="I60">
+        <v>27141312000</v>
+      </c>
+      <c r="J60" t="str">
+        <v>2023-01-09T11:10:00.000Z</v>
+      </c>
+      <c r="K60">
+        <v>2816172929000</v>
+      </c>
+      <c r="L60">
+        <v>161476000</v>
+      </c>
+      <c r="M60">
+        <v>165400</v>
+      </c>
+      <c r="N60">
+        <v>8292594000</v>
+      </c>
+      <c r="O60">
+        <v>6613000</v>
+      </c>
+      <c r="P60">
+        <v>148852610000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>1673262720000</v>
+      </c>
+      <c r="B61">
+        <v>746000</v>
+      </c>
+      <c r="C61">
+        <v>1163500</v>
+      </c>
+      <c r="D61">
+        <v>8500</v>
+      </c>
+      <c r="E61">
+        <v>12816778000</v>
+      </c>
+      <c r="F61">
+        <v>27654837000</v>
+      </c>
+      <c r="G61">
+        <v>75110000</v>
+      </c>
+      <c r="H61">
+        <v>1918000</v>
+      </c>
+      <c r="I61">
+        <v>40546725000</v>
+      </c>
+      <c r="J61" t="str">
+        <v>2023-01-09T11:12:00.000Z</v>
+      </c>
+      <c r="K61">
+        <v>2856719654000</v>
+      </c>
+      <c r="L61">
+        <v>163394000</v>
+      </c>
+      <c r="M61">
+        <v>417500</v>
+      </c>
+      <c r="N61">
+        <v>14838059000</v>
+      </c>
+      <c r="O61">
+        <v>7030500</v>
+      </c>
+      <c r="P61">
+        <v>163690669000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>1673262840000</v>
+      </c>
+      <c r="B62">
+        <v>950900</v>
+      </c>
+      <c r="C62">
+        <v>511900</v>
+      </c>
+      <c r="D62">
+        <v>8300</v>
+      </c>
+      <c r="E62">
+        <v>15399997000</v>
+      </c>
+      <c r="F62">
+        <v>9681986000</v>
+      </c>
+      <c r="G62">
+        <v>262275000</v>
+      </c>
+      <c r="H62">
+        <v>1471100</v>
+      </c>
+      <c r="I62">
+        <v>25344258000</v>
+      </c>
+      <c r="J62" t="str">
+        <v>2023-01-09T11:14:00.000Z</v>
+      </c>
+      <c r="K62">
+        <v>2882063912000</v>
+      </c>
+      <c r="L62">
+        <v>164865100</v>
+      </c>
+      <c r="M62">
+        <v>-439000</v>
+      </c>
+      <c r="N62">
+        <v>-5718011000</v>
+      </c>
+      <c r="O62">
+        <v>6591500</v>
+      </c>
+      <c r="P62">
+        <v>157972658000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>1673262960000</v>
+      </c>
+      <c r="B63">
+        <v>1153400</v>
+      </c>
+      <c r="C63">
+        <v>394200</v>
+      </c>
+      <c r="D63">
+        <v>3600</v>
+      </c>
+      <c r="E63">
+        <v>23635143000</v>
+      </c>
+      <c r="F63">
+        <v>8028826000</v>
+      </c>
+      <c r="G63">
+        <v>26400000</v>
+      </c>
+      <c r="H63">
+        <v>1551200</v>
+      </c>
+      <c r="I63">
+        <v>31690369000</v>
+      </c>
+      <c r="J63" t="str">
+        <v>2023-01-09T11:16:00.000Z</v>
+      </c>
+      <c r="K63">
+        <v>2913754281000</v>
+      </c>
+      <c r="L63">
+        <v>166416300</v>
+      </c>
+      <c r="M63">
+        <v>-759200</v>
+      </c>
+      <c r="N63">
+        <v>-15606317000</v>
+      </c>
+      <c r="O63">
+        <v>5832300</v>
+      </c>
+      <c r="P63">
+        <v>142366341000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>1673263080000</v>
+      </c>
+      <c r="B64">
+        <v>961600</v>
+      </c>
+      <c r="C64">
+        <v>381700</v>
+      </c>
+      <c r="D64">
+        <v>7900</v>
+      </c>
+      <c r="E64">
+        <v>16923205000</v>
+      </c>
+      <c r="F64">
+        <v>6979723000</v>
+      </c>
+      <c r="G64">
+        <v>207069000</v>
+      </c>
+      <c r="H64">
+        <v>1351200</v>
+      </c>
+      <c r="I64">
+        <v>24109997000</v>
+      </c>
+      <c r="J64" t="str">
+        <v>2023-01-09T11:18:00.000Z</v>
+      </c>
+      <c r="K64">
+        <v>2937864278000</v>
+      </c>
+      <c r="L64">
+        <v>167767500</v>
+      </c>
+      <c r="M64">
+        <v>-579900</v>
+      </c>
+      <c r="N64">
+        <v>-9943482000</v>
+      </c>
+      <c r="O64">
+        <v>5252400</v>
+      </c>
+      <c r="P64">
+        <v>132422859000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>1673263200000</v>
+      </c>
+      <c r="B65">
+        <v>773700</v>
+      </c>
+      <c r="C65">
+        <v>533400</v>
+      </c>
+      <c r="D65">
+        <v>9800</v>
+      </c>
+      <c r="E65">
+        <v>14231737000</v>
+      </c>
+      <c r="F65">
+        <v>11460160000</v>
+      </c>
+      <c r="G65">
+        <v>251779000</v>
+      </c>
+      <c r="H65">
+        <v>1316900</v>
+      </c>
+      <c r="I65">
+        <v>25943676000</v>
+      </c>
+      <c r="J65" t="str">
+        <v>2023-01-09T11:20:00.000Z</v>
+      </c>
+      <c r="K65">
+        <v>2963807954000</v>
+      </c>
+      <c r="L65">
+        <v>169084400</v>
+      </c>
+      <c r="M65">
+        <v>-240300</v>
+      </c>
+      <c r="N65">
+        <v>-2771577000</v>
+      </c>
+      <c r="O65">
+        <v>5012100</v>
+      </c>
+      <c r="P65">
+        <v>129651282000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>1673263320000</v>
+      </c>
+      <c r="B66">
+        <v>1357300</v>
+      </c>
+      <c r="C66">
+        <v>526100</v>
+      </c>
+      <c r="D66">
+        <v>5000</v>
+      </c>
+      <c r="E66">
+        <v>22720533000</v>
+      </c>
+      <c r="F66">
+        <v>11207660000</v>
+      </c>
+      <c r="G66">
+        <v>157229000</v>
+      </c>
+      <c r="H66">
+        <v>1888400</v>
+      </c>
+      <c r="I66">
+        <v>34085422000</v>
+      </c>
+      <c r="J66" t="str">
+        <v>2023-01-09T11:22:00.000Z</v>
+      </c>
+      <c r="K66">
+        <v>2997893376000</v>
+      </c>
+      <c r="L66">
+        <v>170972800</v>
+      </c>
+      <c r="M66">
+        <v>-831200</v>
+      </c>
+      <c r="N66">
+        <v>-11512873000</v>
+      </c>
+      <c r="O66">
+        <v>4180900</v>
+      </c>
+      <c r="P66">
+        <v>118138409000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>1673263440000</v>
+      </c>
+      <c r="B67">
+        <v>1245500</v>
+      </c>
+      <c r="C67">
+        <v>655400</v>
+      </c>
+      <c r="D67">
+        <v>26600</v>
+      </c>
+      <c r="E67">
+        <v>21732268000</v>
+      </c>
+      <c r="F67">
+        <v>13317196000</v>
+      </c>
+      <c r="G67">
+        <v>412823000</v>
+      </c>
+      <c r="H67">
+        <v>1927500</v>
+      </c>
+      <c r="I67">
+        <v>35462287000</v>
+      </c>
+      <c r="J67" t="str">
+        <v>2023-01-09T11:24:00.000Z</v>
+      </c>
+      <c r="K67">
+        <v>3033355663000</v>
+      </c>
+      <c r="L67">
+        <v>172900300</v>
+      </c>
+      <c r="M67">
+        <v>-590100</v>
+      </c>
+      <c r="N67">
+        <v>-8415072000</v>
+      </c>
+      <c r="O67">
+        <v>3590800</v>
+      </c>
+      <c r="P67">
+        <v>109723337000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>1673263560000</v>
+      </c>
+      <c r="B68">
+        <v>1794100</v>
+      </c>
+      <c r="C68">
+        <v>650600</v>
+      </c>
+      <c r="D68">
+        <v>6600</v>
+      </c>
+      <c r="E68">
+        <v>34139824000</v>
+      </c>
+      <c r="F68">
+        <v>11947286000</v>
+      </c>
+      <c r="G68">
+        <v>92435000</v>
+      </c>
+      <c r="H68">
+        <v>2451300</v>
+      </c>
+      <c r="I68">
+        <v>46179545000</v>
+      </c>
+      <c r="J68" t="str">
+        <v>2023-01-09T11:26:00.000Z</v>
+      </c>
+      <c r="K68">
+        <v>3079535208000</v>
+      </c>
+      <c r="L68">
+        <v>175351600</v>
+      </c>
+      <c r="M68">
+        <v>-1143500</v>
+      </c>
+      <c r="N68">
+        <v>-22192538000</v>
+      </c>
+      <c r="O68">
+        <v>2447300</v>
+      </c>
+      <c r="P68">
+        <v>87530799000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>1673263680000</v>
+      </c>
+      <c r="B69">
+        <v>1468800</v>
+      </c>
+      <c r="C69">
+        <v>615400</v>
+      </c>
+      <c r="D69">
+        <v>6000</v>
+      </c>
+      <c r="E69">
+        <v>30203871000</v>
+      </c>
+      <c r="F69">
+        <v>11890813000</v>
+      </c>
+      <c r="G69">
+        <v>111119000</v>
+      </c>
+      <c r="H69">
+        <v>2090200</v>
+      </c>
+      <c r="I69">
+        <v>42205803000</v>
+      </c>
+      <c r="J69" t="str">
+        <v>2023-01-09T11:28:00.000Z</v>
+      </c>
+      <c r="K69">
+        <v>3121741011000</v>
+      </c>
+      <c r="L69">
+        <v>177441800</v>
+      </c>
+      <c r="M69">
+        <v>-853400</v>
+      </c>
+      <c r="N69">
+        <v>-18313058000</v>
+      </c>
+      <c r="O69">
+        <v>1593900</v>
+      </c>
+      <c r="P69">
+        <v>69217741000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>1673263800000</v>
+      </c>
+      <c r="B70">
+        <v>17100</v>
+      </c>
+      <c r="C70">
+        <v>100</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>263778000</v>
+      </c>
+      <c r="F70">
+        <v>1495000</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>17200</v>
+      </c>
+      <c r="I70">
+        <v>265273000</v>
+      </c>
+      <c r="J70" t="str">
+        <v>2023-01-09T11:30:00.000Z</v>
+      </c>
+      <c r="K70">
+        <v>3122006284000</v>
+      </c>
+      <c r="L70">
+        <v>177459000</v>
+      </c>
+      <c r="M70">
+        <v>-17000</v>
+      </c>
+      <c r="N70">
+        <v>-262283000</v>
+      </c>
+      <c r="O70">
+        <v>1576900</v>
+      </c>
+      <c r="P70">
+        <v>68955458000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>1673269200000</v>
+      </c>
+      <c r="B71">
+        <v>3857100</v>
+      </c>
+      <c r="C71">
+        <v>2882200</v>
+      </c>
+      <c r="D71">
+        <v>155400</v>
+      </c>
+      <c r="E71">
+        <v>69937804000</v>
+      </c>
+      <c r="F71">
+        <v>52996273000</v>
+      </c>
+      <c r="G71">
+        <v>4969929000</v>
+      </c>
+      <c r="H71">
+        <v>6894700</v>
+      </c>
+      <c r="I71">
+        <v>127904006000</v>
+      </c>
+      <c r="J71" t="str">
+        <v>2023-01-09T13:00:00.000Z</v>
+      </c>
+      <c r="K71">
+        <v>3249910290000</v>
+      </c>
+      <c r="L71">
+        <v>184353700</v>
+      </c>
+      <c r="M71">
+        <v>-974900</v>
+      </c>
+      <c r="N71">
+        <v>-16941531000</v>
+      </c>
+      <c r="O71">
+        <v>602000</v>
+      </c>
+      <c r="P71">
+        <v>52013927000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>1673269320000</v>
+      </c>
+      <c r="B72">
+        <v>2039000</v>
+      </c>
+      <c r="C72">
+        <v>1086500</v>
+      </c>
+      <c r="D72">
+        <v>11400</v>
+      </c>
+      <c r="E72">
+        <v>31537077000</v>
+      </c>
+      <c r="F72">
+        <v>21416007000</v>
+      </c>
+      <c r="G72">
+        <v>270351000</v>
+      </c>
+      <c r="H72">
+        <v>3136900</v>
+      </c>
+      <c r="I72">
+        <v>53223435000</v>
+      </c>
+      <c r="J72" t="str">
+        <v>2023-01-09T13:02:00.000Z</v>
+      </c>
+      <c r="K72">
+        <v>3303133725000</v>
+      </c>
+      <c r="L72">
+        <v>187490600</v>
+      </c>
+      <c r="M72">
+        <v>-952500</v>
+      </c>
+      <c r="N72">
+        <v>-10121070000</v>
+      </c>
+      <c r="O72">
+        <v>-350500</v>
+      </c>
+      <c r="P72">
+        <v>41892857000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>1673269440000</v>
+      </c>
+      <c r="B73">
+        <v>1507900</v>
+      </c>
+      <c r="C73">
+        <v>857000</v>
+      </c>
+      <c r="D73">
+        <v>21000</v>
+      </c>
+      <c r="E73">
+        <v>27515923000</v>
+      </c>
+      <c r="F73">
+        <v>16515274000</v>
+      </c>
+      <c r="G73">
+        <v>210674000</v>
+      </c>
+      <c r="H73">
+        <v>2385900</v>
+      </c>
+      <c r="I73">
+        <v>44241871000</v>
+      </c>
+      <c r="J73" t="str">
+        <v>2023-01-09T13:04:00.000Z</v>
+      </c>
+      <c r="K73">
+        <v>3347375596000</v>
+      </c>
+      <c r="L73">
+        <v>189876500</v>
+      </c>
+      <c r="M73">
+        <v>-650900</v>
+      </c>
+      <c r="N73">
+        <v>-11000649000</v>
+      </c>
+      <c r="O73">
+        <v>-1001400</v>
+      </c>
+      <c r="P73">
+        <v>30892208000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>1673269560000</v>
+      </c>
+      <c r="B74">
+        <v>1849300</v>
+      </c>
+      <c r="C74">
+        <v>959400</v>
+      </c>
+      <c r="D74">
+        <v>26200</v>
+      </c>
+      <c r="E74">
+        <v>32403407000</v>
+      </c>
+      <c r="F74">
+        <v>21553462000</v>
+      </c>
+      <c r="G74">
+        <v>650412000</v>
+      </c>
+      <c r="H74">
+        <v>2834900</v>
+      </c>
+      <c r="I74">
+        <v>54607281000</v>
+      </c>
+      <c r="J74" t="str">
+        <v>2023-01-09T13:06:00.000Z</v>
+      </c>
+      <c r="K74">
+        <v>3401982877000</v>
+      </c>
+      <c r="L74">
+        <v>192711400</v>
+      </c>
+      <c r="M74">
+        <v>-889900</v>
+      </c>
+      <c r="N74">
+        <v>-10849945000</v>
+      </c>
+      <c r="O74">
+        <v>-1891300</v>
+      </c>
+      <c r="P74">
+        <v>20042263000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>1673269680000</v>
+      </c>
+      <c r="B75">
+        <v>1905500</v>
+      </c>
+      <c r="C75">
+        <v>771200</v>
+      </c>
+      <c r="D75">
+        <v>2500</v>
+      </c>
+      <c r="E75">
+        <v>36346792000</v>
+      </c>
+      <c r="F75">
+        <v>13270390000</v>
+      </c>
+      <c r="G75">
+        <v>34767000</v>
+      </c>
+      <c r="H75">
+        <v>2679200</v>
+      </c>
+      <c r="I75">
+        <v>49651949000</v>
+      </c>
+      <c r="J75" t="str">
+        <v>2023-01-09T13:08:00.000Z</v>
+      </c>
+      <c r="K75">
+        <v>3451634826000</v>
+      </c>
+      <c r="L75">
+        <v>195390600</v>
+      </c>
+      <c r="M75">
+        <v>-1134300</v>
+      </c>
+      <c r="N75">
+        <v>-23076402000</v>
+      </c>
+      <c r="O75">
+        <v>-3025600</v>
+      </c>
+      <c r="P75">
+        <v>-3034139000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>1673269800000</v>
+      </c>
+      <c r="B76">
+        <v>1968100</v>
+      </c>
+      <c r="C76">
+        <v>800700</v>
+      </c>
+      <c r="D76">
+        <v>11300</v>
+      </c>
+      <c r="E76">
+        <v>35392888000</v>
+      </c>
+      <c r="F76">
+        <v>14231733000</v>
+      </c>
+      <c r="G76">
+        <v>224114000</v>
+      </c>
+      <c r="H76">
+        <v>2780100</v>
+      </c>
+      <c r="I76">
+        <v>49848735000</v>
+      </c>
+      <c r="J76" t="str">
+        <v>2023-01-09T13:10:00.000Z</v>
+      </c>
+      <c r="K76">
+        <v>3501483561000</v>
+      </c>
+      <c r="L76">
+        <v>198170700</v>
+      </c>
+      <c r="M76">
+        <v>-1167400</v>
+      </c>
+      <c r="N76">
+        <v>-21161155000</v>
+      </c>
+      <c r="O76">
+        <v>-4193000</v>
+      </c>
+      <c r="P76">
+        <v>-24195294000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>1673269920000</v>
+      </c>
+      <c r="B77">
+        <v>1974800</v>
+      </c>
+      <c r="C77">
+        <v>791200</v>
+      </c>
+      <c r="D77">
+        <v>21800</v>
+      </c>
+      <c r="E77">
+        <v>31465307000</v>
+      </c>
+      <c r="F77">
+        <v>14698147000</v>
+      </c>
+      <c r="G77">
+        <v>356567000</v>
+      </c>
+      <c r="H77">
+        <v>2787800</v>
+      </c>
+      <c r="I77">
+        <v>46520021000</v>
+      </c>
+      <c r="J77" t="str">
+        <v>2023-01-09T13:12:00.000Z</v>
+      </c>
+      <c r="K77">
+        <v>3548003582000</v>
+      </c>
+      <c r="L77">
+        <v>200958500</v>
+      </c>
+      <c r="M77">
+        <v>-1183600</v>
+      </c>
+      <c r="N77">
+        <v>-16767160000</v>
+      </c>
+      <c r="O77">
+        <v>-5376600</v>
+      </c>
+      <c r="P77">
+        <v>-40962454000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>1673270040000</v>
+      </c>
+      <c r="B78">
+        <v>1273700</v>
+      </c>
+      <c r="C78">
+        <v>1187100</v>
+      </c>
+      <c r="D78">
+        <v>20800</v>
+      </c>
+      <c r="E78">
+        <v>22031305000</v>
+      </c>
+      <c r="F78">
+        <v>21223476000</v>
+      </c>
+      <c r="G78">
+        <v>462290000</v>
+      </c>
+      <c r="H78">
+        <v>2481600</v>
+      </c>
+      <c r="I78">
+        <v>43717071000</v>
+      </c>
+      <c r="J78" t="str">
+        <v>2023-01-09T13:14:00.000Z</v>
+      </c>
+      <c r="K78">
+        <v>3591720653000</v>
+      </c>
+      <c r="L78">
+        <v>203440100</v>
+      </c>
+      <c r="M78">
+        <v>-86600</v>
+      </c>
+      <c r="N78">
+        <v>-807829000</v>
+      </c>
+      <c r="O78">
+        <v>-5463200</v>
+      </c>
+      <c r="P78">
+        <v>-41770283000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>1673270160000</v>
+      </c>
+      <c r="B79">
+        <v>1763900</v>
+      </c>
+      <c r="C79">
+        <v>1888800</v>
+      </c>
+      <c r="D79">
+        <v>6000</v>
+      </c>
+      <c r="E79">
+        <v>30331740000</v>
+      </c>
+      <c r="F79">
+        <v>37434611000</v>
+      </c>
+      <c r="G79">
+        <v>133399000</v>
+      </c>
+      <c r="H79">
+        <v>3658700</v>
+      </c>
+      <c r="I79">
+        <v>67899750000</v>
+      </c>
+      <c r="J79" t="str">
+        <v>2023-01-09T13:16:00.000Z</v>
+      </c>
+      <c r="K79">
+        <v>3659620403000</v>
+      </c>
+      <c r="L79">
+        <v>207098800</v>
+      </c>
+      <c r="M79">
+        <v>124900</v>
+      </c>
+      <c r="N79">
+        <v>7102871000</v>
+      </c>
+      <c r="O79">
+        <v>-5338300</v>
+      </c>
+      <c r="P79">
+        <v>-34667412000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>1673270280000</v>
+      </c>
+      <c r="B80">
+        <v>1398200</v>
+      </c>
+      <c r="C80">
+        <v>1614100</v>
+      </c>
+      <c r="D80">
+        <v>42000</v>
+      </c>
+      <c r="E80">
+        <v>20381138000</v>
+      </c>
+      <c r="F80">
+        <v>32345463000</v>
+      </c>
+      <c r="G80">
+        <v>522015000</v>
+      </c>
+      <c r="H80">
+        <v>3054300</v>
+      </c>
+      <c r="I80">
+        <v>53248616000</v>
+      </c>
+      <c r="J80" t="str">
+        <v>2023-01-09T13:18:00.000Z</v>
+      </c>
+      <c r="K80">
+        <v>3712869019000</v>
+      </c>
+      <c r="L80">
+        <v>210153100</v>
+      </c>
+      <c r="M80">
+        <v>215900</v>
+      </c>
+      <c r="N80">
+        <v>11964325000</v>
+      </c>
+      <c r="O80">
+        <v>-5122400</v>
+      </c>
+      <c r="P80">
+        <v>-22703087000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>1673270400000</v>
+      </c>
+      <c r="B81">
+        <v>1025800</v>
+      </c>
+      <c r="C81">
+        <v>1409100</v>
+      </c>
+      <c r="D81">
+        <v>12400</v>
+      </c>
+      <c r="E81">
+        <v>18446650000</v>
+      </c>
+      <c r="F81">
+        <v>26224790000</v>
+      </c>
+      <c r="G81">
+        <v>233198000</v>
+      </c>
+      <c r="H81">
+        <v>2447300</v>
+      </c>
+      <c r="I81">
+        <v>44904638000</v>
+      </c>
+      <c r="J81" t="str">
+        <v>2023-01-09T13:20:00.000Z</v>
+      </c>
+      <c r="K81">
+        <v>3757773657000</v>
+      </c>
+      <c r="L81">
+        <v>212600400</v>
+      </c>
+      <c r="M81">
+        <v>383300</v>
+      </c>
+      <c r="N81">
+        <v>7778140000</v>
+      </c>
+      <c r="O81">
+        <v>-4739100</v>
+      </c>
+      <c r="P81">
+        <v>-14924947000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>1673270520000</v>
+      </c>
+      <c r="B82">
+        <v>1090700</v>
+      </c>
+      <c r="C82">
+        <v>1917100</v>
+      </c>
+      <c r="D82">
+        <v>20100</v>
+      </c>
+      <c r="E82">
+        <v>18433423000</v>
+      </c>
+      <c r="F82">
+        <v>34458893000</v>
+      </c>
+      <c r="G82">
+        <v>486559000</v>
+      </c>
+      <c r="H82">
+        <v>3027900</v>
+      </c>
+      <c r="I82">
+        <v>53378875000</v>
+      </c>
+      <c r="J82" t="str">
+        <v>2023-01-09T13:22:00.000Z</v>
+      </c>
+      <c r="K82">
+        <v>3811152532000</v>
+      </c>
+      <c r="L82">
+        <v>215628300</v>
+      </c>
+      <c r="M82">
+        <v>826400</v>
+      </c>
+      <c r="N82">
+        <v>16025470000</v>
+      </c>
+      <c r="O82">
+        <v>-3912700</v>
+      </c>
+      <c r="P82">
+        <v>1100523000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>1673270640000</v>
+      </c>
+      <c r="B83">
+        <v>1255700</v>
+      </c>
+      <c r="C83">
+        <v>1391700</v>
+      </c>
+      <c r="D83">
+        <v>75800</v>
+      </c>
+      <c r="E83">
+        <v>22052417000</v>
+      </c>
+      <c r="F83">
+        <v>26035790000</v>
+      </c>
+      <c r="G83">
+        <v>1043288000</v>
+      </c>
+      <c r="H83">
+        <v>2723200</v>
+      </c>
+      <c r="I83">
+        <v>49131495000</v>
+      </c>
+      <c r="J83" t="str">
+        <v>2023-01-09T13:24:00.000Z</v>
+      </c>
+      <c r="K83">
+        <v>3860284027000</v>
+      </c>
+      <c r="L83">
+        <v>218351500</v>
+      </c>
+      <c r="M83">
+        <v>136000</v>
+      </c>
+      <c r="N83">
+        <v>3983373000</v>
+      </c>
+      <c r="O83">
+        <v>-3776700</v>
+      </c>
+      <c r="P83">
+        <v>5083896000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>1673270760000</v>
+      </c>
+      <c r="B84">
+        <v>1517400</v>
+      </c>
+      <c r="C84">
+        <v>1205500</v>
+      </c>
+      <c r="D84">
+        <v>14600</v>
+      </c>
+      <c r="E84">
+        <v>26774057000</v>
+      </c>
+      <c r="F84">
+        <v>25239728000</v>
+      </c>
+      <c r="G84">
+        <v>285925000</v>
+      </c>
+      <c r="H84">
+        <v>2737500</v>
+      </c>
+      <c r="I84">
+        <v>52299710000</v>
+      </c>
+      <c r="J84" t="str">
+        <v>2023-01-09T13:26:00.000Z</v>
+      </c>
+      <c r="K84">
+        <v>3912583737000</v>
+      </c>
+      <c r="L84">
+        <v>221089000</v>
+      </c>
+      <c r="M84">
+        <v>-311900</v>
+      </c>
+      <c r="N84">
+        <v>-1534329000</v>
+      </c>
+      <c r="O84">
+        <v>-4088600</v>
+      </c>
+      <c r="P84">
+        <v>3549567000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>1673270880000</v>
+      </c>
+      <c r="B85">
+        <v>2272300</v>
+      </c>
+      <c r="C85">
+        <v>1140900</v>
+      </c>
+      <c r="D85">
+        <v>42200</v>
+      </c>
+      <c r="E85">
+        <v>35406575000</v>
+      </c>
+      <c r="F85">
+        <v>20893439000</v>
+      </c>
+      <c r="G85">
+        <v>860800000</v>
+      </c>
+      <c r="H85">
+        <v>3455400</v>
+      </c>
+      <c r="I85">
+        <v>57160814000</v>
+      </c>
+      <c r="J85" t="str">
+        <v>2023-01-09T13:28:00.000Z</v>
+      </c>
+      <c r="K85">
+        <v>3969744551000</v>
+      </c>
+      <c r="L85">
+        <v>224544400</v>
+      </c>
+      <c r="M85">
+        <v>-1131400</v>
+      </c>
+      <c r="N85">
+        <v>-14513136000</v>
+      </c>
+      <c r="O85">
+        <v>-5220000</v>
+      </c>
+      <c r="P85">
+        <v>-10963569000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>1673271000000</v>
+      </c>
+      <c r="B86">
+        <v>2743000</v>
+      </c>
+      <c r="C86">
+        <v>932800</v>
+      </c>
+      <c r="D86">
+        <v>25600</v>
+      </c>
+      <c r="E86">
+        <v>49642973000</v>
+      </c>
+      <c r="F86">
+        <v>16543656000</v>
+      </c>
+      <c r="G86">
+        <v>524829000</v>
+      </c>
+      <c r="H86">
+        <v>3701400</v>
+      </c>
+      <c r="I86">
+        <v>66711458000</v>
+      </c>
+      <c r="J86" t="str">
+        <v>2023-01-09T13:30:00.000Z</v>
+      </c>
+      <c r="K86">
+        <v>4036456009000</v>
+      </c>
+      <c r="L86">
+        <v>228245800</v>
+      </c>
+      <c r="M86">
+        <v>-1810200</v>
+      </c>
+      <c r="N86">
+        <v>-33099317000</v>
+      </c>
+      <c r="O86">
+        <v>-7030200</v>
+      </c>
+      <c r="P86">
+        <v>-44062886000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>1673271120000</v>
+      </c>
+      <c r="B87">
+        <v>3026400</v>
+      </c>
+      <c r="C87">
+        <v>1685600</v>
+      </c>
+      <c r="D87">
+        <v>41000</v>
+      </c>
+      <c r="E87">
+        <v>44229335000</v>
+      </c>
+      <c r="F87">
+        <v>33403708000</v>
+      </c>
+      <c r="G87">
+        <v>601634000</v>
+      </c>
+      <c r="H87">
+        <v>4753000</v>
+      </c>
+      <c r="I87">
+        <v>78234677000</v>
+      </c>
+      <c r="J87" t="str">
+        <v>2023-01-09T13:32:00.000Z</v>
+      </c>
+      <c r="K87">
+        <v>4114690686000</v>
+      </c>
+      <c r="L87">
+        <v>232998800</v>
+      </c>
+      <c r="M87">
+        <v>-1340800</v>
+      </c>
+      <c r="N87">
+        <v>-10825627000</v>
+      </c>
+      <c r="O87">
+        <v>-8371000</v>
+      </c>
+      <c r="P87">
+        <v>-54888513000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>1673271240000</v>
+      </c>
+      <c r="B88">
+        <v>1636500</v>
+      </c>
+      <c r="C88">
+        <v>1085000</v>
+      </c>
+      <c r="D88">
+        <v>22600</v>
+      </c>
+      <c r="E88">
+        <v>25849837000</v>
+      </c>
+      <c r="F88">
+        <v>20793565000</v>
+      </c>
+      <c r="G88">
+        <v>439095000</v>
+      </c>
+      <c r="H88">
+        <v>2744100</v>
+      </c>
+      <c r="I88">
+        <v>47082497000</v>
+      </c>
+      <c r="J88" t="str">
+        <v>2023-01-09T13:34:00.000Z</v>
+      </c>
+      <c r="K88">
+        <v>4161773183000</v>
+      </c>
+      <c r="L88">
+        <v>235742900</v>
+      </c>
+      <c r="M88">
+        <v>-551500</v>
+      </c>
+      <c r="N88">
+        <v>-5056272000</v>
+      </c>
+      <c r="O88">
+        <v>-8922500</v>
+      </c>
+      <c r="P88">
+        <v>-59944785000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>1673271360000</v>
+      </c>
+      <c r="B89">
+        <v>3316500</v>
+      </c>
+      <c r="C89">
+        <v>997400</v>
+      </c>
+      <c r="D89">
+        <v>16500</v>
+      </c>
+      <c r="E89">
+        <v>51176252000</v>
+      </c>
+      <c r="F89">
+        <v>18955347000</v>
+      </c>
+      <c r="G89">
+        <v>327565000</v>
+      </c>
+      <c r="H89">
+        <v>4330400</v>
+      </c>
+      <c r="I89">
+        <v>70459164000</v>
+      </c>
+      <c r="J89" t="str">
+        <v>2023-01-09T13:36:00.000Z</v>
+      </c>
+      <c r="K89">
+        <v>4232232347000</v>
+      </c>
+      <c r="L89">
+        <v>240073300</v>
+      </c>
+      <c r="M89">
+        <v>-2319100</v>
+      </c>
+      <c r="N89">
+        <v>-32220905000</v>
+      </c>
+      <c r="O89">
+        <v>-11241600</v>
+      </c>
+      <c r="P89">
+        <v>-92165690000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>1673271480000</v>
+      </c>
+      <c r="B90">
+        <v>1991500</v>
+      </c>
+      <c r="C90">
+        <v>987700</v>
+      </c>
+      <c r="D90">
+        <v>18100</v>
+      </c>
+      <c r="E90">
+        <v>35726050000</v>
+      </c>
+      <c r="F90">
+        <v>17802747000</v>
+      </c>
+      <c r="G90">
+        <v>231875000</v>
+      </c>
+      <c r="H90">
+        <v>2997300</v>
+      </c>
+      <c r="I90">
+        <v>53760672000</v>
+      </c>
+      <c r="J90" t="str">
+        <v>2023-01-09T13:38:00.000Z</v>
+      </c>
+      <c r="K90">
+        <v>4285993019000</v>
+      </c>
+      <c r="L90">
+        <v>243070600</v>
+      </c>
+      <c r="M90">
+        <v>-1003800</v>
+      </c>
+      <c r="N90">
+        <v>-17923303000</v>
+      </c>
+      <c r="O90">
+        <v>-12245400</v>
+      </c>
+      <c r="P90">
+        <v>-110088993000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>1673271600000</v>
+      </c>
+      <c r="B91">
+        <v>2601000</v>
+      </c>
+      <c r="C91">
+        <v>1231300</v>
+      </c>
+      <c r="D91">
+        <v>11500</v>
+      </c>
+      <c r="E91">
+        <v>44727500000</v>
+      </c>
+      <c r="F91">
+        <v>25620927000</v>
+      </c>
+      <c r="G91">
+        <v>336837000</v>
+      </c>
+      <c r="H91">
+        <v>3843800</v>
+      </c>
+      <c r="I91">
+        <v>70685264000</v>
+      </c>
+      <c r="J91" t="str">
+        <v>2023-01-09T13:40:00.000Z</v>
+      </c>
+      <c r="K91">
+        <v>4356678283000</v>
+      </c>
+      <c r="L91">
+        <v>246914400</v>
+      </c>
+      <c r="M91">
+        <v>-1369700</v>
+      </c>
+      <c r="N91">
+        <v>-19106573000</v>
+      </c>
+      <c r="O91">
+        <v>-13615100</v>
+      </c>
+      <c r="P91">
+        <v>-129195566000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>1673271720000</v>
+      </c>
+      <c r="B92">
+        <v>1739500</v>
+      </c>
+      <c r="C92">
+        <v>1266700</v>
+      </c>
+      <c r="D92">
+        <v>10700</v>
+      </c>
+      <c r="E92">
+        <v>28775208000</v>
+      </c>
+      <c r="F92">
+        <v>22477782000</v>
+      </c>
+      <c r="G92">
+        <v>198756000</v>
+      </c>
+      <c r="H92">
+        <v>3016900</v>
+      </c>
+      <c r="I92">
+        <v>51451746000</v>
+      </c>
+      <c r="J92" t="str">
+        <v>2023-01-09T13:42:00.000Z</v>
+      </c>
+      <c r="K92">
+        <v>4408130029000</v>
+      </c>
+      <c r="L92">
+        <v>249931300</v>
+      </c>
+      <c r="M92">
+        <v>-472800</v>
+      </c>
+      <c r="N92">
+        <v>-6297426000</v>
+      </c>
+      <c r="O92">
+        <v>-14087900</v>
+      </c>
+      <c r="P92">
+        <v>-135492992000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>1673271840000</v>
+      </c>
+      <c r="B93">
+        <v>2895600</v>
+      </c>
+      <c r="C93">
+        <v>919900</v>
+      </c>
+      <c r="D93">
+        <v>80400</v>
+      </c>
+      <c r="E93">
+        <v>48988504000</v>
+      </c>
+      <c r="F93">
+        <v>15706501000</v>
+      </c>
+      <c r="G93">
+        <v>645173000</v>
+      </c>
+      <c r="H93">
+        <v>3895900</v>
+      </c>
+      <c r="I93">
+        <v>65340178000</v>
+      </c>
+      <c r="J93" t="str">
+        <v>2023-01-09T13:44:00.000Z</v>
+      </c>
+      <c r="K93">
+        <v>4473470207000</v>
+      </c>
+      <c r="L93">
+        <v>253827200</v>
+      </c>
+      <c r="M93">
+        <v>-1975700</v>
+      </c>
+      <c r="N93">
+        <v>-33282003000</v>
+      </c>
+      <c r="O93">
+        <v>-16063600</v>
+      </c>
+      <c r="P93">
+        <v>-168774995000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>1673271960000</v>
+      </c>
+      <c r="B94">
+        <v>3704300</v>
+      </c>
+      <c r="C94">
+        <v>1169000</v>
+      </c>
+      <c r="D94">
+        <v>26000</v>
+      </c>
+      <c r="E94">
+        <v>66030534000</v>
+      </c>
+      <c r="F94">
+        <v>20578068000</v>
+      </c>
+      <c r="G94">
+        <v>299561000</v>
+      </c>
+      <c r="H94">
+        <v>4899300</v>
+      </c>
+      <c r="I94">
+        <v>86908163000</v>
+      </c>
+      <c r="J94" t="str">
+        <v>2023-01-09T13:46:00.000Z</v>
+      </c>
+      <c r="K94">
+        <v>4560378370000</v>
+      </c>
+      <c r="L94">
+        <v>258726500</v>
+      </c>
+      <c r="M94">
+        <v>-2535300</v>
+      </c>
+      <c r="N94">
+        <v>-45452466000</v>
+      </c>
+      <c r="O94">
+        <v>-18598900</v>
+      </c>
+      <c r="P94">
+        <v>-214227461000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>1673272080000</v>
+      </c>
+      <c r="B95">
+        <v>2658900</v>
+      </c>
+      <c r="C95">
+        <v>1728400</v>
+      </c>
+      <c r="D95">
+        <v>26200</v>
+      </c>
+      <c r="E95">
+        <v>43066237000</v>
+      </c>
+      <c r="F95">
+        <v>32793033000</v>
+      </c>
+      <c r="G95">
+        <v>369415000</v>
+      </c>
+      <c r="H95">
+        <v>4413500</v>
+      </c>
+      <c r="I95">
+        <v>76228685000</v>
+      </c>
+      <c r="J95" t="str">
+        <v>2023-01-09T13:48:00.000Z</v>
+      </c>
+      <c r="K95">
+        <v>4636607055000</v>
+      </c>
+      <c r="L95">
+        <v>263140000</v>
+      </c>
+      <c r="M95">
+        <v>-930500</v>
+      </c>
+      <c r="N95">
+        <v>-10273204000</v>
+      </c>
+      <c r="O95">
+        <v>-19529400</v>
+      </c>
+      <c r="P95">
+        <v>-224500665000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>1673272200000</v>
+      </c>
+      <c r="B96">
+        <v>859600</v>
+      </c>
+      <c r="C96">
+        <v>2232900</v>
+      </c>
+      <c r="D96">
+        <v>1800</v>
+      </c>
+      <c r="E96">
+        <v>14237144000</v>
+      </c>
+      <c r="F96">
+        <v>38783113000</v>
+      </c>
+      <c r="G96">
+        <v>40881000</v>
+      </c>
+      <c r="H96">
+        <v>3094300</v>
+      </c>
+      <c r="I96">
+        <v>53061138000</v>
+      </c>
+      <c r="J96" t="str">
+        <v>2023-01-09T13:50:00.000Z</v>
+      </c>
+      <c r="K96">
+        <v>4689668193000</v>
+      </c>
+      <c r="L96">
+        <v>266234300</v>
+      </c>
+      <c r="M96">
+        <v>1373300</v>
+      </c>
+      <c r="N96">
+        <v>24545969000</v>
+      </c>
+      <c r="O96">
+        <v>-18156100</v>
+      </c>
+      <c r="P96">
+        <v>-199954696000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>1673272320000</v>
+      </c>
+      <c r="B97">
+        <v>1113000</v>
+      </c>
+      <c r="C97">
+        <v>2426700</v>
+      </c>
+      <c r="D97">
+        <v>24900</v>
+      </c>
+      <c r="E97">
+        <v>18591859000</v>
+      </c>
+      <c r="F97">
+        <v>41179786000</v>
+      </c>
+      <c r="G97">
+        <v>218875000</v>
+      </c>
+      <c r="H97">
+        <v>3564600</v>
+      </c>
+      <c r="I97">
+        <v>59990520000</v>
+      </c>
+      <c r="J97" t="str">
+        <v>2023-01-09T13:52:00.000Z</v>
+      </c>
+      <c r="K97">
+        <v>4749658713000</v>
+      </c>
+      <c r="L97">
+        <v>269798900</v>
+      </c>
+      <c r="M97">
+        <v>1313700</v>
+      </c>
+      <c r="N97">
+        <v>22587927000</v>
+      </c>
+      <c r="O97">
+        <v>-16842400</v>
+      </c>
+      <c r="P97">
+        <v>-177366769000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>1673272440000</v>
+      </c>
+      <c r="B98">
+        <v>710100</v>
+      </c>
+      <c r="C98">
+        <v>2203500</v>
+      </c>
+      <c r="D98">
+        <v>5200</v>
+      </c>
+      <c r="E98">
+        <v>14194320000</v>
+      </c>
+      <c r="F98">
+        <v>39817005000</v>
+      </c>
+      <c r="G98">
+        <v>72404000</v>
+      </c>
+      <c r="H98">
+        <v>2918800</v>
+      </c>
+      <c r="I98">
+        <v>54083729000</v>
+      </c>
+      <c r="J98" t="str">
+        <v>2023-01-09T13:54:00.000Z</v>
+      </c>
+      <c r="K98">
+        <v>4803742442000</v>
+      </c>
+      <c r="L98">
+        <v>272717700</v>
+      </c>
+      <c r="M98">
+        <v>1493400</v>
+      </c>
+      <c r="N98">
+        <v>25622685000</v>
+      </c>
+      <c r="O98">
+        <v>-15349000</v>
+      </c>
+      <c r="P98">
+        <v>-151744084000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>1673272560000</v>
+      </c>
+      <c r="B99">
+        <v>946700</v>
+      </c>
+      <c r="C99">
+        <v>2317000</v>
+      </c>
+      <c r="D99">
+        <v>16700</v>
+      </c>
+      <c r="E99">
+        <v>19010568000</v>
+      </c>
+      <c r="F99">
+        <v>43530591000</v>
+      </c>
+      <c r="G99">
+        <v>406380000</v>
+      </c>
+      <c r="H99">
+        <v>3280400</v>
+      </c>
+      <c r="I99">
+        <v>62947539000</v>
+      </c>
+      <c r="J99" t="str">
+        <v>2023-01-09T13:56:00.000Z</v>
+      </c>
+      <c r="K99">
+        <v>4866689981000</v>
+      </c>
+      <c r="L99">
+        <v>275998100</v>
+      </c>
+      <c r="M99">
+        <v>1370300</v>
+      </c>
+      <c r="N99">
+        <v>24520023000</v>
+      </c>
+      <c r="O99">
+        <v>-13978700</v>
+      </c>
+      <c r="P99">
+        <v>-127224061000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>1673272680000</v>
+      </c>
+      <c r="B100">
+        <v>2152700</v>
+      </c>
+      <c r="C100">
+        <v>768300</v>
+      </c>
+      <c r="D100">
+        <v>33000</v>
+      </c>
+      <c r="E100">
+        <v>46820528000</v>
+      </c>
+      <c r="F100">
+        <v>12696120000</v>
+      </c>
+      <c r="G100">
+        <v>968951000</v>
+      </c>
+      <c r="H100">
+        <v>2954000</v>
+      </c>
+      <c r="I100">
+        <v>60485599000</v>
+      </c>
+      <c r="J100" t="str">
+        <v>2023-01-09T13:58:00.000Z</v>
+      </c>
+      <c r="K100">
+        <v>4927175580000</v>
+      </c>
+      <c r="L100">
+        <v>278952100</v>
+      </c>
+      <c r="M100">
+        <v>-1384400</v>
+      </c>
+      <c r="N100">
+        <v>-34124408000</v>
+      </c>
+      <c r="O100">
+        <v>-15363100</v>
+      </c>
+      <c r="P100">
+        <v>-161348469000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>1673272800000</v>
+      </c>
+      <c r="B101">
+        <v>1679000</v>
+      </c>
+      <c r="C101">
+        <v>815600</v>
+      </c>
+      <c r="D101">
+        <v>26600</v>
+      </c>
+      <c r="E101">
+        <v>29829471000</v>
+      </c>
+      <c r="F101">
+        <v>15614011000</v>
+      </c>
+      <c r="G101">
+        <v>391740000</v>
+      </c>
+      <c r="H101">
+        <v>2521200</v>
+      </c>
+      <c r="I101">
+        <v>45835222000</v>
+      </c>
+      <c r="J101" t="str">
+        <v>2023-01-09T14:00:00.000Z</v>
+      </c>
+      <c r="K101">
+        <v>4973010802000</v>
+      </c>
+      <c r="L101">
+        <v>281473300</v>
+      </c>
+      <c r="M101">
+        <v>-863400</v>
+      </c>
+      <c r="N101">
+        <v>-14215460000</v>
+      </c>
+      <c r="O101">
+        <v>-16226500</v>
+      </c>
+      <c r="P101">
+        <v>-175563929000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>1673272920000</v>
+      </c>
+      <c r="B102">
+        <v>571700</v>
+      </c>
+      <c r="C102">
+        <v>896800</v>
+      </c>
+      <c r="D102">
+        <v>28000</v>
+      </c>
+      <c r="E102">
+        <v>11117948000</v>
+      </c>
+      <c r="F102">
+        <v>16040005000</v>
+      </c>
+      <c r="G102">
+        <v>382412000</v>
+      </c>
+      <c r="H102">
+        <v>1496500</v>
+      </c>
+      <c r="I102">
+        <v>27540365000</v>
+      </c>
+      <c r="J102" t="str">
+        <v>2023-01-09T14:02:00.000Z</v>
+      </c>
+      <c r="K102">
+        <v>5000551167000</v>
+      </c>
+      <c r="L102">
+        <v>282969800</v>
+      </c>
+      <c r="M102">
+        <v>325100</v>
+      </c>
+      <c r="N102">
+        <v>4922057000</v>
+      </c>
+      <c r="O102">
+        <v>-15901400</v>
+      </c>
+      <c r="P102">
+        <v>-170641872000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>1673273040000</v>
+      </c>
+      <c r="B103">
+        <v>931500</v>
+      </c>
+      <c r="C103">
+        <v>1112600</v>
+      </c>
+      <c r="D103">
+        <v>7800</v>
+      </c>
+      <c r="E103">
+        <v>15631539000</v>
+      </c>
+      <c r="F103">
+        <v>19545730000</v>
+      </c>
+      <c r="G103">
+        <v>139468000</v>
+      </c>
+      <c r="H103">
+        <v>2051900</v>
+      </c>
+      <c r="I103">
+        <v>35316737000</v>
+      </c>
+      <c r="J103" t="str">
+        <v>2023-01-09T14:04:00.000Z</v>
+      </c>
+      <c r="K103">
+        <v>5035867904000</v>
+      </c>
+      <c r="L103">
+        <v>285021700</v>
+      </c>
+      <c r="M103">
+        <v>181100</v>
+      </c>
+      <c r="N103">
+        <v>3914191000</v>
+      </c>
+      <c r="O103">
+        <v>-15720300</v>
+      </c>
+      <c r="P103">
+        <v>-166727681000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>1673273160000</v>
+      </c>
+      <c r="B104">
+        <v>1634000</v>
+      </c>
+      <c r="C104">
+        <v>2133300</v>
+      </c>
+      <c r="D104">
+        <v>14000</v>
+      </c>
+      <c r="E104">
+        <v>31444652000</v>
+      </c>
+      <c r="F104">
+        <v>43887290000</v>
+      </c>
+      <c r="G104">
+        <v>168266000</v>
+      </c>
+      <c r="H104">
+        <v>3781300</v>
+      </c>
+      <c r="I104">
+        <v>75500208000</v>
+      </c>
+      <c r="J104" t="str">
+        <v>2023-01-09T14:06:00.000Z</v>
+      </c>
+      <c r="K104">
+        <v>5111368112000</v>
+      </c>
+      <c r="L104">
+        <v>288803000</v>
+      </c>
+      <c r="M104">
+        <v>499300</v>
+      </c>
+      <c r="N104">
+        <v>12442638000</v>
+      </c>
+      <c r="O104">
+        <v>-15221000</v>
+      </c>
+      <c r="P104">
+        <v>-154285043000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>1673273280000</v>
+      </c>
+      <c r="B105">
+        <v>1204400</v>
+      </c>
+      <c r="C105">
+        <v>1310200</v>
+      </c>
+      <c r="D105">
+        <v>5600</v>
+      </c>
+      <c r="E105">
+        <v>19995330000</v>
+      </c>
+      <c r="F105">
+        <v>29195982000</v>
+      </c>
+      <c r="G105">
+        <v>157185000</v>
+      </c>
+      <c r="H105">
+        <v>2520200</v>
+      </c>
+      <c r="I105">
+        <v>49348497000</v>
+      </c>
+      <c r="J105" t="str">
+        <v>2023-01-09T14:08:00.000Z</v>
+      </c>
+      <c r="K105">
+        <v>5160716609000</v>
+      </c>
+      <c r="L105">
+        <v>291323200</v>
+      </c>
+      <c r="M105">
+        <v>105800</v>
+      </c>
+      <c r="N105">
+        <v>9200652000</v>
+      </c>
+      <c r="O105">
+        <v>-15115200</v>
+      </c>
+      <c r="P105">
+        <v>-145084391000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>1673273400000</v>
+      </c>
+      <c r="B106">
+        <v>1770800</v>
+      </c>
+      <c r="C106">
+        <v>920000</v>
+      </c>
+      <c r="D106">
+        <v>10700</v>
+      </c>
+      <c r="E106">
+        <v>28798777000</v>
+      </c>
+      <c r="F106">
+        <v>17495088000</v>
+      </c>
+      <c r="G106">
+        <v>145670000</v>
+      </c>
+      <c r="H106">
+        <v>2701500</v>
+      </c>
+      <c r="I106">
+        <v>46439535000</v>
+      </c>
+      <c r="J106" t="str">
+        <v>2023-01-09T14:10:00.000Z</v>
+      </c>
+      <c r="K106">
+        <v>5207156144000</v>
+      </c>
+      <c r="L106">
+        <v>294024700</v>
+      </c>
+      <c r="M106">
+        <v>-850800</v>
+      </c>
+      <c r="N106">
+        <v>-11303689000</v>
+      </c>
+      <c r="O106">
+        <v>-15966000</v>
+      </c>
+      <c r="P106">
+        <v>-156388080000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>1673273520000</v>
+      </c>
+      <c r="B107">
+        <v>3403400</v>
+      </c>
+      <c r="C107">
+        <v>805100</v>
+      </c>
+      <c r="D107">
+        <v>8100</v>
+      </c>
+      <c r="E107">
+        <v>64573092000</v>
+      </c>
+      <c r="F107">
+        <v>15881727000</v>
+      </c>
+      <c r="G107">
+        <v>221690000</v>
+      </c>
+      <c r="H107">
+        <v>4216600</v>
+      </c>
+      <c r="I107">
+        <v>80676509000</v>
+      </c>
+      <c r="J107" t="str">
+        <v>2023-01-09T14:12:00.000Z</v>
+      </c>
+      <c r="K107">
+        <v>5287832653000</v>
+      </c>
+      <c r="L107">
+        <v>298241300</v>
+      </c>
+      <c r="M107">
+        <v>-2598300</v>
+      </c>
+      <c r="N107">
+        <v>-48691365000</v>
+      </c>
+      <c r="O107">
+        <v>-18564300</v>
+      </c>
+      <c r="P107">
+        <v>-205079445000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>1673273640000</v>
+      </c>
+      <c r="B108">
+        <v>4433700</v>
+      </c>
+      <c r="C108">
+        <v>1522500</v>
+      </c>
+      <c r="D108">
+        <v>10000</v>
+      </c>
+      <c r="E108">
+        <v>73998668000</v>
+      </c>
+      <c r="F108">
+        <v>30137723000</v>
+      </c>
+      <c r="G108">
+        <v>265030000</v>
+      </c>
+      <c r="H108">
+        <v>5966200</v>
+      </c>
+      <c r="I108">
+        <v>104401421000</v>
+      </c>
+      <c r="J108" t="str">
+        <v>2023-01-09T14:14:00.000Z</v>
+      </c>
+      <c r="K108">
+        <v>5392234074000</v>
+      </c>
+      <c r="L108">
+        <v>304207500</v>
+      </c>
+      <c r="M108">
+        <v>-2911200</v>
+      </c>
+      <c r="N108">
+        <v>-43860945000</v>
+      </c>
+      <c r="O108">
+        <v>-21475500</v>
+      </c>
+      <c r="P108">
+        <v>-248940390000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>1673273760000</v>
+      </c>
+      <c r="B109">
+        <v>2658900</v>
+      </c>
+      <c r="C109">
+        <v>2645600</v>
+      </c>
+      <c r="D109">
+        <v>30600</v>
+      </c>
+      <c r="E109">
+        <v>47415015000</v>
+      </c>
+      <c r="F109">
+        <v>45826775000</v>
+      </c>
+      <c r="G109">
+        <v>439364000</v>
+      </c>
+      <c r="H109">
+        <v>5335100</v>
+      </c>
+      <c r="I109">
+        <v>93681154000</v>
+      </c>
+      <c r="J109" t="str">
+        <v>2023-01-09T14:16:00.000Z</v>
+      </c>
+      <c r="K109">
+        <v>5485915228000</v>
+      </c>
+      <c r="L109">
+        <v>309542600</v>
+      </c>
+      <c r="M109">
+        <v>-13300</v>
+      </c>
+      <c r="N109">
+        <v>-1588240000</v>
+      </c>
+      <c r="O109">
+        <v>-21488800</v>
+      </c>
+      <c r="P109">
+        <v>-250528630000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>1673273880000</v>
+      </c>
+      <c r="B110">
+        <v>1612000</v>
+      </c>
+      <c r="C110">
+        <v>2461600</v>
+      </c>
+      <c r="D110">
+        <v>32600</v>
+      </c>
+      <c r="E110">
+        <v>24697907000</v>
+      </c>
+      <c r="F110">
+        <v>43654995000</v>
+      </c>
+      <c r="G110">
+        <v>591634000</v>
+      </c>
+      <c r="H110">
+        <v>4106200</v>
+      </c>
+      <c r="I110">
+        <v>68944536000</v>
+      </c>
+      <c r="J110" t="str">
+        <v>2023-01-09T14:18:00.000Z</v>
+      </c>
+      <c r="K110">
+        <v>5554859764000</v>
+      </c>
+      <c r="L110">
+        <v>313648800</v>
+      </c>
+      <c r="M110">
+        <v>849600</v>
+      </c>
+      <c r="N110">
+        <v>18957088000</v>
+      </c>
+      <c r="O110">
+        <v>-20639200</v>
+      </c>
+      <c r="P110">
+        <v>-231571542000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>1673274000000</v>
+      </c>
+      <c r="B111">
+        <v>1857200</v>
+      </c>
+      <c r="C111">
+        <v>2060700</v>
+      </c>
+      <c r="D111">
+        <v>40100</v>
+      </c>
+      <c r="E111">
+        <v>34349288000</v>
+      </c>
+      <c r="F111">
+        <v>38110214000</v>
+      </c>
+      <c r="G111">
+        <v>684935000</v>
+      </c>
+      <c r="H111">
+        <v>3958000</v>
+      </c>
+      <c r="I111">
+        <v>73144437000</v>
+      </c>
+      <c r="J111" t="str">
+        <v>2023-01-09T14:20:00.000Z</v>
+      </c>
+      <c r="K111">
+        <v>5628004201000</v>
+      </c>
+      <c r="L111">
+        <v>317606800</v>
+      </c>
+      <c r="M111">
+        <v>203500</v>
+      </c>
+      <c r="N111">
+        <v>3760926000</v>
+      </c>
+      <c r="O111">
+        <v>-20435700</v>
+      </c>
+      <c r="P111">
+        <v>-227810616000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>1673274120000</v>
+      </c>
+      <c r="B112">
+        <v>3136100</v>
+      </c>
+      <c r="C112">
+        <v>1774900</v>
+      </c>
+      <c r="D112">
+        <v>132400</v>
+      </c>
+      <c r="E112">
+        <v>42354568000</v>
+      </c>
+      <c r="F112">
+        <v>34593278000</v>
+      </c>
+      <c r="G112">
+        <v>1201656000</v>
+      </c>
+      <c r="H112">
+        <v>5043400</v>
+      </c>
+      <c r="I112">
+        <v>78149502000</v>
+      </c>
+      <c r="J112" t="str">
+        <v>2023-01-09T14:22:00.000Z</v>
+      </c>
+      <c r="K112">
+        <v>5706153703000</v>
+      </c>
+      <c r="L112">
+        <v>322650200</v>
+      </c>
+      <c r="M112">
+        <v>-1361200</v>
+      </c>
+      <c r="N112">
+        <v>-7761290000</v>
+      </c>
+      <c r="O112">
+        <v>-21796900</v>
+      </c>
+      <c r="P112">
+        <v>-235571906000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>1673274240000</v>
+      </c>
+      <c r="B113">
+        <v>3095000</v>
+      </c>
+      <c r="C113">
+        <v>1507900</v>
+      </c>
+      <c r="D113">
+        <v>73700</v>
+      </c>
+      <c r="E113">
+        <v>50150095000</v>
+      </c>
+      <c r="F113">
+        <v>25720526000</v>
+      </c>
+      <c r="G113">
+        <v>1575892000</v>
+      </c>
+      <c r="H113">
+        <v>4676600</v>
+      </c>
+      <c r="I113">
+        <v>77446513000</v>
+      </c>
+      <c r="J113" t="str">
+        <v>2023-01-09T14:24:00.000Z</v>
+      </c>
+      <c r="K113">
+        <v>5783600216000</v>
+      </c>
+      <c r="L113">
+        <v>327326800</v>
+      </c>
+      <c r="M113">
+        <v>-1587100</v>
+      </c>
+      <c r="N113">
+        <v>-24429569000</v>
+      </c>
+      <c r="O113">
+        <v>-23384000</v>
+      </c>
+      <c r="P113">
+        <v>-260001475000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>1673274360000</v>
+      </c>
+      <c r="B114">
+        <v>3767100</v>
+      </c>
+      <c r="C114">
+        <v>1341200</v>
+      </c>
+      <c r="D114">
+        <v>118800</v>
+      </c>
+      <c r="E114">
+        <v>62186954000</v>
+      </c>
+      <c r="F114">
+        <v>21430402000</v>
+      </c>
+      <c r="G114">
+        <v>1618998000</v>
+      </c>
+      <c r="H114">
+        <v>5227100</v>
+      </c>
+      <c r="I114">
+        <v>85236354000</v>
+      </c>
+      <c r="J114" t="str">
+        <v>2023-01-09T14:26:00.000Z</v>
+      </c>
+      <c r="K114">
+        <v>5868836570000</v>
+      </c>
+      <c r="L114">
+        <v>332553900</v>
+      </c>
+      <c r="M114">
+        <v>-2425900</v>
+      </c>
+      <c r="N114">
+        <v>-40756552000</v>
+      </c>
+      <c r="O114">
+        <v>-25809900</v>
+      </c>
+      <c r="P114">
+        <v>-300758027000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>1673274480000</v>
+      </c>
+      <c r="B115">
+        <v>7672400</v>
+      </c>
+      <c r="C115">
+        <v>1737600</v>
+      </c>
+      <c r="D115">
+        <v>122000</v>
+      </c>
+      <c r="E115">
+        <v>121499229000</v>
+      </c>
+      <c r="F115">
+        <v>27357866000</v>
+      </c>
+      <c r="G115">
+        <v>2127908000</v>
+      </c>
+      <c r="H115">
+        <v>9532000</v>
+      </c>
+      <c r="I115">
+        <v>150985003000</v>
+      </c>
+      <c r="J115" t="str">
+        <v>2023-01-09T14:28:00.000Z</v>
+      </c>
+      <c r="K115">
+        <v>6019821573000</v>
+      </c>
+      <c r="L115">
+        <v>342085900</v>
+      </c>
+      <c r="M115">
+        <v>-5934800</v>
+      </c>
+      <c r="N115">
+        <v>-94141363000</v>
+      </c>
+      <c r="O115">
+        <v>-31744700</v>
+      </c>
+      <c r="P115">
+        <v>-394899390000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>1673274600000</v>
+      </c>
+      <c r="B116">
+        <v>24000</v>
+      </c>
+      <c r="C116">
+        <v>2100</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>479519000</v>
+      </c>
+      <c r="F116">
+        <v>35668000</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>26100</v>
+      </c>
+      <c r="I116">
+        <v>515187000</v>
+      </c>
+      <c r="J116" t="str">
+        <v>2023-01-09T14:30:00.000Z</v>
+      </c>
+      <c r="K116">
+        <v>6020336760000</v>
+      </c>
+      <c r="L116">
+        <v>342112000</v>
+      </c>
+      <c r="M116">
+        <v>-21900</v>
+      </c>
+      <c r="N116">
+        <v>-443851000</v>
+      </c>
+      <c r="O116">
+        <v>-31766600</v>
+      </c>
+      <c r="P116">
+        <v>-395343241000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>1673275440000</v>
+      </c>
+      <c r="B117">
         <v>2772400</v>
       </c>
-      <c r="C49">
+      <c r="C117">
         <v>918800</v>
       </c>
-      <c r="D49">
+      <c r="D117">
         <v>17949100</v>
       </c>
-      <c r="E49">
+      <c r="E117">
         <v>31551446000</v>
       </c>
-      <c r="F49">
+      <c r="F117">
         <v>23799809000</v>
       </c>
-      <c r="G49">
+      <c r="G117">
         <v>336832433000</v>
       </c>
-      <c r="H49">
+      <c r="H117">
         <v>21640300</v>
       </c>
-      <c r="I49">
+      <c r="I117">
         <v>392183688000</v>
       </c>
-      <c r="J49" t="str">
-        <v>2023-01-09T14:45:00.000Z</v>
-      </c>
-      <c r="K49">
+      <c r="J117" t="str">
+        <v>2023-01-09T14:44:00.000Z</v>
+      </c>
+      <c r="K117">
         <v>6412520448000</v>
       </c>
-      <c r="L49">
+      <c r="L117">
         <v>363752300</v>
       </c>
-      <c r="M49">
+      <c r="M117">
         <v>-1853600</v>
       </c>
-      <c r="N49">
+      <c r="N117">
         <v>-7751637000</v>
       </c>
-      <c r="O49">
+      <c r="O117">
         <v>-33620200</v>
       </c>
-      <c r="P49">
+      <c r="P117">
         <v>-403094878000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P49"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P117"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/name/vnindex/20230109/VNINDEX_HOSE_5p_20230109.xlsx
+++ b/name/vnindex/20230109/VNINDEX_HOSE_5p_20230109.xlsx
@@ -466,25 +466,25 @@
         <v>3050200</v>
       </c>
       <c r="E2">
-        <v>26176201000</v>
+        <v>24028450900</v>
       </c>
       <c r="F2">
-        <v>49189760000</v>
+        <v>47721130100</v>
       </c>
       <c r="G2">
-        <v>45143237000</v>
+        <v>44533647200</v>
       </c>
       <c r="H2">
         <v>7729900</v>
       </c>
       <c r="I2">
-        <v>120509198000</v>
+        <v>116283228200</v>
       </c>
       <c r="J2" t="str">
         <v>2023-01-09T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>120509198000</v>
+        <v>116283228200</v>
       </c>
       <c r="L2">
         <v>7729900</v>
@@ -493,13 +493,13 @@
         <v>873700</v>
       </c>
       <c r="N2">
-        <v>23013559000</v>
+        <v>23692679200</v>
       </c>
       <c r="O2">
         <v>873700</v>
       </c>
       <c r="P2">
-        <v>23013559000</v>
+        <v>23692679200</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +516,25 @@
         <v>27600</v>
       </c>
       <c r="E3">
-        <v>24585408000</v>
+        <v>23391503100</v>
       </c>
       <c r="F3">
-        <v>47085708000</v>
+        <v>45148147500</v>
       </c>
       <c r="G3">
-        <v>385315000</v>
+        <v>368931400</v>
       </c>
       <c r="H3">
         <v>4807300</v>
       </c>
       <c r="I3">
-        <v>72056431000</v>
+        <v>68908582000</v>
       </c>
       <c r="J3" t="str">
         <v>2023-01-09T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>192565629000</v>
+        <v>185191810200</v>
       </c>
       <c r="L3">
         <v>12537200</v>
@@ -543,13 +543,13 @@
         <v>1373500</v>
       </c>
       <c r="N3">
-        <v>22500300000</v>
+        <v>21756644400</v>
       </c>
       <c r="O3">
         <v>2247200</v>
       </c>
       <c r="P3">
-        <v>45513859000</v>
+        <v>45449323600</v>
       </c>
     </row>
     <row r="4">
@@ -566,25 +566,25 @@
         <v>15900</v>
       </c>
       <c r="E4">
-        <v>29341696000</v>
+        <v>26529011500</v>
       </c>
       <c r="F4">
-        <v>51350522000</v>
+        <v>45706771400</v>
       </c>
       <c r="G4">
-        <v>242210000</v>
+        <v>224128100</v>
       </c>
       <c r="H4">
         <v>5151200</v>
       </c>
       <c r="I4">
-        <v>80934428000</v>
+        <v>72459911000</v>
       </c>
       <c r="J4" t="str">
         <v>2023-01-09T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>273500057000</v>
+        <v>257651721200</v>
       </c>
       <c r="L4">
         <v>17688400</v>
@@ -593,13 +593,13 @@
         <v>1473700</v>
       </c>
       <c r="N4">
-        <v>22008826000</v>
+        <v>19177759900</v>
       </c>
       <c r="O4">
         <v>3720900</v>
       </c>
       <c r="P4">
-        <v>67522685000</v>
+        <v>64627083500</v>
       </c>
     </row>
     <row r="5">
@@ -616,25 +616,25 @@
         <v>41500</v>
       </c>
       <c r="E5">
-        <v>31548659000</v>
+        <v>29612796800</v>
       </c>
       <c r="F5">
-        <v>63909972000</v>
+        <v>45933666300</v>
       </c>
       <c r="G5">
-        <v>760191000</v>
+        <v>737014200</v>
       </c>
       <c r="H5">
         <v>5661800</v>
       </c>
       <c r="I5">
-        <v>96218822000</v>
+        <v>76283477300</v>
       </c>
       <c r="J5" t="str">
         <v>2023-01-09T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>369718879000</v>
+        <v>333935198500</v>
       </c>
       <c r="L5">
         <v>23350200</v>
@@ -643,13 +643,13 @@
         <v>1775700</v>
       </c>
       <c r="N5">
-        <v>32361313000</v>
+        <v>16320869500</v>
       </c>
       <c r="O5">
         <v>5496600</v>
       </c>
       <c r="P5">
-        <v>99883998000</v>
+        <v>80947953000</v>
       </c>
     </row>
     <row r="6">
@@ -666,25 +666,25 @@
         <v>31700</v>
       </c>
       <c r="E6">
-        <v>48448686000</v>
+        <v>37313532300</v>
       </c>
       <c r="F6">
-        <v>48116572000</v>
+        <v>38582116000</v>
       </c>
       <c r="G6">
-        <v>671921000</v>
+        <v>652440500</v>
       </c>
       <c r="H6">
         <v>5718200</v>
       </c>
       <c r="I6">
-        <v>97237179000</v>
+        <v>76548088800</v>
       </c>
       <c r="J6" t="str">
         <v>2023-01-09T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>466956058000</v>
+        <v>410483287300</v>
       </c>
       <c r="L6">
         <v>29068400</v>
@@ -693,13 +693,13 @@
         <v>295500</v>
       </c>
       <c r="N6">
-        <v>-332114000</v>
+        <v>1268583700</v>
       </c>
       <c r="O6">
         <v>5792100</v>
       </c>
       <c r="P6">
-        <v>99551884000</v>
+        <v>82216536700</v>
       </c>
     </row>
     <row r="7">
@@ -716,25 +716,25 @@
         <v>52200</v>
       </c>
       <c r="E7">
-        <v>44873945000</v>
+        <v>43507512800</v>
       </c>
       <c r="F7">
-        <v>25876276000</v>
+        <v>24522231400</v>
       </c>
       <c r="G7">
-        <v>489250000</v>
+        <v>445294000</v>
       </c>
       <c r="H7">
         <v>4377300</v>
       </c>
       <c r="I7">
-        <v>71239471000</v>
+        <v>68475038200</v>
       </c>
       <c r="J7" t="str">
         <v>2023-01-09T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>538195529000</v>
+        <v>478958325500</v>
       </c>
       <c r="L7">
         <v>33445700</v>
@@ -743,13 +743,13 @@
         <v>-1131900</v>
       </c>
       <c r="N7">
-        <v>-18997669000</v>
+        <v>-18985281400</v>
       </c>
       <c r="O7">
         <v>4660200</v>
       </c>
       <c r="P7">
-        <v>80554215000</v>
+        <v>63231255300</v>
       </c>
     </row>
     <row r="8">
@@ -766,10 +766,10 @@
         <v>18200</v>
       </c>
       <c r="E8">
-        <v>33729028000</v>
+        <v>30777282700</v>
       </c>
       <c r="F8">
-        <v>19382559000</v>
+        <v>18725816400</v>
       </c>
       <c r="G8">
         <v>723270000</v>
@@ -778,13 +778,13 @@
         <v>3235000</v>
       </c>
       <c r="I8">
-        <v>53834857000</v>
+        <v>50226369100</v>
       </c>
       <c r="J8" t="str">
         <v>2023-01-09T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>592030386000</v>
+        <v>529184694600</v>
       </c>
       <c r="L8">
         <v>36680700</v>
@@ -793,13 +793,13 @@
         <v>-859400</v>
       </c>
       <c r="N8">
-        <v>-14346469000</v>
+        <v>-12051466300</v>
       </c>
       <c r="O8">
         <v>3800800</v>
       </c>
       <c r="P8">
-        <v>66207746000</v>
+        <v>51179789000</v>
       </c>
     </row>
     <row r="9">
@@ -816,10 +816,10 @@
         <v>1200</v>
       </c>
       <c r="E9">
-        <v>24067797000</v>
+        <v>23238627000</v>
       </c>
       <c r="F9">
-        <v>26420461000</v>
+        <v>23379205300</v>
       </c>
       <c r="G9">
         <v>23974000</v>
@@ -828,13 +828,13 @@
         <v>2861900</v>
       </c>
       <c r="I9">
-        <v>50512232000</v>
+        <v>46641806300</v>
       </c>
       <c r="J9" t="str">
         <v>2023-01-09T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>642542618000</v>
+        <v>575826500900</v>
       </c>
       <c r="L9">
         <v>39542600</v>
@@ -843,13 +843,13 @@
         <v>-61100</v>
       </c>
       <c r="N9">
-        <v>2352664000</v>
+        <v>140578300</v>
       </c>
       <c r="O9">
         <v>3739700</v>
       </c>
       <c r="P9">
-        <v>68560410000</v>
+        <v>51320367300</v>
       </c>
     </row>
     <row r="10">
@@ -866,25 +866,25 @@
         <v>35300</v>
       </c>
       <c r="E10">
-        <v>22368194000</v>
+        <v>21736925900</v>
       </c>
       <c r="F10">
-        <v>23126817000</v>
+        <v>19523424000</v>
       </c>
       <c r="G10">
-        <v>1009929000</v>
+        <v>995943000</v>
       </c>
       <c r="H10">
         <v>2698000</v>
       </c>
       <c r="I10">
-        <v>46504940000</v>
+        <v>42256292900</v>
       </c>
       <c r="J10" t="str">
         <v>2023-01-09T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>689047558000</v>
+        <v>618082793800</v>
       </c>
       <c r="L10">
         <v>42240600</v>
@@ -893,13 +893,13 @@
         <v>71100</v>
       </c>
       <c r="N10">
-        <v>758623000</v>
+        <v>-2213501900</v>
       </c>
       <c r="O10">
         <v>3810800</v>
       </c>
       <c r="P10">
-        <v>69319033000</v>
+        <v>49106865400</v>
       </c>
     </row>
     <row r="11">
@@ -916,10 +916,10 @@
         <v>41000</v>
       </c>
       <c r="E11">
-        <v>25137358000</v>
+        <v>24673422400</v>
       </c>
       <c r="F11">
-        <v>24324809000</v>
+        <v>22079057000</v>
       </c>
       <c r="G11">
         <v>654863000</v>
@@ -928,13 +928,13 @@
         <v>3077400</v>
       </c>
       <c r="I11">
-        <v>50117030000</v>
+        <v>47407342400</v>
       </c>
       <c r="J11" t="str">
         <v>2023-01-09T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>739164588000</v>
+        <v>665490136200</v>
       </c>
       <c r="L11">
         <v>45318000</v>
@@ -943,13 +943,13 @@
         <v>-318600</v>
       </c>
       <c r="N11">
-        <v>-812549000</v>
+        <v>-2594365400</v>
       </c>
       <c r="O11">
         <v>3492200</v>
       </c>
       <c r="P11">
-        <v>68506484000</v>
+        <v>46512500000</v>
       </c>
     </row>
     <row r="12">
@@ -966,25 +966,25 @@
         <v>53200</v>
       </c>
       <c r="E12">
-        <v>23331674000</v>
+        <v>22838667500</v>
       </c>
       <c r="F12">
-        <v>26328356000</v>
+        <v>24967018700</v>
       </c>
       <c r="G12">
-        <v>489954000</v>
+        <v>419724300</v>
       </c>
       <c r="H12">
         <v>3045500</v>
       </c>
       <c r="I12">
-        <v>50149984000</v>
+        <v>48225410500</v>
       </c>
       <c r="J12" t="str">
         <v>2023-01-09T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>789314572000</v>
+        <v>713715546700</v>
       </c>
       <c r="L12">
         <v>48363500</v>
@@ -993,13 +993,13 @@
         <v>24500</v>
       </c>
       <c r="N12">
-        <v>2996682000</v>
+        <v>2128351200</v>
       </c>
       <c r="O12">
         <v>3516700</v>
       </c>
       <c r="P12">
-        <v>71503166000</v>
+        <v>48640851200</v>
       </c>
     </row>
     <row r="13">
@@ -1016,10 +1016,10 @@
         <v>39100</v>
       </c>
       <c r="E13">
-        <v>22161228000</v>
+        <v>19962229200</v>
       </c>
       <c r="F13">
-        <v>19249554000</v>
+        <v>18124680000</v>
       </c>
       <c r="G13">
         <v>760462000</v>
@@ -1028,13 +1028,13 @@
         <v>2576800</v>
       </c>
       <c r="I13">
-        <v>42171244000</v>
+        <v>38847371200</v>
       </c>
       <c r="J13" t="str">
         <v>2023-01-09T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>831485816000</v>
+        <v>752562917900</v>
       </c>
       <c r="L13">
         <v>50940300</v>
@@ -1043,13 +1043,13 @@
         <v>86900</v>
       </c>
       <c r="N13">
-        <v>-2911674000</v>
+        <v>-1837549200</v>
       </c>
       <c r="O13">
         <v>3603600</v>
       </c>
       <c r="P13">
-        <v>68591492000</v>
+        <v>46803302000</v>
       </c>
     </row>
     <row r="14">
@@ -1066,10 +1066,10 @@
         <v>15500</v>
       </c>
       <c r="E14">
-        <v>28906407000</v>
+        <v>26871044400</v>
       </c>
       <c r="F14">
-        <v>16599537000</v>
+        <v>14868070200</v>
       </c>
       <c r="G14">
         <v>486477000</v>
@@ -1078,13 +1078,13 @@
         <v>2632300</v>
       </c>
       <c r="I14">
-        <v>45992421000</v>
+        <v>42225591600</v>
       </c>
       <c r="J14" t="str">
         <v>2023-01-09T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>877478237000</v>
+        <v>794788509500</v>
       </c>
       <c r="L14">
         <v>53572600</v>
@@ -1093,13 +1093,13 @@
         <v>-742600</v>
       </c>
       <c r="N14">
-        <v>-12306870000</v>
+        <v>-12002974200</v>
       </c>
       <c r="O14">
         <v>2861000</v>
       </c>
       <c r="P14">
-        <v>56284622000</v>
+        <v>34800327800</v>
       </c>
     </row>
     <row r="15">
@@ -1116,10 +1116,10 @@
         <v>7900</v>
       </c>
       <c r="E15">
-        <v>25620948000</v>
+        <v>24573396600</v>
       </c>
       <c r="F15">
-        <v>14929143000</v>
+        <v>13330343400</v>
       </c>
       <c r="G15">
         <v>184000000</v>
@@ -1128,13 +1128,13 @@
         <v>2452000</v>
       </c>
       <c r="I15">
-        <v>40734091000</v>
+        <v>38087740000</v>
       </c>
       <c r="J15" t="str">
         <v>2023-01-09T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>918212328000</v>
+        <v>832876249500</v>
       </c>
       <c r="L15">
         <v>56024600</v>
@@ -1143,13 +1143,13 @@
         <v>-705900</v>
       </c>
       <c r="N15">
-        <v>-10691805000</v>
+        <v>-11243053200</v>
       </c>
       <c r="O15">
         <v>2155100</v>
       </c>
       <c r="P15">
-        <v>45592817000</v>
+        <v>23557274600</v>
       </c>
     </row>
     <row r="16">
@@ -1166,25 +1166,25 @@
         <v>18500</v>
       </c>
       <c r="E16">
-        <v>26011573000</v>
+        <v>24973012600</v>
       </c>
       <c r="F16">
-        <v>17769378000</v>
+        <v>16088160900</v>
       </c>
       <c r="G16">
-        <v>397156000</v>
+        <v>375377800</v>
       </c>
       <c r="H16">
         <v>2677100</v>
       </c>
       <c r="I16">
-        <v>44178107000</v>
+        <v>41436551300</v>
       </c>
       <c r="J16" t="str">
         <v>2023-01-09T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>962390435000</v>
+        <v>874312800800</v>
       </c>
       <c r="L16">
         <v>58701700</v>
@@ -1193,13 +1193,13 @@
         <v>-326800</v>
       </c>
       <c r="N16">
-        <v>-8242195000</v>
+        <v>-8884851700</v>
       </c>
       <c r="O16">
         <v>1828300</v>
       </c>
       <c r="P16">
-        <v>37350622000</v>
+        <v>14672422900</v>
       </c>
     </row>
     <row r="17">
@@ -1216,25 +1216,25 @@
         <v>18900</v>
       </c>
       <c r="E17">
-        <v>26929700000</v>
+        <v>26012817800</v>
       </c>
       <c r="F17">
-        <v>20725206000</v>
+        <v>19151781000</v>
       </c>
       <c r="G17">
-        <v>465234000</v>
+        <v>454744500</v>
       </c>
       <c r="H17">
         <v>3072000</v>
       </c>
       <c r="I17">
-        <v>48120140000</v>
+        <v>45619343300</v>
       </c>
       <c r="J17" t="str">
         <v>2023-01-09T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>1010510575000</v>
+        <v>919932144100</v>
       </c>
       <c r="L17">
         <v>61773700</v>
@@ -1243,13 +1243,13 @@
         <v>-328900</v>
       </c>
       <c r="N17">
-        <v>-6204494000</v>
+        <v>-6861036800</v>
       </c>
       <c r="O17">
         <v>1499400</v>
       </c>
       <c r="P17">
-        <v>31146128000</v>
+        <v>7811386100</v>
       </c>
     </row>
     <row r="18">
@@ -1266,10 +1266,10 @@
         <v>20700</v>
       </c>
       <c r="E18">
-        <v>36999444000</v>
+        <v>34682063700</v>
       </c>
       <c r="F18">
-        <v>22017789000</v>
+        <v>20851156800</v>
       </c>
       <c r="G18">
         <v>374136000</v>
@@ -1278,13 +1278,13 @@
         <v>3425200</v>
       </c>
       <c r="I18">
-        <v>59391369000</v>
+        <v>55907356500</v>
       </c>
       <c r="J18" t="str">
         <v>2023-01-09T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>1069901944000</v>
+        <v>975839500600</v>
       </c>
       <c r="L18">
         <v>65198900</v>
@@ -1293,13 +1293,13 @@
         <v>-859300</v>
       </c>
       <c r="N18">
-        <v>-14981655000</v>
+        <v>-13830906900</v>
       </c>
       <c r="O18">
         <v>640100</v>
       </c>
       <c r="P18">
-        <v>16164473000</v>
+        <v>-6019520800</v>
       </c>
     </row>
     <row r="19">
@@ -1316,10 +1316,10 @@
         <v>5800</v>
       </c>
       <c r="E19">
-        <v>28022535000</v>
+        <v>26722736100</v>
       </c>
       <c r="F19">
-        <v>17404383000</v>
+        <v>15787101900</v>
       </c>
       <c r="G19">
         <v>87421000</v>
@@ -1328,13 +1328,13 @@
         <v>2699700</v>
       </c>
       <c r="I19">
-        <v>45514339000</v>
+        <v>42597259000</v>
       </c>
       <c r="J19" t="str">
         <v>2023-01-09T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>1115416283000</v>
+        <v>1018436759600</v>
       </c>
       <c r="L19">
         <v>67898600</v>
@@ -1343,13 +1343,13 @@
         <v>-664900</v>
       </c>
       <c r="N19">
-        <v>-10618152000</v>
+        <v>-10935634200</v>
       </c>
       <c r="O19">
         <v>-24800</v>
       </c>
       <c r="P19">
-        <v>5546321000</v>
+        <v>-16955155000</v>
       </c>
     </row>
     <row r="20">
@@ -1366,10 +1366,10 @@
         <v>4600</v>
       </c>
       <c r="E20">
-        <v>16504386000</v>
+        <v>15259731900</v>
       </c>
       <c r="F20">
-        <v>13829644000</v>
+        <v>13099874500</v>
       </c>
       <c r="G20">
         <v>63526000</v>
@@ -1378,13 +1378,13 @@
         <v>2072200</v>
       </c>
       <c r="I20">
-        <v>30397556000</v>
+        <v>28423132400</v>
       </c>
       <c r="J20" t="str">
         <v>2023-01-09T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>1145813839000</v>
+        <v>1046859892000</v>
       </c>
       <c r="L20">
         <v>69970800</v>
@@ -1393,13 +1393,13 @@
         <v>-55000</v>
       </c>
       <c r="N20">
-        <v>-2674742000</v>
+        <v>-2159857400</v>
       </c>
       <c r="O20">
         <v>-79800</v>
       </c>
       <c r="P20">
-        <v>2871579000</v>
+        <v>-19115012400</v>
       </c>
     </row>
     <row r="21">
@@ -1416,25 +1416,25 @@
         <v>11600</v>
       </c>
       <c r="E21">
-        <v>31640217000</v>
+        <v>27701659500</v>
       </c>
       <c r="F21">
-        <v>15922523000</v>
+        <v>14677369400</v>
       </c>
       <c r="G21">
-        <v>292202000</v>
+        <v>281312900</v>
       </c>
       <c r="H21">
         <v>3367700</v>
       </c>
       <c r="I21">
-        <v>47854942000</v>
+        <v>42660341800</v>
       </c>
       <c r="J21" t="str">
         <v>2023-01-09T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>1193668781000</v>
+        <v>1089520233800</v>
       </c>
       <c r="L21">
         <v>73338500</v>
@@ -1443,13 +1443,13 @@
         <v>-284900</v>
       </c>
       <c r="N21">
-        <v>-15717694000</v>
+        <v>-13024290100</v>
       </c>
       <c r="O21">
         <v>-364700</v>
       </c>
       <c r="P21">
-        <v>-12846115000</v>
+        <v>-32139302500</v>
       </c>
     </row>
     <row r="22">
@@ -1466,25 +1466,25 @@
         <v>3400</v>
       </c>
       <c r="E22">
-        <v>28125354000</v>
+        <v>25761520200</v>
       </c>
       <c r="F22">
-        <v>27201342000</v>
+        <v>23394552600</v>
       </c>
       <c r="G22">
-        <v>131556000</v>
+        <v>127560000</v>
       </c>
       <c r="H22">
         <v>4883200</v>
       </c>
       <c r="I22">
-        <v>55458252000</v>
+        <v>49283632800</v>
       </c>
       <c r="J22" t="str">
         <v>2023-01-09T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>1249127033000</v>
+        <v>1138803866600</v>
       </c>
       <c r="L22">
         <v>78221700</v>
@@ -1493,13 +1493,13 @@
         <v>1411000</v>
       </c>
       <c r="N22">
-        <v>-924012000</v>
+        <v>-2366967600</v>
       </c>
       <c r="O22">
         <v>1046300</v>
       </c>
       <c r="P22">
-        <v>-13770127000</v>
+        <v>-34506270100</v>
       </c>
     </row>
     <row r="23">
@@ -1516,25 +1516,25 @@
         <v>43500</v>
       </c>
       <c r="E23">
-        <v>20085128000</v>
+        <v>19237076900</v>
       </c>
       <c r="F23">
-        <v>22126928000</v>
+        <v>21156099800</v>
       </c>
       <c r="G23">
-        <v>915004000</v>
+        <v>887032000</v>
       </c>
       <c r="H23">
         <v>2721600</v>
       </c>
       <c r="I23">
-        <v>43127060000</v>
+        <v>41280208700</v>
       </c>
       <c r="J23" t="str">
         <v>2023-01-09T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>1292254093000</v>
+        <v>1180084075300</v>
       </c>
       <c r="L23">
         <v>80943300</v>
@@ -1543,13 +1543,13 @@
         <v>-159300</v>
       </c>
       <c r="N23">
-        <v>2041800000</v>
+        <v>1919022900</v>
       </c>
       <c r="O23">
         <v>887000</v>
       </c>
       <c r="P23">
-        <v>-11728327000</v>
+        <v>-32587247200</v>
       </c>
     </row>
     <row r="24">
@@ -1566,10 +1566,10 @@
         <v>18400</v>
       </c>
       <c r="E24">
-        <v>17834742000</v>
+        <v>17229947400</v>
       </c>
       <c r="F24">
-        <v>36049726000</v>
+        <v>29881900000</v>
       </c>
       <c r="G24">
         <v>459811000</v>
@@ -1578,13 +1578,13 @@
         <v>3313900</v>
       </c>
       <c r="I24">
-        <v>54344279000</v>
+        <v>47571658400</v>
       </c>
       <c r="J24" t="str">
         <v>2023-01-09T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>1346598372000</v>
+        <v>1227655733700</v>
       </c>
       <c r="L24">
         <v>84257200</v>
@@ -1593,13 +1593,13 @@
         <v>1178300</v>
       </c>
       <c r="N24">
-        <v>18214984000</v>
+        <v>12651952600</v>
       </c>
       <c r="O24">
         <v>2065300</v>
       </c>
       <c r="P24">
-        <v>6486657000</v>
+        <v>-19935294600</v>
       </c>
     </row>
     <row r="25">
@@ -1616,25 +1616,25 @@
         <v>12200</v>
       </c>
       <c r="E25">
-        <v>22590863000</v>
+        <v>21277777400</v>
       </c>
       <c r="F25">
-        <v>36675767000</v>
+        <v>35157386900</v>
       </c>
       <c r="G25">
-        <v>146578000</v>
+        <v>96228400</v>
       </c>
       <c r="H25">
         <v>3459400</v>
       </c>
       <c r="I25">
-        <v>59413208000</v>
+        <v>56531392700</v>
       </c>
       <c r="J25" t="str">
         <v>2023-01-09T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>1406011580000</v>
+        <v>1284187126400</v>
       </c>
       <c r="L25">
         <v>87716600</v>
@@ -1643,13 +1643,13 @@
         <v>948600</v>
       </c>
       <c r="N25">
-        <v>14084904000</v>
+        <v>13879609500</v>
       </c>
       <c r="O25">
         <v>3013900</v>
       </c>
       <c r="P25">
-        <v>20571561000</v>
+        <v>-6055685100</v>
       </c>
     </row>
     <row r="26">
@@ -1666,10 +1666,10 @@
         <v>29000</v>
       </c>
       <c r="E26">
-        <v>22499194000</v>
+        <v>21537057100</v>
       </c>
       <c r="F26">
-        <v>35827862000</v>
+        <v>33380511800</v>
       </c>
       <c r="G26">
         <v>829445000</v>
@@ -1678,13 +1678,13 @@
         <v>3070200</v>
       </c>
       <c r="I26">
-        <v>59156501000</v>
+        <v>55747013900</v>
       </c>
       <c r="J26" t="str">
         <v>2023-01-09T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>1465168081000</v>
+        <v>1339934140300</v>
       </c>
       <c r="L26">
         <v>90786800</v>
@@ -1693,13 +1693,13 @@
         <v>471000</v>
       </c>
       <c r="N26">
-        <v>13328668000</v>
+        <v>11843454700</v>
       </c>
       <c r="O26">
         <v>3484900</v>
       </c>
       <c r="P26">
-        <v>33900229000</v>
+        <v>5787769600</v>
       </c>
     </row>
     <row r="27">
@@ -1716,10 +1716,10 @@
         <v>5700</v>
       </c>
       <c r="E27">
-        <v>13742395000</v>
+        <v>13091746300</v>
       </c>
       <c r="F27">
-        <v>31489345000</v>
+        <v>31295439100</v>
       </c>
       <c r="G27">
         <v>144045000</v>
@@ -1728,13 +1728,13 @@
         <v>2294100</v>
       </c>
       <c r="I27">
-        <v>45375785000</v>
+        <v>44531230400</v>
       </c>
       <c r="J27" t="str">
         <v>2023-01-09T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>1510543866000</v>
+        <v>1384465370700</v>
       </c>
       <c r="L27">
         <v>93080900</v>
@@ -1743,13 +1743,13 @@
         <v>895800</v>
       </c>
       <c r="N27">
-        <v>17746950000</v>
+        <v>18203692800</v>
       </c>
       <c r="O27">
         <v>4380700</v>
       </c>
       <c r="P27">
-        <v>51647179000</v>
+        <v>23991462400</v>
       </c>
     </row>
     <row r="28">
@@ -1766,10 +1766,10 @@
         <v>25000</v>
       </c>
       <c r="E28">
-        <v>21219558000</v>
+        <v>20432445900</v>
       </c>
       <c r="F28">
-        <v>32718730000</v>
+        <v>28791960700</v>
       </c>
       <c r="G28">
         <v>275667000</v>
@@ -1778,13 +1778,13 @@
         <v>2777500</v>
       </c>
       <c r="I28">
-        <v>54213955000</v>
+        <v>49500073600</v>
       </c>
       <c r="J28" t="str">
         <v>2023-01-09T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>1564757821000</v>
+        <v>1433965444300</v>
       </c>
       <c r="L28">
         <v>95858400</v>
@@ -1793,13 +1793,13 @@
         <v>624900</v>
       </c>
       <c r="N28">
-        <v>11499172000</v>
+        <v>8359514800</v>
       </c>
       <c r="O28">
         <v>5005600</v>
       </c>
       <c r="P28">
-        <v>63146351000</v>
+        <v>32350977200</v>
       </c>
     </row>
     <row r="29">
@@ -1816,25 +1816,25 @@
         <v>13300</v>
       </c>
       <c r="E29">
-        <v>15810832000</v>
+        <v>15059783800</v>
       </c>
       <c r="F29">
-        <v>23799814000</v>
+        <v>21527788300</v>
       </c>
       <c r="G29">
-        <v>166860000</v>
+        <v>136989900</v>
       </c>
       <c r="H29">
         <v>1973000</v>
       </c>
       <c r="I29">
-        <v>39777506000</v>
+        <v>36724562000</v>
       </c>
       <c r="J29" t="str">
         <v>2023-01-09T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>1604535327000</v>
+        <v>1470690006300</v>
       </c>
       <c r="L29">
         <v>97831400</v>
@@ -1843,13 +1843,13 @@
         <v>184900</v>
       </c>
       <c r="N29">
-        <v>7988982000</v>
+        <v>6468004500</v>
       </c>
       <c r="O29">
         <v>5190500</v>
       </c>
       <c r="P29">
-        <v>71135333000</v>
+        <v>38818981700</v>
       </c>
     </row>
     <row r="30">
@@ -1866,10 +1866,10 @@
         <v>19600</v>
       </c>
       <c r="E30">
-        <v>14036821000</v>
+        <v>13867090900</v>
       </c>
       <c r="F30">
-        <v>36239387000</v>
+        <v>35605721300</v>
       </c>
       <c r="G30">
         <v>270680000</v>
@@ -1878,13 +1878,13 @@
         <v>2667100</v>
       </c>
       <c r="I30">
-        <v>50546888000</v>
+        <v>49743492200</v>
       </c>
       <c r="J30" t="str">
         <v>2023-01-09T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>1655082215000</v>
+        <v>1520433498500</v>
       </c>
       <c r="L30">
         <v>100498500</v>
@@ -1893,13 +1893,13 @@
         <v>1208100</v>
       </c>
       <c r="N30">
-        <v>22202566000</v>
+        <v>21738630400</v>
       </c>
       <c r="O30">
         <v>6398600</v>
       </c>
       <c r="P30">
-        <v>93337899000</v>
+        <v>60557612100</v>
       </c>
     </row>
     <row r="31">
@@ -1916,10 +1916,10 @@
         <v>21900</v>
       </c>
       <c r="E31">
-        <v>20652904000</v>
+        <v>19327430800</v>
       </c>
       <c r="F31">
-        <v>30324030000</v>
+        <v>27944511900</v>
       </c>
       <c r="G31">
         <v>487795000</v>
@@ -1928,13 +1928,13 @@
         <v>2636300</v>
       </c>
       <c r="I31">
-        <v>51464729000</v>
+        <v>47759737700</v>
       </c>
       <c r="J31" t="str">
         <v>2023-01-09T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>1706546944000</v>
+        <v>1568193236200</v>
       </c>
       <c r="L31">
         <v>103134800</v>
@@ -1943,13 +1943,13 @@
         <v>715400</v>
       </c>
       <c r="N31">
-        <v>9671126000</v>
+        <v>8617081100</v>
       </c>
       <c r="O31">
         <v>7114000</v>
       </c>
       <c r="P31">
-        <v>103009025000</v>
+        <v>69174693200</v>
       </c>
     </row>
     <row r="32">
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="E32">
-        <v>37817039000</v>
+        <v>36701855300</v>
       </c>
       <c r="F32">
-        <v>16846980000</v>
+        <v>16773353700</v>
       </c>
       <c r="G32">
         <v>246134000</v>
@@ -1978,13 +1978,13 @@
         <v>2780200</v>
       </c>
       <c r="I32">
-        <v>54910153000</v>
+        <v>53721343000</v>
       </c>
       <c r="J32" t="str">
         <v>2023-01-09T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>1761457097000</v>
+        <v>1621914579200</v>
       </c>
       <c r="L32">
         <v>105915000</v>
@@ -1993,13 +1993,13 @@
         <v>-823000</v>
       </c>
       <c r="N32">
-        <v>-20970059000</v>
+        <v>-19928501600</v>
       </c>
       <c r="O32">
         <v>6291000</v>
       </c>
       <c r="P32">
-        <v>82038966000</v>
+        <v>49246191600</v>
       </c>
     </row>
     <row r="33">
@@ -2016,10 +2016,10 @@
         <v>9000</v>
       </c>
       <c r="E33">
-        <v>23896662000</v>
+        <v>23358400800</v>
       </c>
       <c r="F33">
-        <v>12216164000</v>
+        <v>11977902500</v>
       </c>
       <c r="G33">
         <v>95965000</v>
@@ -2028,13 +2028,13 @@
         <v>1874100</v>
       </c>
       <c r="I33">
-        <v>36208791000</v>
+        <v>35432268300</v>
       </c>
       <c r="J33" t="str">
         <v>2023-01-09T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>1797665888000</v>
+        <v>1657346847500</v>
       </c>
       <c r="L33">
         <v>107789100</v>
@@ -2043,13 +2043,13 @@
         <v>-577100</v>
       </c>
       <c r="N33">
-        <v>-11680498000</v>
+        <v>-11380498300</v>
       </c>
       <c r="O33">
         <v>5713900</v>
       </c>
       <c r="P33">
-        <v>70358468000</v>
+        <v>37865693300</v>
       </c>
     </row>
     <row r="34">
@@ -2066,10 +2066,10 @@
         <v>2000</v>
       </c>
       <c r="E34">
-        <v>21327010000</v>
+        <v>20524013800</v>
       </c>
       <c r="F34">
-        <v>16590435000</v>
+        <v>16311314400</v>
       </c>
       <c r="G34">
         <v>48265000</v>
@@ -2078,13 +2078,13 @@
         <v>2122400</v>
       </c>
       <c r="I34">
-        <v>37965710000</v>
+        <v>36883593200</v>
       </c>
       <c r="J34" t="str">
         <v>2023-01-09T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>1835631598000</v>
+        <v>1694230440700</v>
       </c>
       <c r="L34">
         <v>109911500</v>
@@ -2093,13 +2093,13 @@
         <v>-254600</v>
       </c>
       <c r="N34">
-        <v>-4736575000</v>
+        <v>-4212699400</v>
       </c>
       <c r="O34">
         <v>5459300</v>
       </c>
       <c r="P34">
-        <v>65621893000</v>
+        <v>33652993900</v>
       </c>
     </row>
     <row r="35">
@@ -2116,10 +2116,10 @@
         <v>4200</v>
       </c>
       <c r="E35">
-        <v>10844040000</v>
+        <v>10194090600</v>
       </c>
       <c r="F35">
-        <v>26784121000</v>
+        <v>25940965000</v>
       </c>
       <c r="G35">
         <v>112159000</v>
@@ -2128,13 +2128,13 @@
         <v>1883400</v>
       </c>
       <c r="I35">
-        <v>37740320000</v>
+        <v>36247214600</v>
       </c>
       <c r="J35" t="str">
         <v>2023-01-09T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>1873371918000</v>
+        <v>1730477655300</v>
       </c>
       <c r="L35">
         <v>111794900</v>
@@ -2143,13 +2143,13 @@
         <v>680600</v>
       </c>
       <c r="N35">
-        <v>15940081000</v>
+        <v>15746874400</v>
       </c>
       <c r="O35">
         <v>6139900</v>
       </c>
       <c r="P35">
-        <v>81561974000</v>
+        <v>49399868300</v>
       </c>
     </row>
     <row r="36">
@@ -2166,10 +2166,10 @@
         <v>4800</v>
       </c>
       <c r="E36">
-        <v>12211476000</v>
+        <v>11790397500</v>
       </c>
       <c r="F36">
-        <v>23890900000</v>
+        <v>23530261000</v>
       </c>
       <c r="G36">
         <v>42011000</v>
@@ -2178,13 +2178,13 @@
         <v>2009900</v>
       </c>
       <c r="I36">
-        <v>36144387000</v>
+        <v>35362669500</v>
       </c>
       <c r="J36" t="str">
         <v>2023-01-09T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>1909516305000</v>
+        <v>1765840324800</v>
       </c>
       <c r="L36">
         <v>113804800</v>
@@ -2193,13 +2193,13 @@
         <v>477700</v>
       </c>
       <c r="N36">
-        <v>11679424000</v>
+        <v>11739863500</v>
       </c>
       <c r="O36">
         <v>6617600</v>
       </c>
       <c r="P36">
-        <v>93241398000</v>
+        <v>61139731800</v>
       </c>
     </row>
     <row r="37">
@@ -2216,10 +2216,10 @@
         <v>9200</v>
       </c>
       <c r="E37">
-        <v>13415887000</v>
+        <v>13244658400</v>
       </c>
       <c r="F37">
-        <v>17676703000</v>
+        <v>17048831500</v>
       </c>
       <c r="G37">
         <v>150250000</v>
@@ -2228,13 +2228,13 @@
         <v>1831300</v>
       </c>
       <c r="I37">
-        <v>31242840000</v>
+        <v>30443739900</v>
       </c>
       <c r="J37" t="str">
         <v>2023-01-09T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>1940759145000</v>
+        <v>1796284064700</v>
       </c>
       <c r="L37">
         <v>115636100</v>
@@ -2243,13 +2243,13 @@
         <v>278100</v>
       </c>
       <c r="N37">
-        <v>4260816000</v>
+        <v>3804173100</v>
       </c>
       <c r="O37">
         <v>6895700</v>
       </c>
       <c r="P37">
-        <v>97502214000</v>
+        <v>64943904900</v>
       </c>
     </row>
     <row r="38">
@@ -2266,10 +2266,10 @@
         <v>1300</v>
       </c>
       <c r="E38">
-        <v>11185847000</v>
+        <v>10876057100</v>
       </c>
       <c r="F38">
-        <v>23912563000</v>
+        <v>22709067700</v>
       </c>
       <c r="G38">
         <v>34798000</v>
@@ -2278,13 +2278,13 @@
         <v>1771500</v>
       </c>
       <c r="I38">
-        <v>35133208000</v>
+        <v>33619922800</v>
       </c>
       <c r="J38" t="str">
         <v>2023-01-09T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>1975892353000</v>
+        <v>1829903987500</v>
       </c>
       <c r="L38">
         <v>117407600</v>
@@ -2293,13 +2293,13 @@
         <v>608800</v>
       </c>
       <c r="N38">
-        <v>12726716000</v>
+        <v>11833010600</v>
       </c>
       <c r="O38">
         <v>7504500</v>
       </c>
       <c r="P38">
-        <v>110228930000</v>
+        <v>76776915500</v>
       </c>
     </row>
     <row r="39">
@@ -2316,10 +2316,10 @@
         <v>5600</v>
       </c>
       <c r="E39">
-        <v>9090969000</v>
+        <v>7960900200</v>
       </c>
       <c r="F39">
-        <v>34892667000</v>
+        <v>32931530100</v>
       </c>
       <c r="G39">
         <v>189622000</v>
@@ -2328,13 +2328,13 @@
         <v>2155600</v>
       </c>
       <c r="I39">
-        <v>44173258000</v>
+        <v>41082052300</v>
       </c>
       <c r="J39" t="str">
         <v>2023-01-09T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>2020065611000</v>
+        <v>1870986039800</v>
       </c>
       <c r="L39">
         <v>119563200</v>
@@ -2343,13 +2343,13 @@
         <v>1253200</v>
       </c>
       <c r="N39">
-        <v>25801698000</v>
+        <v>24970629900</v>
       </c>
       <c r="O39">
         <v>8757700</v>
       </c>
       <c r="P39">
-        <v>136030628000</v>
+        <v>101747545400</v>
       </c>
     </row>
     <row r="40">
@@ -2366,10 +2366,10 @@
         <v>33700</v>
       </c>
       <c r="E40">
-        <v>13910930000</v>
+        <v>13682159000</v>
       </c>
       <c r="F40">
-        <v>29989653000</v>
+        <v>27157587900</v>
       </c>
       <c r="G40">
         <v>220182000</v>
@@ -2378,13 +2378,13 @@
         <v>2360800</v>
       </c>
       <c r="I40">
-        <v>44120765000</v>
+        <v>41059928900</v>
       </c>
       <c r="J40" t="str">
         <v>2023-01-09T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>2064186376000</v>
+        <v>1912045968700</v>
       </c>
       <c r="L40">
         <v>121924000</v>
@@ -2393,13 +2393,13 @@
         <v>732700</v>
       </c>
       <c r="N40">
-        <v>16078723000</v>
+        <v>13475428900</v>
       </c>
       <c r="O40">
         <v>9490400</v>
       </c>
       <c r="P40">
-        <v>152109351000</v>
+        <v>115222974300</v>
       </c>
     </row>
     <row r="41">
@@ -2416,25 +2416,25 @@
         <v>7100</v>
       </c>
       <c r="E41">
-        <v>17076706000</v>
+        <v>16972410400</v>
       </c>
       <c r="F41">
-        <v>31846132000</v>
+        <v>30566612800</v>
       </c>
       <c r="G41">
-        <v>70399000</v>
+        <v>64704700</v>
       </c>
       <c r="H41">
         <v>2468800</v>
       </c>
       <c r="I41">
-        <v>48993237000</v>
+        <v>47603727900</v>
       </c>
       <c r="J41" t="str">
         <v>2023-01-09T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>2113179613000</v>
+        <v>1959649696600</v>
       </c>
       <c r="L41">
         <v>124392800</v>
@@ -2443,13 +2443,13 @@
         <v>692500</v>
       </c>
       <c r="N41">
-        <v>14769426000</v>
+        <v>13594202400</v>
       </c>
       <c r="O41">
         <v>10182900</v>
       </c>
       <c r="P41">
-        <v>166878777000</v>
+        <v>128817176700</v>
       </c>
     </row>
     <row r="42">
@@ -2466,10 +2466,10 @@
         <v>10600</v>
       </c>
       <c r="E42">
-        <v>21146678000</v>
+        <v>21112512200</v>
       </c>
       <c r="F42">
-        <v>33504562000</v>
+        <v>24648626800</v>
       </c>
       <c r="G42">
         <v>166616000</v>
@@ -2478,13 +2478,13 @@
         <v>2935600</v>
       </c>
       <c r="I42">
-        <v>54817856000</v>
+        <v>45927755000</v>
       </c>
       <c r="J42" t="str">
         <v>2023-01-09T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>2167997469000</v>
+        <v>2005577451600</v>
       </c>
       <c r="L42">
         <v>127328400</v>
@@ -2493,13 +2493,13 @@
         <v>705200</v>
       </c>
       <c r="N42">
-        <v>12357884000</v>
+        <v>3536114600</v>
       </c>
       <c r="O42">
         <v>10888100</v>
       </c>
       <c r="P42">
-        <v>179236661000</v>
+        <v>132353291300</v>
       </c>
     </row>
     <row r="43">
@@ -2516,10 +2516,10 @@
         <v>100</v>
       </c>
       <c r="E43">
-        <v>16566619000</v>
+        <v>15301285600</v>
       </c>
       <c r="F43">
-        <v>32450046000</v>
+        <v>17964046500</v>
       </c>
       <c r="G43">
         <v>8530000</v>
@@ -2528,13 +2528,13 @@
         <v>2636400</v>
       </c>
       <c r="I43">
-        <v>49025195000</v>
+        <v>33273862100</v>
       </c>
       <c r="J43" t="str">
         <v>2023-01-09T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>2217022664000</v>
+        <v>2038851313700</v>
       </c>
       <c r="L43">
         <v>129964800</v>
@@ -2543,13 +2543,13 @@
         <v>737300</v>
       </c>
       <c r="N43">
-        <v>15883427000</v>
+        <v>2662760900</v>
       </c>
       <c r="O43">
         <v>11625400</v>
       </c>
       <c r="P43">
-        <v>195120088000</v>
+        <v>135016052200</v>
       </c>
     </row>
     <row r="44">
@@ -2566,10 +2566,10 @@
         <v>8600</v>
       </c>
       <c r="E44">
-        <v>24856155000</v>
+        <v>24398413200</v>
       </c>
       <c r="F44">
-        <v>19748390000</v>
+        <v>17732408000</v>
       </c>
       <c r="G44">
         <v>131162000</v>
@@ -2578,13 +2578,13 @@
         <v>2549400</v>
       </c>
       <c r="I44">
-        <v>44735707000</v>
+        <v>42261983200</v>
       </c>
       <c r="J44" t="str">
         <v>2023-01-09T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>2261758371000</v>
+        <v>2081113296900</v>
       </c>
       <c r="L44">
         <v>132514200</v>
@@ -2593,13 +2593,13 @@
         <v>-403200</v>
       </c>
       <c r="N44">
-        <v>-5107765000</v>
+        <v>-6666005200</v>
       </c>
       <c r="O44">
         <v>11222200</v>
       </c>
       <c r="P44">
-        <v>190012323000</v>
+        <v>128350047000</v>
       </c>
     </row>
     <row r="45">
@@ -2616,10 +2616,10 @@
         <v>28200</v>
       </c>
       <c r="E45">
-        <v>31364595000</v>
+        <v>30411249300</v>
       </c>
       <c r="F45">
-        <v>12461448000</v>
+        <v>11857053000</v>
       </c>
       <c r="G45">
         <v>474166000</v>
@@ -2628,13 +2628,13 @@
         <v>2483700</v>
       </c>
       <c r="I45">
-        <v>44300209000</v>
+        <v>42742468300</v>
       </c>
       <c r="J45" t="str">
         <v>2023-01-09T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>2306058580000</v>
+        <v>2123855765200</v>
       </c>
       <c r="L45">
         <v>134997900</v>
@@ -2643,13 +2643,13 @@
         <v>-933900</v>
       </c>
       <c r="N45">
-        <v>-18903147000</v>
+        <v>-18554196300</v>
       </c>
       <c r="O45">
         <v>10288300</v>
       </c>
       <c r="P45">
-        <v>171109176000</v>
+        <v>109795850700</v>
       </c>
     </row>
     <row r="46">
@@ -2666,10 +2666,10 @@
         <v>4100</v>
       </c>
       <c r="E46">
-        <v>29742690000</v>
+        <v>28122012300</v>
       </c>
       <c r="F46">
-        <v>15317789000</v>
+        <v>13302406400</v>
       </c>
       <c r="G46">
         <v>173729000</v>
@@ -2678,13 +2678,13 @@
         <v>2108100</v>
       </c>
       <c r="I46">
-        <v>45234208000</v>
+        <v>41598147700</v>
       </c>
       <c r="J46" t="str">
         <v>2023-01-09T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>2351292788000</v>
+        <v>2165453912900</v>
       </c>
       <c r="L46">
         <v>137106000</v>
@@ -2693,13 +2693,13 @@
         <v>-555800</v>
       </c>
       <c r="N46">
-        <v>-14424901000</v>
+        <v>-14819605900</v>
       </c>
       <c r="O46">
         <v>9732500</v>
       </c>
       <c r="P46">
-        <v>156684275000</v>
+        <v>94976244800</v>
       </c>
     </row>
     <row r="47">
@@ -2716,10 +2716,10 @@
         <v>38600</v>
       </c>
       <c r="E47">
-        <v>24299834000</v>
+        <v>22823312000</v>
       </c>
       <c r="F47">
-        <v>10455122000</v>
+        <v>10049827700</v>
       </c>
       <c r="G47">
         <v>331943000</v>
@@ -2728,13 +2728,13 @@
         <v>1841900</v>
       </c>
       <c r="I47">
-        <v>35086899000</v>
+        <v>33205082700</v>
       </c>
       <c r="J47" t="str">
         <v>2023-01-09T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>2386379687000</v>
+        <v>2198658995600</v>
       </c>
       <c r="L47">
         <v>138947900</v>
@@ -2743,13 +2743,13 @@
         <v>-758700</v>
       </c>
       <c r="N47">
-        <v>-13844712000</v>
+        <v>-12773484300</v>
       </c>
       <c r="O47">
         <v>8973800</v>
       </c>
       <c r="P47">
-        <v>142839563000</v>
+        <v>82202760500</v>
       </c>
     </row>
     <row r="48">
@@ -2766,10 +2766,10 @@
         <v>51500</v>
       </c>
       <c r="E48">
-        <v>22974761000</v>
+        <v>20903534300</v>
       </c>
       <c r="F48">
-        <v>11927409000</v>
+        <v>11242194900</v>
       </c>
       <c r="G48">
         <v>950193000</v>
@@ -2778,13 +2778,13 @@
         <v>1919100</v>
       </c>
       <c r="I48">
-        <v>35852363000</v>
+        <v>33095922200</v>
       </c>
       <c r="J48" t="str">
         <v>2023-01-09T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>2422232050000</v>
+        <v>2231754917800</v>
       </c>
       <c r="L48">
         <v>140867000</v>
@@ -2793,13 +2793,13 @@
         <v>-692800</v>
       </c>
       <c r="N48">
-        <v>-11047352000</v>
+        <v>-9661339400</v>
       </c>
       <c r="O48">
         <v>8281000</v>
       </c>
       <c r="P48">
-        <v>131792211000</v>
+        <v>72541421100</v>
       </c>
     </row>
     <row r="49">
@@ -2816,10 +2816,10 @@
         <v>20400</v>
       </c>
       <c r="E49">
-        <v>17247465000</v>
+        <v>14174740800</v>
       </c>
       <c r="F49">
-        <v>12246735000</v>
+        <v>10833549600</v>
       </c>
       <c r="G49">
         <v>171194000</v>
@@ -2828,13 +2828,13 @@
         <v>1777200</v>
       </c>
       <c r="I49">
-        <v>29665394000</v>
+        <v>25179484400</v>
       </c>
       <c r="J49" t="str">
         <v>2023-01-09T10:48:00.000Z</v>
       </c>
       <c r="K49">
-        <v>2451897444000</v>
+        <v>2256934402200</v>
       </c>
       <c r="L49">
         <v>142644200</v>
@@ -2843,13 +2843,13 @@
         <v>-464000</v>
       </c>
       <c r="N49">
-        <v>-5000730000</v>
+        <v>-3341191200</v>
       </c>
       <c r="O49">
         <v>7817000</v>
       </c>
       <c r="P49">
-        <v>126791481000</v>
+        <v>69200229900</v>
       </c>
     </row>
     <row r="50">
@@ -2866,10 +2866,10 @@
         <v>800</v>
       </c>
       <c r="E50">
-        <v>19465596000</v>
+        <v>17693769600</v>
       </c>
       <c r="F50">
-        <v>11697110000</v>
+        <v>10338569900</v>
       </c>
       <c r="G50">
         <v>18160000</v>
@@ -2878,13 +2878,13 @@
         <v>1585700</v>
       </c>
       <c r="I50">
-        <v>31180866000</v>
+        <v>28050499500</v>
       </c>
       <c r="J50" t="str">
         <v>2023-01-09T10:50:00.000Z</v>
       </c>
       <c r="K50">
-        <v>2483078310000</v>
+        <v>2284984901700</v>
       </c>
       <c r="L50">
         <v>144229900</v>
@@ -2893,13 +2893,13 @@
         <v>-652900</v>
       </c>
       <c r="N50">
-        <v>-7768486000</v>
+        <v>-7355199700</v>
       </c>
       <c r="O50">
         <v>7164100</v>
       </c>
       <c r="P50">
-        <v>119022995000</v>
+        <v>61845030200</v>
       </c>
     </row>
     <row r="51">
@@ -2916,10 +2916,10 @@
         <v>6000</v>
       </c>
       <c r="E51">
-        <v>14255318000</v>
+        <v>13749724100</v>
       </c>
       <c r="F51">
-        <v>21940839000</v>
+        <v>20057624100</v>
       </c>
       <c r="G51">
         <v>202870000</v>
@@ -2928,13 +2928,13 @@
         <v>1826700</v>
       </c>
       <c r="I51">
-        <v>36399027000</v>
+        <v>34010218200</v>
       </c>
       <c r="J51" t="str">
         <v>2023-01-09T10:52:00.000Z</v>
       </c>
       <c r="K51">
-        <v>2519477337000</v>
+        <v>2318995119900</v>
       </c>
       <c r="L51">
         <v>146056600</v>
@@ -2943,13 +2943,13 @@
         <v>23700</v>
       </c>
       <c r="N51">
-        <v>7685521000</v>
+        <v>6307900000</v>
       </c>
       <c r="O51">
         <v>7187800</v>
       </c>
       <c r="P51">
-        <v>126708516000</v>
+        <v>68152930200</v>
       </c>
     </row>
     <row r="52">
@@ -2966,10 +2966,10 @@
         <v>1000</v>
       </c>
       <c r="E52">
-        <v>13652404000</v>
+        <v>12972284800</v>
       </c>
       <c r="F52">
-        <v>22796313000</v>
+        <v>19440572100</v>
       </c>
       <c r="G52">
         <v>8849000</v>
@@ -2978,13 +2978,13 @@
         <v>2006700</v>
       </c>
       <c r="I52">
-        <v>36457566000</v>
+        <v>32421705900</v>
       </c>
       <c r="J52" t="str">
         <v>2023-01-09T10:54:00.000Z</v>
       </c>
       <c r="K52">
-        <v>2555934903000</v>
+        <v>2351416825800</v>
       </c>
       <c r="L52">
         <v>148063300</v>
@@ -2993,13 +2993,13 @@
         <v>273700</v>
       </c>
       <c r="N52">
-        <v>9143909000</v>
+        <v>6468287300</v>
       </c>
       <c r="O52">
         <v>7461500</v>
       </c>
       <c r="P52">
-        <v>135852425000</v>
+        <v>74621217500</v>
       </c>
     </row>
     <row r="53">
@@ -3016,10 +3016,10 @@
         <v>14400</v>
       </c>
       <c r="E53">
-        <v>12798932000</v>
+        <v>11940791000</v>
       </c>
       <c r="F53">
-        <v>20514167000</v>
+        <v>17963720000</v>
       </c>
       <c r="G53">
         <v>228208000</v>
@@ -3028,13 +3028,13 @@
         <v>1853600</v>
       </c>
       <c r="I53">
-        <v>33541307000</v>
+        <v>30132719000</v>
       </c>
       <c r="J53" t="str">
         <v>2023-01-09T10:56:00.000Z</v>
       </c>
       <c r="K53">
-        <v>2589476210000</v>
+        <v>2381549544800</v>
       </c>
       <c r="L53">
         <v>149916900</v>
@@ -3043,13 +3043,13 @@
         <v>194000</v>
       </c>
       <c r="N53">
-        <v>7715235000</v>
+        <v>6022929000</v>
       </c>
       <c r="O53">
         <v>7655500</v>
       </c>
       <c r="P53">
-        <v>143567660000</v>
+        <v>80644146500</v>
       </c>
     </row>
     <row r="54">
@@ -3066,10 +3066,10 @@
         <v>21100</v>
       </c>
       <c r="E54">
-        <v>14476076000</v>
+        <v>13010243300</v>
       </c>
       <c r="F54">
-        <v>17402006000</v>
+        <v>16686422300</v>
       </c>
       <c r="G54">
         <v>295218000</v>
@@ -3078,13 +3078,13 @@
         <v>1604500</v>
       </c>
       <c r="I54">
-        <v>32173300000</v>
+        <v>29991883600</v>
       </c>
       <c r="J54" t="str">
         <v>2023-01-09T10:58:00.000Z</v>
       </c>
       <c r="K54">
-        <v>2621649510000</v>
+        <v>2411541428400</v>
       </c>
       <c r="L54">
         <v>151521400</v>
@@ -3093,13 +3093,13 @@
         <v>-49800</v>
       </c>
       <c r="N54">
-        <v>2925930000</v>
+        <v>3676179000</v>
       </c>
       <c r="O54">
         <v>7605700</v>
       </c>
       <c r="P54">
-        <v>146493590000</v>
+        <v>84320325500</v>
       </c>
     </row>
     <row r="55">
@@ -3116,10 +3116,10 @@
         <v>6800</v>
       </c>
       <c r="E55">
-        <v>17357509000</v>
+        <v>16769697400</v>
       </c>
       <c r="F55">
-        <v>23640067000</v>
+        <v>22284523900</v>
       </c>
       <c r="G55">
         <v>134016000</v>
@@ -3128,13 +3128,13 @@
         <v>2028100</v>
       </c>
       <c r="I55">
-        <v>41131592000</v>
+        <v>39188237300</v>
       </c>
       <c r="J55" t="str">
         <v>2023-01-09T11:00:00.000Z</v>
       </c>
       <c r="K55">
-        <v>2662781102000</v>
+        <v>2450729665700</v>
       </c>
       <c r="L55">
         <v>153549500</v>
@@ -3143,13 +3143,13 @@
         <v>106300</v>
       </c>
       <c r="N55">
-        <v>6282558000</v>
+        <v>5514826500</v>
       </c>
       <c r="O55">
         <v>7712000</v>
       </c>
       <c r="P55">
-        <v>152776148000</v>
+        <v>89835152000</v>
       </c>
     </row>
     <row r="56">
@@ -3166,10 +3166,10 @@
         <v>1400</v>
       </c>
       <c r="E56">
-        <v>19999524000</v>
+        <v>18207417900</v>
       </c>
       <c r="F56">
-        <v>12326675000</v>
+        <v>10816386800</v>
       </c>
       <c r="G56">
         <v>18529000</v>
@@ -3178,13 +3178,13 @@
         <v>1562300</v>
       </c>
       <c r="I56">
-        <v>32344728000</v>
+        <v>29042333700</v>
       </c>
       <c r="J56" t="str">
         <v>2023-01-09T11:02:00.000Z</v>
       </c>
       <c r="K56">
-        <v>2695125830000</v>
+        <v>2479771999400</v>
       </c>
       <c r="L56">
         <v>155111800</v>
@@ -3193,13 +3193,13 @@
         <v>-380900</v>
       </c>
       <c r="N56">
-        <v>-7672849000</v>
+        <v>-7391031100</v>
       </c>
       <c r="O56">
         <v>7331100</v>
       </c>
       <c r="P56">
-        <v>145103299000</v>
+        <v>82444120900</v>
       </c>
     </row>
     <row r="57">
@@ -3216,10 +3216,10 @@
         <v>34600</v>
       </c>
       <c r="E57">
-        <v>20341683000</v>
+        <v>19919705400</v>
       </c>
       <c r="F57">
-        <v>16431950000</v>
+        <v>15190792400</v>
       </c>
       <c r="G57">
         <v>421063000</v>
@@ -3228,13 +3228,13 @@
         <v>2293500</v>
       </c>
       <c r="I57">
-        <v>37194696000</v>
+        <v>35531560800</v>
       </c>
       <c r="J57" t="str">
         <v>2023-01-09T11:04:00.000Z</v>
       </c>
       <c r="K57">
-        <v>2732320526000</v>
+        <v>2515303560200</v>
       </c>
       <c r="L57">
         <v>157405300</v>
@@ -3243,13 +3243,13 @@
         <v>-437700</v>
       </c>
       <c r="N57">
-        <v>-3909733000</v>
+        <v>-4728913000</v>
       </c>
       <c r="O57">
         <v>6893400</v>
       </c>
       <c r="P57">
-        <v>141193566000</v>
+        <v>77715207900</v>
       </c>
     </row>
     <row r="58">
@@ -3266,25 +3266,25 @@
         <v>5200</v>
       </c>
       <c r="E58">
-        <v>13148931000</v>
+        <v>12997182900</v>
       </c>
       <c r="F58">
-        <v>16869945000</v>
+        <v>15408507900</v>
       </c>
       <c r="G58">
-        <v>144760000</v>
+        <v>106997800</v>
       </c>
       <c r="H58">
         <v>1423600</v>
       </c>
       <c r="I58">
-        <v>30163636000</v>
+        <v>28512688600</v>
       </c>
       <c r="J58" t="str">
         <v>2023-01-09T11:06:00.000Z</v>
       </c>
       <c r="K58">
-        <v>2762484162000</v>
+        <v>2543816248800</v>
       </c>
       <c r="L58">
         <v>158828900</v>
@@ -3293,13 +3293,13 @@
         <v>-1600</v>
       </c>
       <c r="N58">
-        <v>3721014000</v>
+        <v>2411325000</v>
       </c>
       <c r="O58">
         <v>6891800</v>
       </c>
       <c r="P58">
-        <v>144914580000</v>
+        <v>80126532900</v>
       </c>
     </row>
     <row r="59">
@@ -3316,25 +3316,25 @@
         <v>2500</v>
       </c>
       <c r="E59">
-        <v>15422082000</v>
+        <v>15379724400</v>
       </c>
       <c r="F59">
-        <v>11067518000</v>
+        <v>10026859700</v>
       </c>
       <c r="G59">
-        <v>57855000</v>
+        <v>36876000</v>
       </c>
       <c r="H59">
         <v>1425300</v>
       </c>
       <c r="I59">
-        <v>26547455000</v>
+        <v>25443460100</v>
       </c>
       <c r="J59" t="str">
         <v>2023-01-09T11:08:00.000Z</v>
       </c>
       <c r="K59">
-        <v>2789031617000</v>
+        <v>2569259708900</v>
       </c>
       <c r="L59">
         <v>160254200</v>
@@ -3343,13 +3343,13 @@
         <v>-444200</v>
       </c>
       <c r="N59">
-        <v>-4354564000</v>
+        <v>-5352864700</v>
       </c>
       <c r="O59">
         <v>6447600</v>
       </c>
       <c r="P59">
-        <v>140560016000</v>
+        <v>74773668200</v>
       </c>
     </row>
     <row r="60">
@@ -3366,10 +3366,10 @@
         <v>2000</v>
       </c>
       <c r="E60">
-        <v>9348482000</v>
+        <v>9283547000</v>
       </c>
       <c r="F60">
-        <v>17641076000</v>
+        <v>16092026600</v>
       </c>
       <c r="G60">
         <v>151754000</v>
@@ -3378,13 +3378,13 @@
         <v>1221800</v>
       </c>
       <c r="I60">
-        <v>27141312000</v>
+        <v>25527327600</v>
       </c>
       <c r="J60" t="str">
         <v>2023-01-09T11:10:00.000Z</v>
       </c>
       <c r="K60">
-        <v>2816172929000</v>
+        <v>2594787036500</v>
       </c>
       <c r="L60">
         <v>161476000</v>
@@ -3393,13 +3393,13 @@
         <v>165400</v>
       </c>
       <c r="N60">
-        <v>8292594000</v>
+        <v>6808479600</v>
       </c>
       <c r="O60">
         <v>6613000</v>
       </c>
       <c r="P60">
-        <v>148852610000</v>
+        <v>81582147800</v>
       </c>
     </row>
     <row r="61">
@@ -3416,10 +3416,10 @@
         <v>8500</v>
       </c>
       <c r="E61">
-        <v>12816778000</v>
+        <v>12746748100</v>
       </c>
       <c r="F61">
-        <v>27654837000</v>
+        <v>24093002400</v>
       </c>
       <c r="G61">
         <v>75110000</v>
@@ -3428,13 +3428,13 @@
         <v>1918000</v>
       </c>
       <c r="I61">
-        <v>40546725000</v>
+        <v>36914860500</v>
       </c>
       <c r="J61" t="str">
         <v>2023-01-09T11:12:00.000Z</v>
       </c>
       <c r="K61">
-        <v>2856719654000</v>
+        <v>2631701897000</v>
       </c>
       <c r="L61">
         <v>163394000</v>
@@ -3443,13 +3443,13 @@
         <v>417500</v>
       </c>
       <c r="N61">
-        <v>14838059000</v>
+        <v>11346254300</v>
       </c>
       <c r="O61">
         <v>7030500</v>
       </c>
       <c r="P61">
-        <v>163690669000</v>
+        <v>92928402100</v>
       </c>
     </row>
     <row r="62">
@@ -3466,25 +3466,25 @@
         <v>8300</v>
       </c>
       <c r="E62">
-        <v>15399997000</v>
+        <v>14883514000</v>
       </c>
       <c r="F62">
-        <v>9681986000</v>
+        <v>9341526800</v>
       </c>
       <c r="G62">
-        <v>262275000</v>
+        <v>160876500</v>
       </c>
       <c r="H62">
         <v>1471100</v>
       </c>
       <c r="I62">
-        <v>25344258000</v>
+        <v>24385917300</v>
       </c>
       <c r="J62" t="str">
         <v>2023-01-09T11:14:00.000Z</v>
       </c>
       <c r="K62">
-        <v>2882063912000</v>
+        <v>2656087814300</v>
       </c>
       <c r="L62">
         <v>164865100</v>
@@ -3493,13 +3493,13 @@
         <v>-439000</v>
       </c>
       <c r="N62">
-        <v>-5718011000</v>
+        <v>-5541987200</v>
       </c>
       <c r="O62">
         <v>6591500</v>
       </c>
       <c r="P62">
-        <v>157972658000</v>
+        <v>87386414900</v>
       </c>
     </row>
     <row r="63">
@@ -3516,10 +3516,10 @@
         <v>3600</v>
       </c>
       <c r="E63">
-        <v>23635143000</v>
+        <v>17821362600</v>
       </c>
       <c r="F63">
-        <v>8028826000</v>
+        <v>7885669300</v>
       </c>
       <c r="G63">
         <v>26400000</v>
@@ -3528,13 +3528,13 @@
         <v>1551200</v>
       </c>
       <c r="I63">
-        <v>31690369000</v>
+        <v>25733431900</v>
       </c>
       <c r="J63" t="str">
         <v>2023-01-09T11:16:00.000Z</v>
       </c>
       <c r="K63">
-        <v>2913754281000</v>
+        <v>2681821246200</v>
       </c>
       <c r="L63">
         <v>166416300</v>
@@ -3543,13 +3543,13 @@
         <v>-759200</v>
       </c>
       <c r="N63">
-        <v>-15606317000</v>
+        <v>-9935693300</v>
       </c>
       <c r="O63">
         <v>5832300</v>
       </c>
       <c r="P63">
-        <v>142366341000</v>
+        <v>77450721600</v>
       </c>
     </row>
     <row r="64">
@@ -3566,10 +3566,10 @@
         <v>7900</v>
       </c>
       <c r="E64">
-        <v>16923205000</v>
+        <v>16129299700</v>
       </c>
       <c r="F64">
-        <v>6979723000</v>
+        <v>6783119800</v>
       </c>
       <c r="G64">
         <v>207069000</v>
@@ -3578,13 +3578,13 @@
         <v>1351200</v>
       </c>
       <c r="I64">
-        <v>24109997000</v>
+        <v>23119488500</v>
       </c>
       <c r="J64" t="str">
         <v>2023-01-09T11:18:00.000Z</v>
       </c>
       <c r="K64">
-        <v>2937864278000</v>
+        <v>2704940734700</v>
       </c>
       <c r="L64">
         <v>167767500</v>
@@ -3593,13 +3593,13 @@
         <v>-579900</v>
       </c>
       <c r="N64">
-        <v>-9943482000</v>
+        <v>-9346179900</v>
       </c>
       <c r="O64">
         <v>5252400</v>
       </c>
       <c r="P64">
-        <v>132422859000</v>
+        <v>68104541700</v>
       </c>
     </row>
     <row r="65">
@@ -3616,10 +3616,10 @@
         <v>9800</v>
       </c>
       <c r="E65">
-        <v>14231737000</v>
+        <v>11688682600</v>
       </c>
       <c r="F65">
-        <v>11460160000</v>
+        <v>11153666800</v>
       </c>
       <c r="G65">
         <v>251779000</v>
@@ -3628,13 +3628,13 @@
         <v>1316900</v>
       </c>
       <c r="I65">
-        <v>25943676000</v>
+        <v>23094128400</v>
       </c>
       <c r="J65" t="str">
         <v>2023-01-09T11:20:00.000Z</v>
       </c>
       <c r="K65">
-        <v>2963807954000</v>
+        <v>2728034863100</v>
       </c>
       <c r="L65">
         <v>169084400</v>
@@ -3643,13 +3643,13 @@
         <v>-240300</v>
       </c>
       <c r="N65">
-        <v>-2771577000</v>
+        <v>-535015800</v>
       </c>
       <c r="O65">
         <v>5012100</v>
       </c>
       <c r="P65">
-        <v>129651282000</v>
+        <v>67569525900</v>
       </c>
     </row>
     <row r="66">
@@ -3666,10 +3666,10 @@
         <v>5000</v>
       </c>
       <c r="E66">
-        <v>22720533000</v>
+        <v>19555001700</v>
       </c>
       <c r="F66">
-        <v>11207660000</v>
+        <v>10291976600</v>
       </c>
       <c r="G66">
         <v>157229000</v>
@@ -3678,13 +3678,13 @@
         <v>1888400</v>
       </c>
       <c r="I66">
-        <v>34085422000</v>
+        <v>30004207300</v>
       </c>
       <c r="J66" t="str">
         <v>2023-01-09T11:22:00.000Z</v>
       </c>
       <c r="K66">
-        <v>2997893376000</v>
+        <v>2758039070400</v>
       </c>
       <c r="L66">
         <v>170972800</v>
@@ -3693,13 +3693,13 @@
         <v>-831200</v>
       </c>
       <c r="N66">
-        <v>-11512873000</v>
+        <v>-9263025100</v>
       </c>
       <c r="O66">
         <v>4180900</v>
       </c>
       <c r="P66">
-        <v>118138409000</v>
+        <v>58306500800</v>
       </c>
     </row>
     <row r="67">
@@ -3716,10 +3716,10 @@
         <v>26600</v>
       </c>
       <c r="E67">
-        <v>21732268000</v>
+        <v>21162038800</v>
       </c>
       <c r="F67">
-        <v>13317196000</v>
+        <v>12000014500</v>
       </c>
       <c r="G67">
         <v>412823000</v>
@@ -3728,13 +3728,13 @@
         <v>1927500</v>
       </c>
       <c r="I67">
-        <v>35462287000</v>
+        <v>33574876300</v>
       </c>
       <c r="J67" t="str">
         <v>2023-01-09T11:24:00.000Z</v>
       </c>
       <c r="K67">
-        <v>3033355663000</v>
+        <v>2791613946700</v>
       </c>
       <c r="L67">
         <v>172900300</v>
@@ -3743,13 +3743,13 @@
         <v>-590100</v>
       </c>
       <c r="N67">
-        <v>-8415072000</v>
+        <v>-9162024300</v>
       </c>
       <c r="O67">
         <v>3590800</v>
       </c>
       <c r="P67">
-        <v>109723337000</v>
+        <v>49144476500</v>
       </c>
     </row>
     <row r="68">
@@ -3766,10 +3766,10 @@
         <v>6600</v>
       </c>
       <c r="E68">
-        <v>34139824000</v>
+        <v>31816349800</v>
       </c>
       <c r="F68">
-        <v>11947286000</v>
+        <v>11304729200</v>
       </c>
       <c r="G68">
         <v>92435000</v>
@@ -3778,13 +3778,13 @@
         <v>2451300</v>
       </c>
       <c r="I68">
-        <v>46179545000</v>
+        <v>43213514000</v>
       </c>
       <c r="J68" t="str">
         <v>2023-01-09T11:26:00.000Z</v>
       </c>
       <c r="K68">
-        <v>3079535208000</v>
+        <v>2834827460700</v>
       </c>
       <c r="L68">
         <v>175351600</v>
@@ -3793,13 +3793,13 @@
         <v>-1143500</v>
       </c>
       <c r="N68">
-        <v>-22192538000</v>
+        <v>-20511620600</v>
       </c>
       <c r="O68">
         <v>2447300</v>
       </c>
       <c r="P68">
-        <v>87530799000</v>
+        <v>28632855900</v>
       </c>
     </row>
     <row r="69">
@@ -3816,25 +3816,25 @@
         <v>6000</v>
       </c>
       <c r="E69">
-        <v>30203871000</v>
+        <v>28812563700</v>
       </c>
       <c r="F69">
-        <v>11890813000</v>
+        <v>10746658300</v>
       </c>
       <c r="G69">
-        <v>111119000</v>
+        <v>90639500</v>
       </c>
       <c r="H69">
         <v>2090200</v>
       </c>
       <c r="I69">
-        <v>42205803000</v>
+        <v>39649861500</v>
       </c>
       <c r="J69" t="str">
         <v>2023-01-09T11:28:00.000Z</v>
       </c>
       <c r="K69">
-        <v>3121741011000</v>
+        <v>2874477322200</v>
       </c>
       <c r="L69">
         <v>177441800</v>
@@ -3843,13 +3843,13 @@
         <v>-853400</v>
       </c>
       <c r="N69">
-        <v>-18313058000</v>
+        <v>-18065905400</v>
       </c>
       <c r="O69">
         <v>1593900</v>
       </c>
       <c r="P69">
-        <v>69217741000</v>
+        <v>10566950500</v>
       </c>
     </row>
     <row r="70">
@@ -3884,7 +3884,7 @@
         <v>2023-01-09T11:30:00.000Z</v>
       </c>
       <c r="K70">
-        <v>3122006284000</v>
+        <v>2874742595200</v>
       </c>
       <c r="L70">
         <v>177459000</v>
@@ -3899,7 +3899,7 @@
         <v>1576900</v>
       </c>
       <c r="P70">
-        <v>68955458000</v>
+        <v>10304667500</v>
       </c>
     </row>
     <row r="71">
@@ -3916,25 +3916,25 @@
         <v>155400</v>
       </c>
       <c r="E71">
-        <v>69937804000</v>
+        <v>57864489400</v>
       </c>
       <c r="F71">
-        <v>52996273000</v>
+        <v>48289484500</v>
       </c>
       <c r="G71">
-        <v>4969929000</v>
+        <v>2540960400</v>
       </c>
       <c r="H71">
         <v>6894700</v>
       </c>
       <c r="I71">
-        <v>127904006000</v>
+        <v>108694934300</v>
       </c>
       <c r="J71" t="str">
         <v>2023-01-09T13:00:00.000Z</v>
       </c>
       <c r="K71">
-        <v>3249910290000</v>
+        <v>2983437529500</v>
       </c>
       <c r="L71">
         <v>184353700</v>
@@ -3943,13 +3943,13 @@
         <v>-974900</v>
       </c>
       <c r="N71">
-        <v>-16941531000</v>
+        <v>-9575004900</v>
       </c>
       <c r="O71">
         <v>602000</v>
       </c>
       <c r="P71">
-        <v>52013927000</v>
+        <v>729662600</v>
       </c>
     </row>
     <row r="72">
@@ -3966,10 +3966,10 @@
         <v>11400</v>
       </c>
       <c r="E72">
-        <v>31537077000</v>
+        <v>30377537700</v>
       </c>
       <c r="F72">
-        <v>21416007000</v>
+        <v>20223001200</v>
       </c>
       <c r="G72">
         <v>270351000</v>
@@ -3978,13 +3978,13 @@
         <v>3136900</v>
       </c>
       <c r="I72">
-        <v>53223435000</v>
+        <v>50870889900</v>
       </c>
       <c r="J72" t="str">
         <v>2023-01-09T13:02:00.000Z</v>
       </c>
       <c r="K72">
-        <v>3303133725000</v>
+        <v>3034308419400</v>
       </c>
       <c r="L72">
         <v>187490600</v>
@@ -3993,13 +3993,13 @@
         <v>-952500</v>
       </c>
       <c r="N72">
-        <v>-10121070000</v>
+        <v>-10154536500</v>
       </c>
       <c r="O72">
         <v>-350500</v>
       </c>
       <c r="P72">
-        <v>41892857000</v>
+        <v>-9424873900</v>
       </c>
     </row>
     <row r="73">
@@ -4016,10 +4016,10 @@
         <v>21000</v>
       </c>
       <c r="E73">
-        <v>27515923000</v>
+        <v>25971968500</v>
       </c>
       <c r="F73">
-        <v>16515274000</v>
+        <v>15969420400</v>
       </c>
       <c r="G73">
         <v>210674000</v>
@@ -4028,13 +4028,13 @@
         <v>2385900</v>
       </c>
       <c r="I73">
-        <v>44241871000</v>
+        <v>42152062900</v>
       </c>
       <c r="J73" t="str">
         <v>2023-01-09T13:04:00.000Z</v>
       </c>
       <c r="K73">
-        <v>3347375596000</v>
+        <v>3076460482300</v>
       </c>
       <c r="L73">
         <v>189876500</v>
@@ -4043,13 +4043,13 @@
         <v>-650900</v>
       </c>
       <c r="N73">
-        <v>-11000649000</v>
+        <v>-10002548100</v>
       </c>
       <c r="O73">
         <v>-1001400</v>
       </c>
       <c r="P73">
-        <v>30892208000</v>
+        <v>-19427422000</v>
       </c>
     </row>
     <row r="74">
@@ -4066,10 +4066,10 @@
         <v>26200</v>
       </c>
       <c r="E74">
-        <v>32403407000</v>
+        <v>31428383000</v>
       </c>
       <c r="F74">
-        <v>21553462000</v>
+        <v>21231784000</v>
       </c>
       <c r="G74">
         <v>650412000</v>
@@ -4078,13 +4078,13 @@
         <v>2834900</v>
       </c>
       <c r="I74">
-        <v>54607281000</v>
+        <v>53310579000</v>
       </c>
       <c r="J74" t="str">
         <v>2023-01-09T13:06:00.000Z</v>
       </c>
       <c r="K74">
-        <v>3401982877000</v>
+        <v>3129771061300</v>
       </c>
       <c r="L74">
         <v>192711400</v>
@@ -4093,13 +4093,13 @@
         <v>-889900</v>
       </c>
       <c r="N74">
-        <v>-10849945000</v>
+        <v>-10196599000</v>
       </c>
       <c r="O74">
         <v>-1891300</v>
       </c>
       <c r="P74">
-        <v>20042263000</v>
+        <v>-29624021000</v>
       </c>
     </row>
     <row r="75">
@@ -4116,10 +4116,10 @@
         <v>2500</v>
       </c>
       <c r="E75">
-        <v>36346792000</v>
+        <v>34137103900</v>
       </c>
       <c r="F75">
-        <v>13270390000</v>
+        <v>12856903900</v>
       </c>
       <c r="G75">
         <v>34767000</v>
@@ -4128,13 +4128,13 @@
         <v>2679200</v>
       </c>
       <c r="I75">
-        <v>49651949000</v>
+        <v>47028774800</v>
       </c>
       <c r="J75" t="str">
         <v>2023-01-09T13:08:00.000Z</v>
       </c>
       <c r="K75">
-        <v>3451634826000</v>
+        <v>3176799836100</v>
       </c>
       <c r="L75">
         <v>195390600</v>
@@ -4143,13 +4143,13 @@
         <v>-1134300</v>
       </c>
       <c r="N75">
-        <v>-23076402000</v>
+        <v>-21280200000</v>
       </c>
       <c r="O75">
         <v>-3025600</v>
       </c>
       <c r="P75">
-        <v>-3034139000</v>
+        <v>-50904221000</v>
       </c>
     </row>
     <row r="76">
@@ -4166,10 +4166,10 @@
         <v>11300</v>
       </c>
       <c r="E76">
-        <v>35392888000</v>
+        <v>34403578300</v>
       </c>
       <c r="F76">
-        <v>14231733000</v>
+        <v>13804360800</v>
       </c>
       <c r="G76">
         <v>224114000</v>
@@ -4178,13 +4178,13 @@
         <v>2780100</v>
       </c>
       <c r="I76">
-        <v>49848735000</v>
+        <v>48432053100</v>
       </c>
       <c r="J76" t="str">
         <v>2023-01-09T13:10:00.000Z</v>
       </c>
       <c r="K76">
-        <v>3501483561000</v>
+        <v>3225231889200</v>
       </c>
       <c r="L76">
         <v>198170700</v>
@@ -4193,13 +4193,13 @@
         <v>-1167400</v>
       </c>
       <c r="N76">
-        <v>-21161155000</v>
+        <v>-20599217500</v>
       </c>
       <c r="O76">
         <v>-4193000</v>
       </c>
       <c r="P76">
-        <v>-24195294000</v>
+        <v>-71503438500</v>
       </c>
     </row>
     <row r="77">
@@ -4216,10 +4216,10 @@
         <v>21800</v>
       </c>
       <c r="E77">
-        <v>31465307000</v>
+        <v>28245829700</v>
       </c>
       <c r="F77">
-        <v>14698147000</v>
+        <v>14256389200</v>
       </c>
       <c r="G77">
         <v>356567000</v>
@@ -4228,13 +4228,13 @@
         <v>2787800</v>
       </c>
       <c r="I77">
-        <v>46520021000</v>
+        <v>42858785900</v>
       </c>
       <c r="J77" t="str">
         <v>2023-01-09T13:12:00.000Z</v>
       </c>
       <c r="K77">
-        <v>3548003582000</v>
+        <v>3268090675100</v>
       </c>
       <c r="L77">
         <v>200958500</v>
@@ -4243,13 +4243,13 @@
         <v>-1183600</v>
       </c>
       <c r="N77">
-        <v>-16767160000</v>
+        <v>-13989440500</v>
       </c>
       <c r="O77">
         <v>-5376600</v>
       </c>
       <c r="P77">
-        <v>-40962454000</v>
+        <v>-85492879000</v>
       </c>
     </row>
     <row r="78">
@@ -4266,25 +4266,25 @@
         <v>20800</v>
       </c>
       <c r="E78">
-        <v>22031305000</v>
+        <v>18084355900</v>
       </c>
       <c r="F78">
-        <v>21223476000</v>
+        <v>20121279300</v>
       </c>
       <c r="G78">
-        <v>462290000</v>
+        <v>455496800</v>
       </c>
       <c r="H78">
         <v>2481600</v>
       </c>
       <c r="I78">
-        <v>43717071000</v>
+        <v>38661132000</v>
       </c>
       <c r="J78" t="str">
         <v>2023-01-09T13:14:00.000Z</v>
       </c>
       <c r="K78">
-        <v>3591720653000</v>
+        <v>3306751807100</v>
       </c>
       <c r="L78">
         <v>203440100</v>
@@ -4293,13 +4293,13 @@
         <v>-86600</v>
       </c>
       <c r="N78">
-        <v>-807829000</v>
+        <v>2036923400</v>
       </c>
       <c r="O78">
         <v>-5463200</v>
       </c>
       <c r="P78">
-        <v>-41770283000</v>
+        <v>-83455955600</v>
       </c>
     </row>
     <row r="79">
@@ -4316,10 +4316,10 @@
         <v>6000</v>
       </c>
       <c r="E79">
-        <v>30331740000</v>
+        <v>24167510400</v>
       </c>
       <c r="F79">
-        <v>37434611000</v>
+        <v>35393953700</v>
       </c>
       <c r="G79">
         <v>133399000</v>
@@ -4328,13 +4328,13 @@
         <v>3658700</v>
       </c>
       <c r="I79">
-        <v>67899750000</v>
+        <v>59694863100</v>
       </c>
       <c r="J79" t="str">
         <v>2023-01-09T13:16:00.000Z</v>
       </c>
       <c r="K79">
-        <v>3659620403000</v>
+        <v>3366446670200</v>
       </c>
       <c r="L79">
         <v>207098800</v>
@@ -4343,13 +4343,13 @@
         <v>124900</v>
       </c>
       <c r="N79">
-        <v>7102871000</v>
+        <v>11226443300</v>
       </c>
       <c r="O79">
         <v>-5338300</v>
       </c>
       <c r="P79">
-        <v>-34667412000</v>
+        <v>-72229512300</v>
       </c>
     </row>
     <row r="80">
@@ -4366,10 +4366,10 @@
         <v>42000</v>
       </c>
       <c r="E80">
-        <v>20381138000</v>
+        <v>19030589900</v>
       </c>
       <c r="F80">
-        <v>32345463000</v>
+        <v>29871239700</v>
       </c>
       <c r="G80">
         <v>522015000</v>
@@ -4378,13 +4378,13 @@
         <v>3054300</v>
       </c>
       <c r="I80">
-        <v>53248616000</v>
+        <v>49423844600</v>
       </c>
       <c r="J80" t="str">
         <v>2023-01-09T13:18:00.000Z</v>
       </c>
       <c r="K80">
-        <v>3712869019000</v>
+        <v>3415870514800</v>
       </c>
       <c r="L80">
         <v>210153100</v>
@@ -4393,13 +4393,13 @@
         <v>215900</v>
       </c>
       <c r="N80">
-        <v>11964325000</v>
+        <v>10840649800</v>
       </c>
       <c r="O80">
         <v>-5122400</v>
       </c>
       <c r="P80">
-        <v>-22703087000</v>
+        <v>-61388862500</v>
       </c>
     </row>
     <row r="81">
@@ -4416,25 +4416,25 @@
         <v>12400</v>
       </c>
       <c r="E81">
-        <v>18446650000</v>
+        <v>17741256100</v>
       </c>
       <c r="F81">
-        <v>26224790000</v>
+        <v>25772043200</v>
       </c>
       <c r="G81">
-        <v>233198000</v>
+        <v>228802400</v>
       </c>
       <c r="H81">
         <v>2447300</v>
       </c>
       <c r="I81">
-        <v>44904638000</v>
+        <v>43742101700</v>
       </c>
       <c r="J81" t="str">
         <v>2023-01-09T13:20:00.000Z</v>
       </c>
       <c r="K81">
-        <v>3757773657000</v>
+        <v>3459612616500</v>
       </c>
       <c r="L81">
         <v>212600400</v>
@@ -4443,13 +4443,13 @@
         <v>383300</v>
       </c>
       <c r="N81">
-        <v>7778140000</v>
+        <v>8030787100</v>
       </c>
       <c r="O81">
         <v>-4739100</v>
       </c>
       <c r="P81">
-        <v>-14924947000</v>
+        <v>-53358075400</v>
       </c>
     </row>
     <row r="82">
@@ -4466,10 +4466,10 @@
         <v>20100</v>
       </c>
       <c r="E82">
-        <v>18433423000</v>
+        <v>17887769200</v>
       </c>
       <c r="F82">
-        <v>34458893000</v>
+        <v>32761691900</v>
       </c>
       <c r="G82">
         <v>486559000</v>
@@ -4478,13 +4478,13 @@
         <v>3027900</v>
       </c>
       <c r="I82">
-        <v>53378875000</v>
+        <v>51136020100</v>
       </c>
       <c r="J82" t="str">
         <v>2023-01-09T13:22:00.000Z</v>
       </c>
       <c r="K82">
-        <v>3811152532000</v>
+        <v>3510748636600</v>
       </c>
       <c r="L82">
         <v>215628300</v>
@@ -4493,13 +4493,13 @@
         <v>826400</v>
       </c>
       <c r="N82">
-        <v>16025470000</v>
+        <v>14873922700</v>
       </c>
       <c r="O82">
         <v>-3912700</v>
       </c>
       <c r="P82">
-        <v>1100523000</v>
+        <v>-38484152700</v>
       </c>
     </row>
     <row r="83">
@@ -4516,25 +4516,25 @@
         <v>75800</v>
       </c>
       <c r="E83">
-        <v>22052417000</v>
+        <v>19943627900</v>
       </c>
       <c r="F83">
-        <v>26035790000</v>
+        <v>21585245000</v>
       </c>
       <c r="G83">
-        <v>1043288000</v>
+        <v>1007324000</v>
       </c>
       <c r="H83">
         <v>2723200</v>
       </c>
       <c r="I83">
-        <v>49131495000</v>
+        <v>42536196900</v>
       </c>
       <c r="J83" t="str">
         <v>2023-01-09T13:24:00.000Z</v>
       </c>
       <c r="K83">
-        <v>3860284027000</v>
+        <v>3553284833500</v>
       </c>
       <c r="L83">
         <v>218351500</v>
@@ -4543,13 +4543,13 @@
         <v>136000</v>
       </c>
       <c r="N83">
-        <v>3983373000</v>
+        <v>1641617100</v>
       </c>
       <c r="O83">
         <v>-3776700</v>
       </c>
       <c r="P83">
-        <v>5083896000</v>
+        <v>-36842535600</v>
       </c>
     </row>
     <row r="84">
@@ -4566,25 +4566,25 @@
         <v>14600</v>
       </c>
       <c r="E84">
-        <v>26774057000</v>
+        <v>24497236100</v>
       </c>
       <c r="F84">
-        <v>25239728000</v>
+        <v>24389179400</v>
       </c>
       <c r="G84">
-        <v>285925000</v>
+        <v>264546400</v>
       </c>
       <c r="H84">
         <v>2737500</v>
       </c>
       <c r="I84">
-        <v>52299710000</v>
+        <v>49150961900</v>
       </c>
       <c r="J84" t="str">
         <v>2023-01-09T13:26:00.000Z</v>
       </c>
       <c r="K84">
-        <v>3912583737000</v>
+        <v>3602435795400</v>
       </c>
       <c r="L84">
         <v>221089000</v>
@@ -4593,13 +4593,13 @@
         <v>-311900</v>
       </c>
       <c r="N84">
-        <v>-1534329000</v>
+        <v>-108056700</v>
       </c>
       <c r="O84">
         <v>-4088600</v>
       </c>
       <c r="P84">
-        <v>3549567000</v>
+        <v>-36950592300</v>
       </c>
     </row>
     <row r="85">
@@ -4616,25 +4616,25 @@
         <v>42200</v>
       </c>
       <c r="E85">
-        <v>35406575000</v>
+        <v>33215967800</v>
       </c>
       <c r="F85">
-        <v>20893439000</v>
+        <v>20005827500</v>
       </c>
       <c r="G85">
-        <v>860800000</v>
+        <v>842818000</v>
       </c>
       <c r="H85">
         <v>3455400</v>
       </c>
       <c r="I85">
-        <v>57160814000</v>
+        <v>54064613300</v>
       </c>
       <c r="J85" t="str">
         <v>2023-01-09T13:28:00.000Z</v>
       </c>
       <c r="K85">
-        <v>3969744551000</v>
+        <v>3656500408700</v>
       </c>
       <c r="L85">
         <v>224544400</v>
@@ -4643,13 +4643,13 @@
         <v>-1131400</v>
       </c>
       <c r="N85">
-        <v>-14513136000</v>
+        <v>-13210140300</v>
       </c>
       <c r="O85">
         <v>-5220000</v>
       </c>
       <c r="P85">
-        <v>-10963569000</v>
+        <v>-50160732600</v>
       </c>
     </row>
     <row r="86">
@@ -4666,10 +4666,10 @@
         <v>25600</v>
       </c>
       <c r="E86">
-        <v>49642973000</v>
+        <v>42072750800</v>
       </c>
       <c r="F86">
-        <v>16543656000</v>
+        <v>15079221900</v>
       </c>
       <c r="G86">
         <v>524829000</v>
@@ -4678,13 +4678,13 @@
         <v>3701400</v>
       </c>
       <c r="I86">
-        <v>66711458000</v>
+        <v>57676801700</v>
       </c>
       <c r="J86" t="str">
         <v>2023-01-09T13:30:00.000Z</v>
       </c>
       <c r="K86">
-        <v>4036456009000</v>
+        <v>3714177210400</v>
       </c>
       <c r="L86">
         <v>228245800</v>
@@ -4693,13 +4693,13 @@
         <v>-1810200</v>
       </c>
       <c r="N86">
-        <v>-33099317000</v>
+        <v>-26993528900</v>
       </c>
       <c r="O86">
         <v>-7030200</v>
       </c>
       <c r="P86">
-        <v>-44062886000</v>
+        <v>-77154261500</v>
       </c>
     </row>
     <row r="87">
@@ -4716,25 +4716,25 @@
         <v>41000</v>
       </c>
       <c r="E87">
-        <v>44229335000</v>
+        <v>40888179500</v>
       </c>
       <c r="F87">
-        <v>33403708000</v>
+        <v>29623192300</v>
       </c>
       <c r="G87">
-        <v>601634000</v>
+        <v>587648000</v>
       </c>
       <c r="H87">
         <v>4753000</v>
       </c>
       <c r="I87">
-        <v>78234677000</v>
+        <v>71099019800</v>
       </c>
       <c r="J87" t="str">
         <v>2023-01-09T13:32:00.000Z</v>
       </c>
       <c r="K87">
-        <v>4114690686000</v>
+        <v>3785276230200</v>
       </c>
       <c r="L87">
         <v>232998800</v>
@@ -4743,13 +4743,13 @@
         <v>-1340800</v>
       </c>
       <c r="N87">
-        <v>-10825627000</v>
+        <v>-11264987200</v>
       </c>
       <c r="O87">
         <v>-8371000</v>
       </c>
       <c r="P87">
-        <v>-54888513000</v>
+        <v>-88419248700</v>
       </c>
     </row>
     <row r="88">
@@ -4766,25 +4766,25 @@
         <v>22600</v>
       </c>
       <c r="E88">
-        <v>25849837000</v>
+        <v>24505682500</v>
       </c>
       <c r="F88">
-        <v>20793565000</v>
+        <v>19156303900</v>
       </c>
       <c r="G88">
-        <v>439095000</v>
+        <v>381752400</v>
       </c>
       <c r="H88">
         <v>2744100</v>
       </c>
       <c r="I88">
-        <v>47082497000</v>
+        <v>44043738800</v>
       </c>
       <c r="J88" t="str">
         <v>2023-01-09T13:34:00.000Z</v>
       </c>
       <c r="K88">
-        <v>4161773183000</v>
+        <v>3829319969000</v>
       </c>
       <c r="L88">
         <v>235742900</v>
@@ -4793,13 +4793,13 @@
         <v>-551500</v>
       </c>
       <c r="N88">
-        <v>-5056272000</v>
+        <v>-5349378600</v>
       </c>
       <c r="O88">
         <v>-8922500</v>
       </c>
       <c r="P88">
-        <v>-59944785000</v>
+        <v>-93768627300</v>
       </c>
     </row>
     <row r="89">
@@ -4816,25 +4816,25 @@
         <v>16500</v>
       </c>
       <c r="E89">
-        <v>51176252000</v>
+        <v>45997336100</v>
       </c>
       <c r="F89">
-        <v>18955347000</v>
+        <v>17799504000</v>
       </c>
       <c r="G89">
-        <v>327565000</v>
+        <v>175617100</v>
       </c>
       <c r="H89">
         <v>4330400</v>
       </c>
       <c r="I89">
-        <v>70459164000</v>
+        <v>63972457200</v>
       </c>
       <c r="J89" t="str">
         <v>2023-01-09T13:36:00.000Z</v>
       </c>
       <c r="K89">
-        <v>4232232347000</v>
+        <v>3893292426200</v>
       </c>
       <c r="L89">
         <v>240073300</v>
@@ -4843,13 +4843,13 @@
         <v>-2319100</v>
       </c>
       <c r="N89">
-        <v>-32220905000</v>
+        <v>-28197832100</v>
       </c>
       <c r="O89">
         <v>-11241600</v>
       </c>
       <c r="P89">
-        <v>-92165690000</v>
+        <v>-121966459400</v>
       </c>
     </row>
     <row r="90">
@@ -4866,10 +4866,10 @@
         <v>18100</v>
       </c>
       <c r="E90">
-        <v>35726050000</v>
+        <v>28357026400</v>
       </c>
       <c r="F90">
-        <v>17802747000</v>
+        <v>14071881600</v>
       </c>
       <c r="G90">
         <v>231875000</v>
@@ -4878,13 +4878,13 @@
         <v>2997300</v>
       </c>
       <c r="I90">
-        <v>53760672000</v>
+        <v>42660783000</v>
       </c>
       <c r="J90" t="str">
         <v>2023-01-09T13:38:00.000Z</v>
       </c>
       <c r="K90">
-        <v>4285993019000</v>
+        <v>3935953209200</v>
       </c>
       <c r="L90">
         <v>243070600</v>
@@ -4893,13 +4893,13 @@
         <v>-1003800</v>
       </c>
       <c r="N90">
-        <v>-17923303000</v>
+        <v>-14285144800</v>
       </c>
       <c r="O90">
         <v>-12245400</v>
       </c>
       <c r="P90">
-        <v>-110088993000</v>
+        <v>-136251604200</v>
       </c>
     </row>
     <row r="91">
@@ -4916,10 +4916,10 @@
         <v>11500</v>
       </c>
       <c r="E91">
-        <v>44727500000</v>
+        <v>34072066100</v>
       </c>
       <c r="F91">
-        <v>25620927000</v>
+        <v>20097256200</v>
       </c>
       <c r="G91">
         <v>336837000</v>
@@ -4928,13 +4928,13 @@
         <v>3843800</v>
       </c>
       <c r="I91">
-        <v>70685264000</v>
+        <v>54506159300</v>
       </c>
       <c r="J91" t="str">
         <v>2023-01-09T13:40:00.000Z</v>
       </c>
       <c r="K91">
-        <v>4356678283000</v>
+        <v>3990459368500</v>
       </c>
       <c r="L91">
         <v>246914400</v>
@@ -4943,13 +4943,13 @@
         <v>-1369700</v>
       </c>
       <c r="N91">
-        <v>-19106573000</v>
+        <v>-13974809900</v>
       </c>
       <c r="O91">
         <v>-13615100</v>
       </c>
       <c r="P91">
-        <v>-129195566000</v>
+        <v>-150226414100</v>
       </c>
     </row>
     <row r="92">
@@ -4966,25 +4966,25 @@
         <v>10700</v>
       </c>
       <c r="E92">
-        <v>28775208000</v>
+        <v>20908282800</v>
       </c>
       <c r="F92">
-        <v>22477782000</v>
+        <v>18585278400</v>
       </c>
       <c r="G92">
-        <v>198756000</v>
+        <v>187067700</v>
       </c>
       <c r="H92">
         <v>3016900</v>
       </c>
       <c r="I92">
-        <v>51451746000</v>
+        <v>39680628900</v>
       </c>
       <c r="J92" t="str">
         <v>2023-01-09T13:42:00.000Z</v>
       </c>
       <c r="K92">
-        <v>4408130029000</v>
+        <v>4030139997400</v>
       </c>
       <c r="L92">
         <v>249931300</v>
@@ -4993,13 +4993,13 @@
         <v>-472800</v>
       </c>
       <c r="N92">
-        <v>-6297426000</v>
+        <v>-2323004400</v>
       </c>
       <c r="O92">
         <v>-14087900</v>
       </c>
       <c r="P92">
-        <v>-135492992000</v>
+        <v>-152549418500</v>
       </c>
     </row>
     <row r="93">
@@ -5016,10 +5016,10 @@
         <v>80400</v>
       </c>
       <c r="E93">
-        <v>48988504000</v>
+        <v>35544061900</v>
       </c>
       <c r="F93">
-        <v>15706501000</v>
+        <v>13833475900</v>
       </c>
       <c r="G93">
         <v>645173000</v>
@@ -5028,13 +5028,13 @@
         <v>3895900</v>
       </c>
       <c r="I93">
-        <v>65340178000</v>
+        <v>50022710800</v>
       </c>
       <c r="J93" t="str">
         <v>2023-01-09T13:44:00.000Z</v>
       </c>
       <c r="K93">
-        <v>4473470207000</v>
+        <v>4080162708200</v>
       </c>
       <c r="L93">
         <v>253827200</v>
@@ -5043,13 +5043,13 @@
         <v>-1975700</v>
       </c>
       <c r="N93">
-        <v>-33282003000</v>
+        <v>-21710586000</v>
       </c>
       <c r="O93">
         <v>-16063600</v>
       </c>
       <c r="P93">
-        <v>-168774995000</v>
+        <v>-174260004500</v>
       </c>
     </row>
     <row r="94">
@@ -5066,10 +5066,10 @@
         <v>26000</v>
       </c>
       <c r="E94">
-        <v>66030534000</v>
+        <v>60986183400</v>
       </c>
       <c r="F94">
-        <v>20578068000</v>
+        <v>16358092200</v>
       </c>
       <c r="G94">
         <v>299561000</v>
@@ -5078,13 +5078,13 @@
         <v>4899300</v>
       </c>
       <c r="I94">
-        <v>86908163000</v>
+        <v>77643836600</v>
       </c>
       <c r="J94" t="str">
         <v>2023-01-09T13:46:00.000Z</v>
       </c>
       <c r="K94">
-        <v>4560378370000</v>
+        <v>4157806544800</v>
       </c>
       <c r="L94">
         <v>258726500</v>
@@ -5093,13 +5093,13 @@
         <v>-2535300</v>
       </c>
       <c r="N94">
-        <v>-45452466000</v>
+        <v>-44628091200</v>
       </c>
       <c r="O94">
         <v>-18598900</v>
       </c>
       <c r="P94">
-        <v>-214227461000</v>
+        <v>-218888095700</v>
       </c>
     </row>
     <row r="95">
@@ -5116,25 +5116,25 @@
         <v>26200</v>
       </c>
       <c r="E95">
-        <v>43066237000</v>
+        <v>40377728200</v>
       </c>
       <c r="F95">
-        <v>32793033000</v>
+        <v>31447979400</v>
       </c>
       <c r="G95">
-        <v>369415000</v>
+        <v>331053400</v>
       </c>
       <c r="H95">
         <v>4413500</v>
       </c>
       <c r="I95">
-        <v>76228685000</v>
+        <v>72156761000</v>
       </c>
       <c r="J95" t="str">
         <v>2023-01-09T13:48:00.000Z</v>
       </c>
       <c r="K95">
-        <v>4636607055000</v>
+        <v>4229963305800</v>
       </c>
       <c r="L95">
         <v>263140000</v>
@@ -5143,13 +5143,13 @@
         <v>-930500</v>
       </c>
       <c r="N95">
-        <v>-10273204000</v>
+        <v>-8929748800</v>
       </c>
       <c r="O95">
         <v>-19529400</v>
       </c>
       <c r="P95">
-        <v>-224500665000</v>
+        <v>-227817844500</v>
       </c>
     </row>
     <row r="96">
@@ -5166,10 +5166,10 @@
         <v>1800</v>
       </c>
       <c r="E96">
-        <v>14237144000</v>
+        <v>13305876200</v>
       </c>
       <c r="F96">
-        <v>38783113000</v>
+        <v>31463240200</v>
       </c>
       <c r="G96">
         <v>40881000</v>
@@ -5178,13 +5178,13 @@
         <v>3094300</v>
       </c>
       <c r="I96">
-        <v>53061138000</v>
+        <v>44809997400</v>
       </c>
       <c r="J96" t="str">
         <v>2023-01-09T13:50:00.000Z</v>
       </c>
       <c r="K96">
-        <v>4689668193000</v>
+        <v>4274773303200</v>
       </c>
       <c r="L96">
         <v>266234300</v>
@@ -5193,13 +5193,13 @@
         <v>1373300</v>
       </c>
       <c r="N96">
-        <v>24545969000</v>
+        <v>18157364000</v>
       </c>
       <c r="O96">
         <v>-18156100</v>
       </c>
       <c r="P96">
-        <v>-199954696000</v>
+        <v>-209660480500</v>
       </c>
     </row>
     <row r="97">
@@ -5216,10 +5216,10 @@
         <v>24900</v>
       </c>
       <c r="E97">
-        <v>18591859000</v>
+        <v>18002648800</v>
       </c>
       <c r="F97">
-        <v>41179786000</v>
+        <v>39038929000</v>
       </c>
       <c r="G97">
         <v>218875000</v>
@@ -5228,13 +5228,13 @@
         <v>3564600</v>
       </c>
       <c r="I97">
-        <v>59990520000</v>
+        <v>57260452800</v>
       </c>
       <c r="J97" t="str">
         <v>2023-01-09T13:52:00.000Z</v>
       </c>
       <c r="K97">
-        <v>4749658713000</v>
+        <v>4332033756000</v>
       </c>
       <c r="L97">
         <v>269798900</v>
@@ -5243,13 +5243,13 @@
         <v>1313700</v>
       </c>
       <c r="N97">
-        <v>22587927000</v>
+        <v>21036280200</v>
       </c>
       <c r="O97">
         <v>-16842400</v>
       </c>
       <c r="P97">
-        <v>-177366769000</v>
+        <v>-188624200300</v>
       </c>
     </row>
     <row r="98">
@@ -5266,25 +5266,25 @@
         <v>5200</v>
       </c>
       <c r="E98">
-        <v>14194320000</v>
+        <v>11431185900</v>
       </c>
       <c r="F98">
-        <v>39817005000</v>
+        <v>33452076300</v>
       </c>
       <c r="G98">
-        <v>72404000</v>
+        <v>40535900</v>
       </c>
       <c r="H98">
         <v>2918800</v>
       </c>
       <c r="I98">
-        <v>54083729000</v>
+        <v>44923798100</v>
       </c>
       <c r="J98" t="str">
         <v>2023-01-09T13:54:00.000Z</v>
       </c>
       <c r="K98">
-        <v>4803742442000</v>
+        <v>4376957554100</v>
       </c>
       <c r="L98">
         <v>272717700</v>
@@ -5293,13 +5293,13 @@
         <v>1493400</v>
       </c>
       <c r="N98">
-        <v>25622685000</v>
+        <v>22020890400</v>
       </c>
       <c r="O98">
         <v>-15349000</v>
       </c>
       <c r="P98">
-        <v>-151744084000</v>
+        <v>-166603309900</v>
       </c>
     </row>
     <row r="99">
@@ -5316,10 +5316,10 @@
         <v>16700</v>
       </c>
       <c r="E99">
-        <v>19010568000</v>
+        <v>17087193300</v>
       </c>
       <c r="F99">
-        <v>43530591000</v>
+        <v>35394834900</v>
       </c>
       <c r="G99">
         <v>406380000</v>
@@ -5328,13 +5328,13 @@
         <v>3280400</v>
       </c>
       <c r="I99">
-        <v>62947539000</v>
+        <v>52888408200</v>
       </c>
       <c r="J99" t="str">
         <v>2023-01-09T13:56:00.000Z</v>
       </c>
       <c r="K99">
-        <v>4866689981000</v>
+        <v>4429845962300</v>
       </c>
       <c r="L99">
         <v>275998100</v>
@@ -5343,13 +5343,13 @@
         <v>1370300</v>
       </c>
       <c r="N99">
-        <v>24520023000</v>
+        <v>18307641600</v>
       </c>
       <c r="O99">
         <v>-13978700</v>
       </c>
       <c r="P99">
-        <v>-127224061000</v>
+        <v>-148295668300</v>
       </c>
     </row>
     <row r="100">
@@ -5366,25 +5366,25 @@
         <v>33000</v>
       </c>
       <c r="E100">
-        <v>46820528000</v>
+        <v>37709148500</v>
       </c>
       <c r="F100">
-        <v>12696120000</v>
+        <v>11348369100</v>
       </c>
       <c r="G100">
-        <v>968951000</v>
+        <v>854165900</v>
       </c>
       <c r="H100">
         <v>2954000</v>
       </c>
       <c r="I100">
-        <v>60485599000</v>
+        <v>49911683500</v>
       </c>
       <c r="J100" t="str">
         <v>2023-01-09T13:58:00.000Z</v>
       </c>
       <c r="K100">
-        <v>4927175580000</v>
+        <v>4479757645800</v>
       </c>
       <c r="L100">
         <v>278952100</v>
@@ -5393,13 +5393,13 @@
         <v>-1384400</v>
       </c>
       <c r="N100">
-        <v>-34124408000</v>
+        <v>-26360779400</v>
       </c>
       <c r="O100">
         <v>-15363100</v>
       </c>
       <c r="P100">
-        <v>-161348469000</v>
+        <v>-174656447700</v>
       </c>
     </row>
     <row r="101">
@@ -5416,25 +5416,25 @@
         <v>26600</v>
       </c>
       <c r="E101">
-        <v>29829471000</v>
+        <v>25131873300</v>
       </c>
       <c r="F101">
-        <v>15614011000</v>
+        <v>12755272600</v>
       </c>
       <c r="G101">
-        <v>391740000</v>
+        <v>355476300</v>
       </c>
       <c r="H101">
         <v>2521200</v>
       </c>
       <c r="I101">
-        <v>45835222000</v>
+        <v>38242622200</v>
       </c>
       <c r="J101" t="str">
         <v>2023-01-09T14:00:00.000Z</v>
       </c>
       <c r="K101">
-        <v>4973010802000</v>
+        <v>4518000268000</v>
       </c>
       <c r="L101">
         <v>281473300</v>
@@ -5443,13 +5443,13 @@
         <v>-863400</v>
       </c>
       <c r="N101">
-        <v>-14215460000</v>
+        <v>-12376600700</v>
       </c>
       <c r="O101">
         <v>-16226500</v>
       </c>
       <c r="P101">
-        <v>-175563929000</v>
+        <v>-187033048400</v>
       </c>
     </row>
     <row r="102">
@@ -5466,10 +5466,10 @@
         <v>28000</v>
       </c>
       <c r="E102">
-        <v>11117948000</v>
+        <v>10322044700</v>
       </c>
       <c r="F102">
-        <v>16040005000</v>
+        <v>15285959800</v>
       </c>
       <c r="G102">
         <v>382412000</v>
@@ -5478,13 +5478,13 @@
         <v>1496500</v>
       </c>
       <c r="I102">
-        <v>27540365000</v>
+        <v>25990416500</v>
       </c>
       <c r="J102" t="str">
         <v>2023-01-09T14:02:00.000Z</v>
       </c>
       <c r="K102">
-        <v>5000551167000</v>
+        <v>4543990684500</v>
       </c>
       <c r="L102">
         <v>282969800</v>
@@ -5493,13 +5493,13 @@
         <v>325100</v>
       </c>
       <c r="N102">
-        <v>4922057000</v>
+        <v>4963915100</v>
       </c>
       <c r="O102">
         <v>-15901400</v>
       </c>
       <c r="P102">
-        <v>-170641872000</v>
+        <v>-182069133300</v>
       </c>
     </row>
     <row r="103">
@@ -5516,10 +5516,10 @@
         <v>7800</v>
       </c>
       <c r="E103">
-        <v>15631539000</v>
+        <v>15128942100</v>
       </c>
       <c r="F103">
-        <v>19545730000</v>
+        <v>18269407600</v>
       </c>
       <c r="G103">
         <v>139468000</v>
@@ -5528,13 +5528,13 @@
         <v>2051900</v>
       </c>
       <c r="I103">
-        <v>35316737000</v>
+        <v>33537817700</v>
       </c>
       <c r="J103" t="str">
         <v>2023-01-09T14:04:00.000Z</v>
       </c>
       <c r="K103">
-        <v>5035867904000</v>
+        <v>4577528502200</v>
       </c>
       <c r="L103">
         <v>285021700</v>
@@ -5543,13 +5543,13 @@
         <v>181100</v>
       </c>
       <c r="N103">
-        <v>3914191000</v>
+        <v>3140465500</v>
       </c>
       <c r="O103">
         <v>-15720300</v>
       </c>
       <c r="P103">
-        <v>-166727681000</v>
+        <v>-178928667800</v>
       </c>
     </row>
     <row r="104">
@@ -5566,10 +5566,10 @@
         <v>14000</v>
       </c>
       <c r="E104">
-        <v>31444652000</v>
+        <v>23581922600</v>
       </c>
       <c r="F104">
-        <v>43887290000</v>
+        <v>37762620800</v>
       </c>
       <c r="G104">
         <v>168266000</v>
@@ -5578,13 +5578,13 @@
         <v>3781300</v>
       </c>
       <c r="I104">
-        <v>75500208000</v>
+        <v>61512809400</v>
       </c>
       <c r="J104" t="str">
         <v>2023-01-09T14:06:00.000Z</v>
       </c>
       <c r="K104">
-        <v>5111368112000</v>
+        <v>4639041311600</v>
       </c>
       <c r="L104">
         <v>288803000</v>
@@ -5593,13 +5593,13 @@
         <v>499300</v>
       </c>
       <c r="N104">
-        <v>12442638000</v>
+        <v>14180698200</v>
       </c>
       <c r="O104">
         <v>-15221000</v>
       </c>
       <c r="P104">
-        <v>-154285043000</v>
+        <v>-164747969600</v>
       </c>
     </row>
     <row r="105">
@@ -5616,10 +5616,10 @@
         <v>5600</v>
       </c>
       <c r="E105">
-        <v>19995330000</v>
+        <v>18913213200</v>
       </c>
       <c r="F105">
-        <v>29195982000</v>
+        <v>22316668200</v>
       </c>
       <c r="G105">
         <v>157185000</v>
@@ -5628,13 +5628,13 @@
         <v>2520200</v>
       </c>
       <c r="I105">
-        <v>49348497000</v>
+        <v>41387066400</v>
       </c>
       <c r="J105" t="str">
         <v>2023-01-09T14:08:00.000Z</v>
       </c>
       <c r="K105">
-        <v>5160716609000</v>
+        <v>4680428378000</v>
       </c>
       <c r="L105">
         <v>291323200</v>
@@ -5643,13 +5643,13 @@
         <v>105800</v>
       </c>
       <c r="N105">
-        <v>9200652000</v>
+        <v>3403455000</v>
       </c>
       <c r="O105">
         <v>-15115200</v>
       </c>
       <c r="P105">
-        <v>-145084391000</v>
+        <v>-161344514600</v>
       </c>
     </row>
     <row r="106">
@@ -5666,10 +5666,10 @@
         <v>10700</v>
       </c>
       <c r="E106">
-        <v>28798777000</v>
+        <v>27712664200</v>
       </c>
       <c r="F106">
-        <v>17495088000</v>
+        <v>16976706900</v>
       </c>
       <c r="G106">
         <v>145670000</v>
@@ -5678,13 +5678,13 @@
         <v>2701500</v>
       </c>
       <c r="I106">
-        <v>46439535000</v>
+        <v>44835041100</v>
       </c>
       <c r="J106" t="str">
         <v>2023-01-09T14:10:00.000Z</v>
       </c>
       <c r="K106">
-        <v>5207156144000</v>
+        <v>4725263419100</v>
       </c>
       <c r="L106">
         <v>294024700</v>
@@ -5693,13 +5693,13 @@
         <v>-850800</v>
       </c>
       <c r="N106">
-        <v>-11303689000</v>
+        <v>-10735957300</v>
       </c>
       <c r="O106">
         <v>-15966000</v>
       </c>
       <c r="P106">
-        <v>-156388080000</v>
+        <v>-172080471900</v>
       </c>
     </row>
     <row r="107">
@@ -5716,25 +5716,25 @@
         <v>8100</v>
       </c>
       <c r="E107">
-        <v>64573092000</v>
+        <v>52018059600</v>
       </c>
       <c r="F107">
-        <v>15881727000</v>
+        <v>15024684900</v>
       </c>
       <c r="G107">
-        <v>221690000</v>
+        <v>203708000</v>
       </c>
       <c r="H107">
         <v>4216600</v>
       </c>
       <c r="I107">
-        <v>80676509000</v>
+        <v>67246452500</v>
       </c>
       <c r="J107" t="str">
         <v>2023-01-09T14:12:00.000Z</v>
       </c>
       <c r="K107">
-        <v>5287832653000</v>
+        <v>4792509871600</v>
       </c>
       <c r="L107">
         <v>298241300</v>
@@ -5743,13 +5743,13 @@
         <v>-2598300</v>
       </c>
       <c r="N107">
-        <v>-48691365000</v>
+        <v>-36993374700</v>
       </c>
       <c r="O107">
         <v>-18564300</v>
       </c>
       <c r="P107">
-        <v>-205079445000</v>
+        <v>-209073846600</v>
       </c>
     </row>
     <row r="108">
@@ -5766,25 +5766,25 @@
         <v>10000</v>
       </c>
       <c r="E108">
-        <v>73998668000</v>
+        <v>65021554100</v>
       </c>
       <c r="F108">
-        <v>30137723000</v>
+        <v>28950111800</v>
       </c>
       <c r="G108">
-        <v>265030000</v>
+        <v>106189000</v>
       </c>
       <c r="H108">
         <v>5966200</v>
       </c>
       <c r="I108">
-        <v>104401421000</v>
+        <v>94077854900</v>
       </c>
       <c r="J108" t="str">
         <v>2023-01-09T14:14:00.000Z</v>
       </c>
       <c r="K108">
-        <v>5392234074000</v>
+        <v>4886587726500</v>
       </c>
       <c r="L108">
         <v>304207500</v>
@@ -5793,13 +5793,13 @@
         <v>-2911200</v>
       </c>
       <c r="N108">
-        <v>-43860945000</v>
+        <v>-36071442300</v>
       </c>
       <c r="O108">
         <v>-21475500</v>
       </c>
       <c r="P108">
-        <v>-248940390000</v>
+        <v>-245145288900</v>
       </c>
     </row>
     <row r="109">
@@ -5816,10 +5816,10 @@
         <v>30600</v>
       </c>
       <c r="E109">
-        <v>47415015000</v>
+        <v>43469364600</v>
       </c>
       <c r="F109">
-        <v>45826775000</v>
+        <v>42922182500</v>
       </c>
       <c r="G109">
         <v>439364000</v>
@@ -5828,13 +5828,13 @@
         <v>5335100</v>
       </c>
       <c r="I109">
-        <v>93681154000</v>
+        <v>86830911100</v>
       </c>
       <c r="J109" t="str">
         <v>2023-01-09T14:16:00.000Z</v>
       </c>
       <c r="K109">
-        <v>5485915228000</v>
+        <v>4973418637600</v>
       </c>
       <c r="L109">
         <v>309542600</v>
@@ -5843,13 +5843,13 @@
         <v>-13300</v>
       </c>
       <c r="N109">
-        <v>-1588240000</v>
+        <v>-547182100</v>
       </c>
       <c r="O109">
         <v>-21488800</v>
       </c>
       <c r="P109">
-        <v>-250528630000</v>
+        <v>-245692471000</v>
       </c>
     </row>
     <row r="110">
@@ -5866,25 +5866,25 @@
         <v>32600</v>
       </c>
       <c r="E110">
-        <v>24697907000</v>
+        <v>23107798700</v>
       </c>
       <c r="F110">
-        <v>43654995000</v>
+        <v>40266087300</v>
       </c>
       <c r="G110">
-        <v>591634000</v>
+        <v>573652000</v>
       </c>
       <c r="H110">
         <v>4106200</v>
       </c>
       <c r="I110">
-        <v>68944536000</v>
+        <v>63947538000</v>
       </c>
       <c r="J110" t="str">
         <v>2023-01-09T14:18:00.000Z</v>
       </c>
       <c r="K110">
-        <v>5554859764000</v>
+        <v>5037366175600</v>
       </c>
       <c r="L110">
         <v>313648800</v>
@@ -5893,13 +5893,13 @@
         <v>849600</v>
       </c>
       <c r="N110">
-        <v>18957088000</v>
+        <v>17158288600</v>
       </c>
       <c r="O110">
         <v>-20639200</v>
       </c>
       <c r="P110">
-        <v>-231571542000</v>
+        <v>-228534182400</v>
       </c>
     </row>
     <row r="111">
@@ -5916,25 +5916,25 @@
         <v>40100</v>
       </c>
       <c r="E111">
-        <v>34349288000</v>
+        <v>30999641000</v>
       </c>
       <c r="F111">
-        <v>38110214000</v>
+        <v>34296032000</v>
       </c>
       <c r="G111">
-        <v>684935000</v>
+        <v>648771200</v>
       </c>
       <c r="H111">
         <v>3958000</v>
       </c>
       <c r="I111">
-        <v>73144437000</v>
+        <v>65944444200</v>
       </c>
       <c r="J111" t="str">
         <v>2023-01-09T14:20:00.000Z</v>
       </c>
       <c r="K111">
-        <v>5628004201000</v>
+        <v>5103310619800</v>
       </c>
       <c r="L111">
         <v>317606800</v>
@@ -5943,13 +5943,13 @@
         <v>203500</v>
       </c>
       <c r="N111">
-        <v>3760926000</v>
+        <v>3296391000</v>
       </c>
       <c r="O111">
         <v>-20435700</v>
       </c>
       <c r="P111">
-        <v>-227810616000</v>
+        <v>-225237791400</v>
       </c>
     </row>
     <row r="112">
@@ -5966,10 +5966,10 @@
         <v>132400</v>
       </c>
       <c r="E112">
-        <v>42354568000</v>
+        <v>38880645400</v>
       </c>
       <c r="F112">
-        <v>34593278000</v>
+        <v>29369906600</v>
       </c>
       <c r="G112">
         <v>1201656000</v>
@@ -5978,13 +5978,13 @@
         <v>5043400</v>
       </c>
       <c r="I112">
-        <v>78149502000</v>
+        <v>69452208000</v>
       </c>
       <c r="J112" t="str">
         <v>2023-01-09T14:22:00.000Z</v>
       </c>
       <c r="K112">
-        <v>5706153703000</v>
+        <v>5172762827800</v>
       </c>
       <c r="L112">
         <v>322650200</v>
@@ -5993,13 +5993,13 @@
         <v>-1361200</v>
       </c>
       <c r="N112">
-        <v>-7761290000</v>
+        <v>-9510738800</v>
       </c>
       <c r="O112">
         <v>-21796900</v>
       </c>
       <c r="P112">
-        <v>-235571906000</v>
+        <v>-234748530200</v>
       </c>
     </row>
     <row r="113">
@@ -6016,10 +6016,10 @@
         <v>73700</v>
       </c>
       <c r="E113">
-        <v>50150095000</v>
+        <v>46952296000</v>
       </c>
       <c r="F113">
-        <v>25720526000</v>
+        <v>24151896200</v>
       </c>
       <c r="G113">
         <v>1575892000</v>
@@ -6028,13 +6028,13 @@
         <v>4676600</v>
       </c>
       <c r="I113">
-        <v>77446513000</v>
+        <v>72680084200</v>
       </c>
       <c r="J113" t="str">
         <v>2023-01-09T14:24:00.000Z</v>
       </c>
       <c r="K113">
-        <v>5783600216000</v>
+        <v>5245442912000</v>
       </c>
       <c r="L113">
         <v>327326800</v>
@@ -6043,13 +6043,13 @@
         <v>-1587100</v>
       </c>
       <c r="N113">
-        <v>-24429569000</v>
+        <v>-22800399800</v>
       </c>
       <c r="O113">
         <v>-23384000</v>
       </c>
       <c r="P113">
-        <v>-260001475000</v>
+        <v>-257548930000</v>
       </c>
     </row>
     <row r="114">
@@ -6066,10 +6066,10 @@
         <v>118800</v>
       </c>
       <c r="E114">
-        <v>62186954000</v>
+        <v>58688855600</v>
       </c>
       <c r="F114">
-        <v>21430402000</v>
+        <v>19913520400</v>
       </c>
       <c r="G114">
         <v>1618998000</v>
@@ -6078,13 +6078,13 @@
         <v>5227100</v>
       </c>
       <c r="I114">
-        <v>85236354000</v>
+        <v>80221374000</v>
       </c>
       <c r="J114" t="str">
         <v>2023-01-09T14:26:00.000Z</v>
       </c>
       <c r="K114">
-        <v>5868836570000</v>
+        <v>5325664286000</v>
       </c>
       <c r="L114">
         <v>332553900</v>
@@ -6093,13 +6093,13 @@
         <v>-2425900</v>
       </c>
       <c r="N114">
-        <v>-40756552000</v>
+        <v>-38775335200</v>
       </c>
       <c r="O114">
         <v>-25809900</v>
       </c>
       <c r="P114">
-        <v>-300758027000</v>
+        <v>-296324265200</v>
       </c>
     </row>
     <row r="115">
@@ -6116,25 +6116,25 @@
         <v>122000</v>
       </c>
       <c r="E115">
-        <v>121499229000</v>
+        <v>107188953600</v>
       </c>
       <c r="F115">
-        <v>27357866000</v>
+        <v>26473950800</v>
       </c>
       <c r="G115">
-        <v>2127908000</v>
+        <v>2084151800</v>
       </c>
       <c r="H115">
         <v>9532000</v>
       </c>
       <c r="I115">
-        <v>150985003000</v>
+        <v>135747056200</v>
       </c>
       <c r="J115" t="str">
         <v>2023-01-09T14:28:00.000Z</v>
       </c>
       <c r="K115">
-        <v>6019821573000</v>
+        <v>5461411342200</v>
       </c>
       <c r="L115">
         <v>342085900</v>
@@ -6143,13 +6143,13 @@
         <v>-5934800</v>
       </c>
       <c r="N115">
-        <v>-94141363000</v>
+        <v>-80715002800</v>
       </c>
       <c r="O115">
         <v>-31744700</v>
       </c>
       <c r="P115">
-        <v>-394899390000</v>
+        <v>-377039268000</v>
       </c>
     </row>
     <row r="116">
@@ -6184,7 +6184,7 @@
         <v>2023-01-09T14:30:00.000Z</v>
       </c>
       <c r="K116">
-        <v>6020336760000</v>
+        <v>5461926529200</v>
       </c>
       <c r="L116">
         <v>342112000</v>
@@ -6199,7 +6199,7 @@
         <v>-31766600</v>
       </c>
       <c r="P116">
-        <v>-395343241000</v>
+        <v>-377483119000</v>
       </c>
     </row>
     <row r="117">
@@ -6216,25 +6216,25 @@
         <v>17949100</v>
       </c>
       <c r="E117">
-        <v>31551446000</v>
+        <v>30684413900</v>
       </c>
       <c r="F117">
-        <v>23799809000</v>
+        <v>23195214200</v>
       </c>
       <c r="G117">
-        <v>336832433000</v>
+        <v>293142266900</v>
       </c>
       <c r="H117">
         <v>21640300</v>
       </c>
       <c r="I117">
-        <v>392183688000</v>
+        <v>347021895000</v>
       </c>
       <c r="J117" t="str">
         <v>2023-01-09T14:44:00.000Z</v>
       </c>
       <c r="K117">
-        <v>6412520448000</v>
+        <v>5808948424200</v>
       </c>
       <c r="L117">
         <v>363752300</v>
@@ -6243,13 +6243,13 @@
         <v>-1853600</v>
       </c>
       <c r="N117">
-        <v>-7751637000</v>
+        <v>-7489199700</v>
       </c>
       <c r="O117">
         <v>-33620200</v>
       </c>
       <c r="P117">
-        <v>-403094878000</v>
+        <v>-384972318700</v>
       </c>
     </row>
   </sheetData>

--- a/name/vnindex/20230109/VNINDEX_HOSE_5p_20230109.xlsx
+++ b/name/vnindex/20230109/VNINDEX_HOSE_5p_20230109.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P117"/>
+  <dimension ref="A1:AC117"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +451,45 @@
       <c r="P1" t="str">
         <v>acum_busd_val</v>
       </c>
+      <c r="Q1" t="str">
+        <v>acum_val_bu</v>
+      </c>
+      <c r="R1" t="str">
+        <v>acum_val_sd</v>
+      </c>
+      <c r="S1" t="str">
+        <v>accum_bu</v>
+      </c>
+      <c r="T1" t="str">
+        <v>accum_sd</v>
+      </c>
+      <c r="U1" t="str">
+        <v>avg_val_bu</v>
+      </c>
+      <c r="V1" t="str">
+        <v>avg_val_sd</v>
+      </c>
+      <c r="W1" t="str">
+        <v>avg_val</v>
+      </c>
+      <c r="X1" t="str">
+        <v>avg_vol</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>avg_bu</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>avg_sd</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>avg_busd</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>avg_busd_val</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>rbusd</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -501,6 +540,45 @@
       <c r="P2">
         <v>23692679200</v>
       </c>
+      <c r="Q2">
+        <v>47721130100</v>
+      </c>
+      <c r="R2">
+        <v>24028450900</v>
+      </c>
+      <c r="S2">
+        <v>2776700</v>
+      </c>
+      <c r="T2">
+        <v>1903000</v>
+      </c>
+      <c r="U2">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V2">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W2">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X2">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y2">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z2">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA2">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB2">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC2">
+        <v>7.1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -551,6 +629,45 @@
       <c r="P3">
         <v>45449323600</v>
       </c>
+      <c r="Q3">
+        <v>92869277600</v>
+      </c>
+      <c r="R3">
+        <v>47419954000</v>
+      </c>
+      <c r="S3">
+        <v>5853300</v>
+      </c>
+      <c r="T3">
+        <v>3606100</v>
+      </c>
+      <c r="U3">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V3">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W3">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X3">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y3">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z3">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA3">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB3">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC3">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -601,6 +718,45 @@
       <c r="P4">
         <v>64627083500</v>
       </c>
+      <c r="Q4">
+        <v>138576049000</v>
+      </c>
+      <c r="R4">
+        <v>73948965500</v>
+      </c>
+      <c r="S4">
+        <v>9157800</v>
+      </c>
+      <c r="T4">
+        <v>5436900</v>
+      </c>
+      <c r="U4">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V4">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W4">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X4">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y4">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z4">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA4">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB4">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC4">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -651,6 +807,45 @@
       <c r="P5">
         <v>80947953000</v>
       </c>
+      <c r="Q5">
+        <v>184509715300</v>
+      </c>
+      <c r="R5">
+        <v>103561762300</v>
+      </c>
+      <c r="S5">
+        <v>12855800</v>
+      </c>
+      <c r="T5">
+        <v>7359200</v>
+      </c>
+      <c r="U5">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V5">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W5">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X5">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y5">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z5">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA5">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB5">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC5">
+        <v>4.9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -701,6 +896,45 @@
       <c r="P6">
         <v>82216536700</v>
       </c>
+      <c r="Q6">
+        <v>223091831300</v>
+      </c>
+      <c r="R6">
+        <v>140875294600</v>
+      </c>
+      <c r="S6">
+        <v>15846800</v>
+      </c>
+      <c r="T6">
+        <v>10054700</v>
+      </c>
+      <c r="U6">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V6">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W6">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X6">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y6">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z6">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA6">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB6">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC6">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -751,6 +985,45 @@
       <c r="P7">
         <v>63231255300</v>
       </c>
+      <c r="Q7">
+        <v>247614062700</v>
+      </c>
+      <c r="R7">
+        <v>184382807400</v>
+      </c>
+      <c r="S7">
+        <v>17443400</v>
+      </c>
+      <c r="T7">
+        <v>12783200</v>
+      </c>
+      <c r="U7">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V7">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W7">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X7">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y7">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z7">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA7">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB7">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC7">
+        <v>5.7</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -801,6 +1074,45 @@
       <c r="P8">
         <v>51179789000</v>
       </c>
+      <c r="Q8">
+        <v>266339879100</v>
+      </c>
+      <c r="R8">
+        <v>215160090100</v>
+      </c>
+      <c r="S8">
+        <v>18622100</v>
+      </c>
+      <c r="T8">
+        <v>14821300</v>
+      </c>
+      <c r="U8">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V8">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W8">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X8">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y8">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z8">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA8">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB8">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC8">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -851,6 +1163,45 @@
       <c r="P9">
         <v>51320367300</v>
       </c>
+      <c r="Q9">
+        <v>289719084400</v>
+      </c>
+      <c r="R9">
+        <v>238398717100</v>
+      </c>
+      <c r="S9">
+        <v>20021900</v>
+      </c>
+      <c r="T9">
+        <v>16282200</v>
+      </c>
+      <c r="U9">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V9">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W9">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X9">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y9">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z9">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA9">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB9">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -901,6 +1252,45 @@
       <c r="P10">
         <v>49106865400</v>
       </c>
+      <c r="Q10">
+        <v>309242508400</v>
+      </c>
+      <c r="R10">
+        <v>260135643000</v>
+      </c>
+      <c r="S10">
+        <v>21388800</v>
+      </c>
+      <c r="T10">
+        <v>17578000</v>
+      </c>
+      <c r="U10">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V10">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W10">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X10">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y10">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z10">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA10">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB10">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC10">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -951,6 +1341,45 @@
       <c r="P11">
         <v>46512500000</v>
       </c>
+      <c r="Q11">
+        <v>331321565400</v>
+      </c>
+      <c r="R11">
+        <v>284809065400</v>
+      </c>
+      <c r="S11">
+        <v>22747700</v>
+      </c>
+      <c r="T11">
+        <v>19255500</v>
+      </c>
+      <c r="U11">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V11">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W11">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X11">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y11">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z11">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA11">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB11">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC11">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1001,6 +1430,45 @@
       <c r="P12">
         <v>48640851200</v>
       </c>
+      <c r="Q12">
+        <v>356288584100</v>
+      </c>
+      <c r="R12">
+        <v>307647732900</v>
+      </c>
+      <c r="S12">
+        <v>24256100</v>
+      </c>
+      <c r="T12">
+        <v>20739400</v>
+      </c>
+      <c r="U12">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V12">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W12">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X12">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y12">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z12">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA12">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB12">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC12">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1051,6 +1519,45 @@
       <c r="P13">
         <v>46803302000</v>
       </c>
+      <c r="Q13">
+        <v>374413264100</v>
+      </c>
+      <c r="R13">
+        <v>327609962100</v>
+      </c>
+      <c r="S13">
+        <v>25568400</v>
+      </c>
+      <c r="T13">
+        <v>21964800</v>
+      </c>
+      <c r="U13">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V13">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W13">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X13">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y13">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z13">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA13">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB13">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC13">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1101,6 +1608,45 @@
       <c r="P14">
         <v>34800327800</v>
       </c>
+      <c r="Q14">
+        <v>389281334300</v>
+      </c>
+      <c r="R14">
+        <v>354481006500</v>
+      </c>
+      <c r="S14">
+        <v>26505500</v>
+      </c>
+      <c r="T14">
+        <v>23644500</v>
+      </c>
+      <c r="U14">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V14">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W14">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X14">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y14">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z14">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA14">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB14">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC14">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -1151,6 +1697,45 @@
       <c r="P15">
         <v>23557274600</v>
       </c>
+      <c r="Q15">
+        <v>402611677700</v>
+      </c>
+      <c r="R15">
+        <v>379054403100</v>
+      </c>
+      <c r="S15">
+        <v>27374600</v>
+      </c>
+      <c r="T15">
+        <v>25219500</v>
+      </c>
+      <c r="U15">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V15">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W15">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X15">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y15">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z15">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA15">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB15">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC15">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -1201,6 +1786,45 @@
       <c r="P16">
         <v>14672422900</v>
       </c>
+      <c r="Q16">
+        <v>418699838600</v>
+      </c>
+      <c r="R16">
+        <v>404027415700</v>
+      </c>
+      <c r="S16">
+        <v>28540500</v>
+      </c>
+      <c r="T16">
+        <v>26712200</v>
+      </c>
+      <c r="U16">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V16">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W16">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X16">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y16">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z16">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA16">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB16">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC16">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1251,6 +1875,45 @@
       <c r="P17">
         <v>7811386100</v>
       </c>
+      <c r="Q17">
+        <v>437851619600</v>
+      </c>
+      <c r="R17">
+        <v>430040233500</v>
+      </c>
+      <c r="S17">
+        <v>29902600</v>
+      </c>
+      <c r="T17">
+        <v>28403200</v>
+      </c>
+      <c r="U17">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V17">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W17">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X17">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y17">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z17">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA17">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB17">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC17">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1301,6 +1964,45 @@
       <c r="P18">
         <v>-6019520800</v>
       </c>
+      <c r="Q18">
+        <v>458702776400</v>
+      </c>
+      <c r="R18">
+        <v>464722297200</v>
+      </c>
+      <c r="S18">
+        <v>31175200</v>
+      </c>
+      <c r="T18">
+        <v>30535100</v>
+      </c>
+      <c r="U18">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V18">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W18">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X18">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y18">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z18">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA18">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB18">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC18">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1351,6 +2053,45 @@
       <c r="P19">
         <v>-16955155000</v>
       </c>
+      <c r="Q19">
+        <v>474489878300</v>
+      </c>
+      <c r="R19">
+        <v>491445033300</v>
+      </c>
+      <c r="S19">
+        <v>32189700</v>
+      </c>
+      <c r="T19">
+        <v>32214500</v>
+      </c>
+      <c r="U19">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V19">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W19">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X19">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y19">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z19">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA19">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB19">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC19">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1401,6 +2142,45 @@
       <c r="P20">
         <v>-19115012400</v>
       </c>
+      <c r="Q20">
+        <v>487589752800</v>
+      </c>
+      <c r="R20">
+        <v>506704765200</v>
+      </c>
+      <c r="S20">
+        <v>33196000</v>
+      </c>
+      <c r="T20">
+        <v>33275800</v>
+      </c>
+      <c r="U20">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V20">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W20">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X20">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y20">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z20">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA20">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB20">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC20">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1451,6 +2231,45 @@
       <c r="P21">
         <v>-32139302500</v>
       </c>
+      <c r="Q21">
+        <v>502267122200</v>
+      </c>
+      <c r="R21">
+        <v>534406424700</v>
+      </c>
+      <c r="S21">
+        <v>34731600</v>
+      </c>
+      <c r="T21">
+        <v>35096300</v>
+      </c>
+      <c r="U21">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V21">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W21">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X21">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y21">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z21">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA21">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB21">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC21">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1501,6 +2320,45 @@
       <c r="P22">
         <v>-34506270100</v>
       </c>
+      <c r="Q22">
+        <v>525661674800</v>
+      </c>
+      <c r="R22">
+        <v>560167944900</v>
+      </c>
+      <c r="S22">
+        <v>37877000</v>
+      </c>
+      <c r="T22">
+        <v>36830700</v>
+      </c>
+      <c r="U22">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V22">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W22">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X22">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y22">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z22">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA22">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB22">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC22">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1551,6 +2409,45 @@
       <c r="P23">
         <v>-32587247200</v>
       </c>
+      <c r="Q23">
+        <v>546817774600</v>
+      </c>
+      <c r="R23">
+        <v>579405021800</v>
+      </c>
+      <c r="S23">
+        <v>39136400</v>
+      </c>
+      <c r="T23">
+        <v>38249400</v>
+      </c>
+      <c r="U23">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V23">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W23">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X23">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y23">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z23">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA23">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB23">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC23">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -1601,6 +2498,45 @@
       <c r="P24">
         <v>-19935294600</v>
       </c>
+      <c r="Q24">
+        <v>576699674600</v>
+      </c>
+      <c r="R24">
+        <v>596634969200</v>
+      </c>
+      <c r="S24">
+        <v>41373300</v>
+      </c>
+      <c r="T24">
+        <v>39308000</v>
+      </c>
+      <c r="U24">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V24">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W24">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X24">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y24">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z24">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA24">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB24">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC24">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1651,6 +2587,45 @@
       <c r="P25">
         <v>-6055685100</v>
       </c>
+      <c r="Q25">
+        <v>611857061500</v>
+      </c>
+      <c r="R25">
+        <v>617912746600</v>
+      </c>
+      <c r="S25">
+        <v>43571200</v>
+      </c>
+      <c r="T25">
+        <v>40557300</v>
+      </c>
+      <c r="U25">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V25">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W25">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X25">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y25">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z25">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA25">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB25">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC25">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -1701,6 +2676,45 @@
       <c r="P26">
         <v>5787769600</v>
       </c>
+      <c r="Q26">
+        <v>645237573300</v>
+      </c>
+      <c r="R26">
+        <v>639449803700</v>
+      </c>
+      <c r="S26">
+        <v>45327300</v>
+      </c>
+      <c r="T26">
+        <v>41842400</v>
+      </c>
+      <c r="U26">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V26">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W26">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X26">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y26">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z26">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA26">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB26">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC26">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1751,6 +2765,45 @@
       <c r="P27">
         <v>23991462400</v>
       </c>
+      <c r="Q27">
+        <v>676533012400</v>
+      </c>
+      <c r="R27">
+        <v>652541550000</v>
+      </c>
+      <c r="S27">
+        <v>46919400</v>
+      </c>
+      <c r="T27">
+        <v>42538700</v>
+      </c>
+      <c r="U27">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V27">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W27">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X27">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y27">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z27">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA27">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB27">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC27">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1801,6 +2854,45 @@
       <c r="P28">
         <v>32350977200</v>
       </c>
+      <c r="Q28">
+        <v>705324973100</v>
+      </c>
+      <c r="R28">
+        <v>672973995900</v>
+      </c>
+      <c r="S28">
+        <v>48608100</v>
+      </c>
+      <c r="T28">
+        <v>43602500</v>
+      </c>
+      <c r="U28">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V28">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W28">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X28">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y28">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z28">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA28">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB28">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC28">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1851,6 +2943,45 @@
       <c r="P29">
         <v>38818981700</v>
       </c>
+      <c r="Q29">
+        <v>726852761400</v>
+      </c>
+      <c r="R29">
+        <v>688033779700</v>
+      </c>
+      <c r="S29">
+        <v>49680400</v>
+      </c>
+      <c r="T29">
+        <v>44489900</v>
+      </c>
+      <c r="U29">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V29">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W29">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X29">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y29">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z29">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA29">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB29">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC29">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1901,6 +3032,45 @@
       <c r="P30">
         <v>60557612100</v>
       </c>
+      <c r="Q30">
+        <v>762458482700</v>
+      </c>
+      <c r="R30">
+        <v>701900870600</v>
+      </c>
+      <c r="S30">
+        <v>51608200</v>
+      </c>
+      <c r="T30">
+        <v>45209600</v>
+      </c>
+      <c r="U30">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V30">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W30">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X30">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y30">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z30">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA30">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB30">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC30">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1951,6 +3121,45 @@
       <c r="P31">
         <v>69174693200</v>
       </c>
+      <c r="Q31">
+        <v>790402994600</v>
+      </c>
+      <c r="R31">
+        <v>721228301400</v>
+      </c>
+      <c r="S31">
+        <v>53273100</v>
+      </c>
+      <c r="T31">
+        <v>46159100</v>
+      </c>
+      <c r="U31">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V31">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W31">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X31">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y31">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z31">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA31">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB31">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC31">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -2001,6 +3210,45 @@
       <c r="P32">
         <v>49246191600</v>
       </c>
+      <c r="Q32">
+        <v>807176348300</v>
+      </c>
+      <c r="R32">
+        <v>757930156700</v>
+      </c>
+      <c r="S32">
+        <v>54246700</v>
+      </c>
+      <c r="T32">
+        <v>47955700</v>
+      </c>
+      <c r="U32">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V32">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W32">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X32">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y32">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z32">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA32">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB32">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC32">
+        <v>6</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -2051,6 +3299,45 @@
       <c r="P33">
         <v>37865693300</v>
       </c>
+      <c r="Q33">
+        <v>819154250800</v>
+      </c>
+      <c r="R33">
+        <v>781288557500</v>
+      </c>
+      <c r="S33">
+        <v>54890700</v>
+      </c>
+      <c r="T33">
+        <v>49176800</v>
+      </c>
+      <c r="U33">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V33">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W33">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X33">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y33">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z33">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA33">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB33">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC33">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -2101,6 +3388,45 @@
       <c r="P34">
         <v>33652993900</v>
       </c>
+      <c r="Q34">
+        <v>835465565200</v>
+      </c>
+      <c r="R34">
+        <v>801812571300</v>
+      </c>
+      <c r="S34">
+        <v>55823600</v>
+      </c>
+      <c r="T34">
+        <v>50364300</v>
+      </c>
+      <c r="U34">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V34">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W34">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X34">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y34">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z34">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA34">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB34">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC34">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -2151,6 +3477,45 @@
       <c r="P35">
         <v>49399868300</v>
       </c>
+      <c r="Q35">
+        <v>861406530200</v>
+      </c>
+      <c r="R35">
+        <v>812006661900</v>
+      </c>
+      <c r="S35">
+        <v>57103500</v>
+      </c>
+      <c r="T35">
+        <v>50963600</v>
+      </c>
+      <c r="U35">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V35">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W35">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X35">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y35">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z35">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA35">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB35">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC35">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -2201,6 +3566,45 @@
       <c r="P36">
         <v>61139731800</v>
       </c>
+      <c r="Q36">
+        <v>884936791200</v>
+      </c>
+      <c r="R36">
+        <v>823797059400</v>
+      </c>
+      <c r="S36">
+        <v>58344900</v>
+      </c>
+      <c r="T36">
+        <v>51727300</v>
+      </c>
+      <c r="U36">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V36">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W36">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X36">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y36">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z36">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA36">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB36">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC36">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -2251,6 +3655,45 @@
       <c r="P37">
         <v>64943904900</v>
       </c>
+      <c r="Q37">
+        <v>901985622700</v>
+      </c>
+      <c r="R37">
+        <v>837041717800</v>
+      </c>
+      <c r="S37">
+        <v>59395000</v>
+      </c>
+      <c r="T37">
+        <v>52499300</v>
+      </c>
+      <c r="U37">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V37">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W37">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X37">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y37">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z37">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA37">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB37">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC37">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -2301,6 +3744,45 @@
       <c r="P38">
         <v>76776915500</v>
       </c>
+      <c r="Q38">
+        <v>924694690400</v>
+      </c>
+      <c r="R38">
+        <v>847917774900</v>
+      </c>
+      <c r="S38">
+        <v>60584500</v>
+      </c>
+      <c r="T38">
+        <v>53080000</v>
+      </c>
+      <c r="U38">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V38">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W38">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X38">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y38">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z38">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA38">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB38">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC38">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -2351,6 +3833,45 @@
       <c r="P39">
         <v>101747545400</v>
       </c>
+      <c r="Q39">
+        <v>957626220500</v>
+      </c>
+      <c r="R39">
+        <v>855878675100</v>
+      </c>
+      <c r="S39">
+        <v>62286100</v>
+      </c>
+      <c r="T39">
+        <v>53528400</v>
+      </c>
+      <c r="U39">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V39">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W39">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X39">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y39">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z39">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA39">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB39">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC39">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -2401,6 +3922,45 @@
       <c r="P40">
         <v>115222974300</v>
       </c>
+      <c r="Q40">
+        <v>984783808400</v>
+      </c>
+      <c r="R40">
+        <v>869560834100</v>
+      </c>
+      <c r="S40">
+        <v>63816000</v>
+      </c>
+      <c r="T40">
+        <v>54325600</v>
+      </c>
+      <c r="U40">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V40">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W40">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X40">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y40">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z40">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA40">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB40">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC40">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -2451,6 +4011,45 @@
       <c r="P41">
         <v>128817176700</v>
       </c>
+      <c r="Q41">
+        <v>1015350421200</v>
+      </c>
+      <c r="R41">
+        <v>886533244500</v>
+      </c>
+      <c r="S41">
+        <v>65393100</v>
+      </c>
+      <c r="T41">
+        <v>55210200</v>
+      </c>
+      <c r="U41">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V41">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W41">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X41">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y41">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z41">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA41">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB41">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC41">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -2501,6 +4100,45 @@
       <c r="P42">
         <v>132353291300</v>
       </c>
+      <c r="Q42">
+        <v>1039999048000</v>
+      </c>
+      <c r="R42">
+        <v>907645756700</v>
+      </c>
+      <c r="S42">
+        <v>67208200</v>
+      </c>
+      <c r="T42">
+        <v>56320100</v>
+      </c>
+      <c r="U42">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V42">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W42">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X42">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y42">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z42">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA42">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB42">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC42">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -2551,6 +4189,45 @@
       <c r="P43">
         <v>135016052200</v>
       </c>
+      <c r="Q43">
+        <v>1057963094500</v>
+      </c>
+      <c r="R43">
+        <v>922947042300</v>
+      </c>
+      <c r="S43">
+        <v>68895000</v>
+      </c>
+      <c r="T43">
+        <v>57269600</v>
+      </c>
+      <c r="U43">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V43">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W43">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X43">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y43">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z43">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA43">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB43">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC43">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -2601,6 +4278,45 @@
       <c r="P44">
         <v>128350047000</v>
       </c>
+      <c r="Q44">
+        <v>1075695502500</v>
+      </c>
+      <c r="R44">
+        <v>947345455500</v>
+      </c>
+      <c r="S44">
+        <v>69963800</v>
+      </c>
+      <c r="T44">
+        <v>58741600</v>
+      </c>
+      <c r="U44">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V44">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W44">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X44">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y44">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z44">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA44">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB44">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC44">
+        <v>2</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -2651,6 +4367,45 @@
       <c r="P45">
         <v>109795850700</v>
       </c>
+      <c r="Q45">
+        <v>1087552555500</v>
+      </c>
+      <c r="R45">
+        <v>977756704800</v>
+      </c>
+      <c r="S45">
+        <v>70724600</v>
+      </c>
+      <c r="T45">
+        <v>60436300</v>
+      </c>
+      <c r="U45">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V45">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W45">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X45">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y45">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z45">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA45">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB45">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC45">
+        <v>5.6</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -2701,6 +4456,45 @@
       <c r="P46">
         <v>94976244800</v>
       </c>
+      <c r="Q46">
+        <v>1100854961900</v>
+      </c>
+      <c r="R46">
+        <v>1005878717100</v>
+      </c>
+      <c r="S46">
+        <v>71498700</v>
+      </c>
+      <c r="T46">
+        <v>61766200</v>
+      </c>
+      <c r="U46">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V46">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W46">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X46">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y46">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z46">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA46">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB46">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC46">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -2751,6 +4545,45 @@
       <c r="P47">
         <v>82202760500</v>
       </c>
+      <c r="Q47">
+        <v>1110904789600</v>
+      </c>
+      <c r="R47">
+        <v>1028702029100</v>
+      </c>
+      <c r="S47">
+        <v>72021000</v>
+      </c>
+      <c r="T47">
+        <v>63047200</v>
+      </c>
+      <c r="U47">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V47">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W47">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X47">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y47">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z47">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA47">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB47">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC47">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -2801,6 +4634,45 @@
       <c r="P48">
         <v>72541421100</v>
       </c>
+      <c r="Q48">
+        <v>1122146984500</v>
+      </c>
+      <c r="R48">
+        <v>1049605563400</v>
+      </c>
+      <c r="S48">
+        <v>72608400</v>
+      </c>
+      <c r="T48">
+        <v>64327400</v>
+      </c>
+      <c r="U48">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V48">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W48">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X48">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y48">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z48">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA48">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB48">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC48">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -2851,6 +4723,45 @@
       <c r="P49">
         <v>69200229900</v>
       </c>
+      <c r="Q49">
+        <v>1132980534100</v>
+      </c>
+      <c r="R49">
+        <v>1063780304200</v>
+      </c>
+      <c r="S49">
+        <v>73254800</v>
+      </c>
+      <c r="T49">
+        <v>65437800</v>
+      </c>
+      <c r="U49">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V49">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W49">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X49">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y49">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z49">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA49">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB49">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC49">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -2901,6 +4812,45 @@
       <c r="P50">
         <v>61845030200</v>
       </c>
+      <c r="Q50">
+        <v>1143319104000</v>
+      </c>
+      <c r="R50">
+        <v>1081474073800</v>
+      </c>
+      <c r="S50">
+        <v>73720800</v>
+      </c>
+      <c r="T50">
+        <v>66556700</v>
+      </c>
+      <c r="U50">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V50">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W50">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X50">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y50">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z50">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA50">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB50">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC50">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -2951,6 +4901,45 @@
       <c r="P51">
         <v>68152930200</v>
       </c>
+      <c r="Q51">
+        <v>1163376728100</v>
+      </c>
+      <c r="R51">
+        <v>1095223797900</v>
+      </c>
+      <c r="S51">
+        <v>74643000</v>
+      </c>
+      <c r="T51">
+        <v>67455200</v>
+      </c>
+      <c r="U51">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V51">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W51">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X51">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y51">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z51">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA51">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB51">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC51">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -3001,6 +4990,45 @@
       <c r="P52">
         <v>74621217500</v>
       </c>
+      <c r="Q52">
+        <v>1182817300200</v>
+      </c>
+      <c r="R52">
+        <v>1108196082700</v>
+      </c>
+      <c r="S52">
+        <v>75782700</v>
+      </c>
+      <c r="T52">
+        <v>68321200</v>
+      </c>
+      <c r="U52">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V52">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W52">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X52">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y52">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z52">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA52">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB52">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC52">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -3051,6 +5079,45 @@
       <c r="P53">
         <v>80644146500</v>
       </c>
+      <c r="Q53">
+        <v>1200781020200</v>
+      </c>
+      <c r="R53">
+        <v>1120136873700</v>
+      </c>
+      <c r="S53">
+        <v>76799300</v>
+      </c>
+      <c r="T53">
+        <v>69143800</v>
+      </c>
+      <c r="U53">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V53">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W53">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X53">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y53">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z53">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA53">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB53">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC53">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -3101,6 +5168,45 @@
       <c r="P54">
         <v>84320325500</v>
       </c>
+      <c r="Q54">
+        <v>1217467442500</v>
+      </c>
+      <c r="R54">
+        <v>1133147117000</v>
+      </c>
+      <c r="S54">
+        <v>77566100</v>
+      </c>
+      <c r="T54">
+        <v>69960400</v>
+      </c>
+      <c r="U54">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V54">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W54">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X54">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y54">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z54">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA54">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB54">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC54">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -3151,6 +5257,45 @@
       <c r="P55">
         <v>89835152000</v>
       </c>
+      <c r="Q55">
+        <v>1239751966400</v>
+      </c>
+      <c r="R55">
+        <v>1149916814400</v>
+      </c>
+      <c r="S55">
+        <v>78629900</v>
+      </c>
+      <c r="T55">
+        <v>70917900</v>
+      </c>
+      <c r="U55">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V55">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W55">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X55">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y55">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z55">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA55">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB55">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC55">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -3201,6 +5346,45 @@
       <c r="P56">
         <v>82444120900</v>
       </c>
+      <c r="Q56">
+        <v>1250568353200</v>
+      </c>
+      <c r="R56">
+        <v>1168124232300</v>
+      </c>
+      <c r="S56">
+        <v>79219900</v>
+      </c>
+      <c r="T56">
+        <v>71888800</v>
+      </c>
+      <c r="U56">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V56">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W56">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X56">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y56">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z56">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA56">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB56">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC56">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -3251,6 +5435,45 @@
       <c r="P57">
         <v>77715207900</v>
       </c>
+      <c r="Q57">
+        <v>1265759145600</v>
+      </c>
+      <c r="R57">
+        <v>1188043937700</v>
+      </c>
+      <c r="S57">
+        <v>80130500</v>
+      </c>
+      <c r="T57">
+        <v>73237100</v>
+      </c>
+      <c r="U57">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V57">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W57">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X57">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y57">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z57">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA57">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB57">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC57">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -3301,6 +5524,45 @@
       <c r="P58">
         <v>80126532900</v>
       </c>
+      <c r="Q58">
+        <v>1281167653500</v>
+      </c>
+      <c r="R58">
+        <v>1201041120600</v>
+      </c>
+      <c r="S58">
+        <v>80838900</v>
+      </c>
+      <c r="T58">
+        <v>73947100</v>
+      </c>
+      <c r="U58">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V58">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W58">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X58">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y58">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z58">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA58">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB58">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC58">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -3351,6 +5613,45 @@
       <c r="P59">
         <v>74773668200</v>
       </c>
+      <c r="Q59">
+        <v>1291194513200</v>
+      </c>
+      <c r="R59">
+        <v>1216420845000</v>
+      </c>
+      <c r="S59">
+        <v>81328200</v>
+      </c>
+      <c r="T59">
+        <v>74880600</v>
+      </c>
+      <c r="U59">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V59">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W59">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X59">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y59">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z59">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA59">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB59">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC59">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -3401,6 +5702,45 @@
       <c r="P60">
         <v>81582147800</v>
       </c>
+      <c r="Q60">
+        <v>1307286539800</v>
+      </c>
+      <c r="R60">
+        <v>1225704392000</v>
+      </c>
+      <c r="S60">
+        <v>82020800</v>
+      </c>
+      <c r="T60">
+        <v>75407800</v>
+      </c>
+      <c r="U60">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V60">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W60">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X60">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y60">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z60">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA60">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB60">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC60">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -3451,6 +5791,45 @@
       <c r="P61">
         <v>92928402100</v>
       </c>
+      <c r="Q61">
+        <v>1331379542200</v>
+      </c>
+      <c r="R61">
+        <v>1238451140100</v>
+      </c>
+      <c r="S61">
+        <v>83184300</v>
+      </c>
+      <c r="T61">
+        <v>76153800</v>
+      </c>
+      <c r="U61">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V61">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W61">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X61">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y61">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z61">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA61">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB61">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC61">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -3501,6 +5880,45 @@
       <c r="P62">
         <v>87386414900</v>
       </c>
+      <c r="Q62">
+        <v>1340721069000</v>
+      </c>
+      <c r="R62">
+        <v>1253334654100</v>
+      </c>
+      <c r="S62">
+        <v>83696200</v>
+      </c>
+      <c r="T62">
+        <v>77104700</v>
+      </c>
+      <c r="U62">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V62">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W62">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X62">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y62">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z62">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA62">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB62">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC62">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -3551,6 +5969,45 @@
       <c r="P63">
         <v>77450721600</v>
       </c>
+      <c r="Q63">
+        <v>1348606738300</v>
+      </c>
+      <c r="R63">
+        <v>1271156016700</v>
+      </c>
+      <c r="S63">
+        <v>84090400</v>
+      </c>
+      <c r="T63">
+        <v>78258100</v>
+      </c>
+      <c r="U63">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V63">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W63">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X63">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y63">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z63">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA63">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB63">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC63">
+        <v>3</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -3601,6 +6058,45 @@
       <c r="P64">
         <v>68104541700</v>
       </c>
+      <c r="Q64">
+        <v>1355389858100</v>
+      </c>
+      <c r="R64">
+        <v>1287285316400</v>
+      </c>
+      <c r="S64">
+        <v>84472100</v>
+      </c>
+      <c r="T64">
+        <v>79219700</v>
+      </c>
+      <c r="U64">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V64">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W64">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X64">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y64">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z64">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA64">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB64">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC64">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -3651,6 +6147,45 @@
       <c r="P65">
         <v>67569525900</v>
       </c>
+      <c r="Q65">
+        <v>1366543524900</v>
+      </c>
+      <c r="R65">
+        <v>1298973999000</v>
+      </c>
+      <c r="S65">
+        <v>85005500</v>
+      </c>
+      <c r="T65">
+        <v>79993400</v>
+      </c>
+      <c r="U65">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V65">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W65">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X65">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y65">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z65">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA65">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB65">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC65">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -3701,6 +6236,45 @@
       <c r="P66">
         <v>58306500800</v>
       </c>
+      <c r="Q66">
+        <v>1376835501500</v>
+      </c>
+      <c r="R66">
+        <v>1318529000700</v>
+      </c>
+      <c r="S66">
+        <v>85531600</v>
+      </c>
+      <c r="T66">
+        <v>81350700</v>
+      </c>
+      <c r="U66">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V66">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W66">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X66">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y66">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z66">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA66">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB66">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC66">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -3751,6 +6325,45 @@
       <c r="P67">
         <v>49144476500</v>
       </c>
+      <c r="Q67">
+        <v>1388835516000</v>
+      </c>
+      <c r="R67">
+        <v>1339691039500</v>
+      </c>
+      <c r="S67">
+        <v>86187000</v>
+      </c>
+      <c r="T67">
+        <v>82596200</v>
+      </c>
+      <c r="U67">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V67">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W67">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X67">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y67">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z67">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA67">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB67">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC67">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -3801,6 +6414,45 @@
       <c r="P68">
         <v>28632855900</v>
       </c>
+      <c r="Q68">
+        <v>1400140245200</v>
+      </c>
+      <c r="R68">
+        <v>1371507389300</v>
+      </c>
+      <c r="S68">
+        <v>86837600</v>
+      </c>
+      <c r="T68">
+        <v>84390300</v>
+      </c>
+      <c r="U68">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V68">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W68">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X68">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y68">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z68">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA68">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB68">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC68">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -3851,6 +6503,45 @@
       <c r="P69">
         <v>10566950500</v>
       </c>
+      <c r="Q69">
+        <v>1410886903500</v>
+      </c>
+      <c r="R69">
+        <v>1400319953000</v>
+      </c>
+      <c r="S69">
+        <v>87453000</v>
+      </c>
+      <c r="T69">
+        <v>85859100</v>
+      </c>
+      <c r="U69">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V69">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W69">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X69">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y69">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z69">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA69">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB69">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC69">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -3901,6 +6592,45 @@
       <c r="P70">
         <v>10304667500</v>
       </c>
+      <c r="Q70">
+        <v>1410888398500</v>
+      </c>
+      <c r="R70">
+        <v>1400583731000</v>
+      </c>
+      <c r="S70">
+        <v>87453100</v>
+      </c>
+      <c r="T70">
+        <v>85876200</v>
+      </c>
+      <c r="U70">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V70">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W70">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X70">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y70">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z70">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA70">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB70">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC70">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -3951,6 +6681,45 @@
       <c r="P71">
         <v>729662600</v>
       </c>
+      <c r="Q71">
+        <v>1459177883000</v>
+      </c>
+      <c r="R71">
+        <v>1458448220400</v>
+      </c>
+      <c r="S71">
+        <v>90335300</v>
+      </c>
+      <c r="T71">
+        <v>89733300</v>
+      </c>
+      <c r="U71">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V71">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W71">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X71">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y71">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z71">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA71">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB71">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC71">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -4001,6 +6770,45 @@
       <c r="P72">
         <v>-9424873900</v>
       </c>
+      <c r="Q72">
+        <v>1479400884200</v>
+      </c>
+      <c r="R72">
+        <v>1488825758100</v>
+      </c>
+      <c r="S72">
+        <v>91421800</v>
+      </c>
+      <c r="T72">
+        <v>91772300</v>
+      </c>
+      <c r="U72">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V72">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W72">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X72">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y72">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z72">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA72">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB72">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC72">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -4051,6 +6859,45 @@
       <c r="P73">
         <v>-19427422000</v>
       </c>
+      <c r="Q73">
+        <v>1495370304600</v>
+      </c>
+      <c r="R73">
+        <v>1514797726600</v>
+      </c>
+      <c r="S73">
+        <v>92278800</v>
+      </c>
+      <c r="T73">
+        <v>93280200</v>
+      </c>
+      <c r="U73">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V73">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W73">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X73">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y73">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z73">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA73">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB73">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC73">
+        <v>3</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -4101,6 +6948,45 @@
       <c r="P74">
         <v>-29624021000</v>
       </c>
+      <c r="Q74">
+        <v>1516602088600</v>
+      </c>
+      <c r="R74">
+        <v>1546226109600</v>
+      </c>
+      <c r="S74">
+        <v>93238200</v>
+      </c>
+      <c r="T74">
+        <v>95129500</v>
+      </c>
+      <c r="U74">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V74">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W74">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X74">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y74">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z74">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA74">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB74">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC74">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -4151,6 +7037,45 @@
       <c r="P75">
         <v>-50904221000</v>
       </c>
+      <c r="Q75">
+        <v>1529458992500</v>
+      </c>
+      <c r="R75">
+        <v>1580363213500</v>
+      </c>
+      <c r="S75">
+        <v>94009400</v>
+      </c>
+      <c r="T75">
+        <v>97035000</v>
+      </c>
+      <c r="U75">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V75">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W75">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X75">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y75">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z75">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA75">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB75">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC75">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -4201,6 +7126,45 @@
       <c r="P76">
         <v>-71503438500</v>
       </c>
+      <c r="Q76">
+        <v>1543263353300</v>
+      </c>
+      <c r="R76">
+        <v>1614766791800</v>
+      </c>
+      <c r="S76">
+        <v>94810100</v>
+      </c>
+      <c r="T76">
+        <v>99003100</v>
+      </c>
+      <c r="U76">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V76">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W76">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X76">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y76">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z76">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA76">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB76">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC76">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -4251,6 +7215,45 @@
       <c r="P77">
         <v>-85492879000</v>
       </c>
+      <c r="Q77">
+        <v>1557519742500</v>
+      </c>
+      <c r="R77">
+        <v>1643012621500</v>
+      </c>
+      <c r="S77">
+        <v>95601300</v>
+      </c>
+      <c r="T77">
+        <v>100977900</v>
+      </c>
+      <c r="U77">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V77">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W77">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X77">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y77">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z77">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA77">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB77">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC77">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -4301,6 +7304,45 @@
       <c r="P78">
         <v>-83455955600</v>
       </c>
+      <c r="Q78">
+        <v>1577641021800</v>
+      </c>
+      <c r="R78">
+        <v>1661096977400</v>
+      </c>
+      <c r="S78">
+        <v>96788400</v>
+      </c>
+      <c r="T78">
+        <v>102251600</v>
+      </c>
+      <c r="U78">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V78">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W78">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X78">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y78">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z78">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA78">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB78">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC78">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -4351,6 +7393,45 @@
       <c r="P79">
         <v>-72229512300</v>
       </c>
+      <c r="Q79">
+        <v>1613034975500</v>
+      </c>
+      <c r="R79">
+        <v>1685264487800</v>
+      </c>
+      <c r="S79">
+        <v>98677200</v>
+      </c>
+      <c r="T79">
+        <v>104015500</v>
+      </c>
+      <c r="U79">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V79">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W79">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X79">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y79">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z79">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA79">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB79">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC79">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -4401,6 +7482,45 @@
       <c r="P80">
         <v>-61388862500</v>
       </c>
+      <c r="Q80">
+        <v>1642906215200</v>
+      </c>
+      <c r="R80">
+        <v>1704295077700</v>
+      </c>
+      <c r="S80">
+        <v>100291300</v>
+      </c>
+      <c r="T80">
+        <v>105413700</v>
+      </c>
+      <c r="U80">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V80">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W80">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X80">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y80">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z80">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA80">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB80">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC80">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -4451,6 +7571,45 @@
       <c r="P81">
         <v>-53358075400</v>
       </c>
+      <c r="Q81">
+        <v>1668678258400</v>
+      </c>
+      <c r="R81">
+        <v>1722036333800</v>
+      </c>
+      <c r="S81">
+        <v>101700400</v>
+      </c>
+      <c r="T81">
+        <v>106439500</v>
+      </c>
+      <c r="U81">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V81">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W81">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X81">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y81">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z81">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA81">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB81">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC81">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -4501,6 +7660,45 @@
       <c r="P82">
         <v>-38484152700</v>
       </c>
+      <c r="Q82">
+        <v>1701439950300</v>
+      </c>
+      <c r="R82">
+        <v>1739924103000</v>
+      </c>
+      <c r="S82">
+        <v>103617500</v>
+      </c>
+      <c r="T82">
+        <v>107530200</v>
+      </c>
+      <c r="U82">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V82">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W82">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X82">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y82">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z82">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA82">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB82">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC82">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -4551,6 +7749,45 @@
       <c r="P83">
         <v>-36842535600</v>
       </c>
+      <c r="Q83">
+        <v>1723025195300</v>
+      </c>
+      <c r="R83">
+        <v>1759867730900</v>
+      </c>
+      <c r="S83">
+        <v>105009200</v>
+      </c>
+      <c r="T83">
+        <v>108785900</v>
+      </c>
+      <c r="U83">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V83">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W83">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X83">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y83">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z83">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA83">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB83">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC83">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -4601,6 +7838,45 @@
       <c r="P84">
         <v>-36950592300</v>
       </c>
+      <c r="Q84">
+        <v>1747414374700</v>
+      </c>
+      <c r="R84">
+        <v>1784364967000</v>
+      </c>
+      <c r="S84">
+        <v>106214700</v>
+      </c>
+      <c r="T84">
+        <v>110303300</v>
+      </c>
+      <c r="U84">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V84">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W84">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X84">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y84">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z84">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA84">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB84">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC84">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -4651,6 +7927,45 @@
       <c r="P85">
         <v>-50160732600</v>
       </c>
+      <c r="Q85">
+        <v>1767420202200</v>
+      </c>
+      <c r="R85">
+        <v>1817580934800</v>
+      </c>
+      <c r="S85">
+        <v>107355600</v>
+      </c>
+      <c r="T85">
+        <v>112575600</v>
+      </c>
+      <c r="U85">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V85">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W85">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X85">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y85">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z85">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA85">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB85">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC85">
+        <v>4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -4701,6 +8016,45 @@
       <c r="P86">
         <v>-77154261500</v>
       </c>
+      <c r="Q86">
+        <v>1782499424100</v>
+      </c>
+      <c r="R86">
+        <v>1859653685600</v>
+      </c>
+      <c r="S86">
+        <v>108288400</v>
+      </c>
+      <c r="T86">
+        <v>115318600</v>
+      </c>
+      <c r="U86">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V86">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W86">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X86">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y86">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z86">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA86">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB86">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC86">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -4751,6 +8105,45 @@
       <c r="P87">
         <v>-88419248700</v>
       </c>
+      <c r="Q87">
+        <v>1812122616400</v>
+      </c>
+      <c r="R87">
+        <v>1900541865100</v>
+      </c>
+      <c r="S87">
+        <v>109974000</v>
+      </c>
+      <c r="T87">
+        <v>118345000</v>
+      </c>
+      <c r="U87">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V87">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W87">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X87">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y87">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z87">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA87">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB87">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC87">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -4801,6 +8194,45 @@
       <c r="P88">
         <v>-93768627300</v>
       </c>
+      <c r="Q88">
+        <v>1831278920300</v>
+      </c>
+      <c r="R88">
+        <v>1925047547600</v>
+      </c>
+      <c r="S88">
+        <v>111059000</v>
+      </c>
+      <c r="T88">
+        <v>119981500</v>
+      </c>
+      <c r="U88">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V88">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W88">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X88">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y88">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z88">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA88">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB88">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC88">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -4851,6 +8283,45 @@
       <c r="P89">
         <v>-121966459400</v>
       </c>
+      <c r="Q89">
+        <v>1849078424300</v>
+      </c>
+      <c r="R89">
+        <v>1971044883700</v>
+      </c>
+      <c r="S89">
+        <v>112056400</v>
+      </c>
+      <c r="T89">
+        <v>123298000</v>
+      </c>
+      <c r="U89">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V89">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W89">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X89">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y89">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z89">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA89">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB89">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC89">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -4901,6 +8372,45 @@
       <c r="P90">
         <v>-136251604200</v>
       </c>
+      <c r="Q90">
+        <v>1863150305900</v>
+      </c>
+      <c r="R90">
+        <v>1999401910100</v>
+      </c>
+      <c r="S90">
+        <v>113044100</v>
+      </c>
+      <c r="T90">
+        <v>125289500</v>
+      </c>
+      <c r="U90">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V90">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W90">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X90">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y90">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z90">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA90">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB90">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC90">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -4951,6 +8461,45 @@
       <c r="P91">
         <v>-150226414100</v>
       </c>
+      <c r="Q91">
+        <v>1883247562100</v>
+      </c>
+      <c r="R91">
+        <v>2033473976200</v>
+      </c>
+      <c r="S91">
+        <v>114275400</v>
+      </c>
+      <c r="T91">
+        <v>127890500</v>
+      </c>
+      <c r="U91">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V91">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W91">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X91">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y91">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z91">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA91">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB91">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC91">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -5001,6 +8550,45 @@
       <c r="P92">
         <v>-152549418500</v>
       </c>
+      <c r="Q92">
+        <v>1901832840500</v>
+      </c>
+      <c r="R92">
+        <v>2054382259000</v>
+      </c>
+      <c r="S92">
+        <v>115542100</v>
+      </c>
+      <c r="T92">
+        <v>129630000</v>
+      </c>
+      <c r="U92">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V92">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W92">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X92">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y92">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z92">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA92">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB92">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC92">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -5051,6 +8639,45 @@
       <c r="P93">
         <v>-174260004500</v>
       </c>
+      <c r="Q93">
+        <v>1915666316400</v>
+      </c>
+      <c r="R93">
+        <v>2089926320900</v>
+      </c>
+      <c r="S93">
+        <v>116462000</v>
+      </c>
+      <c r="T93">
+        <v>132525600</v>
+      </c>
+      <c r="U93">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V93">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W93">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X93">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y93">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z93">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA93">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB93">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC93">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -5101,6 +8728,45 @@
       <c r="P94">
         <v>-218888095700</v>
       </c>
+      <c r="Q94">
+        <v>1932024408600</v>
+      </c>
+      <c r="R94">
+        <v>2150912504300</v>
+      </c>
+      <c r="S94">
+        <v>117631000</v>
+      </c>
+      <c r="T94">
+        <v>136229900</v>
+      </c>
+      <c r="U94">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V94">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W94">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X94">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y94">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z94">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA94">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB94">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC94">
+        <v>13.4</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -5151,6 +8817,45 @@
       <c r="P95">
         <v>-227817844500</v>
       </c>
+      <c r="Q95">
+        <v>1963472388000</v>
+      </c>
+      <c r="R95">
+        <v>2191290232500</v>
+      </c>
+      <c r="S95">
+        <v>119359400</v>
+      </c>
+      <c r="T95">
+        <v>138888800</v>
+      </c>
+      <c r="U95">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V95">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W95">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X95">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y95">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z95">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA95">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB95">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC95">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -5201,6 +8906,45 @@
       <c r="P96">
         <v>-209660480500</v>
       </c>
+      <c r="Q96">
+        <v>1994935628200</v>
+      </c>
+      <c r="R96">
+        <v>2204596108700</v>
+      </c>
+      <c r="S96">
+        <v>121592300</v>
+      </c>
+      <c r="T96">
+        <v>139748400</v>
+      </c>
+      <c r="U96">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V96">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W96">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X96">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y96">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z96">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA96">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB96">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC96">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -5251,6 +8995,45 @@
       <c r="P97">
         <v>-188624200300</v>
       </c>
+      <c r="Q97">
+        <v>2033974557200</v>
+      </c>
+      <c r="R97">
+        <v>2222598757500</v>
+      </c>
+      <c r="S97">
+        <v>124019000</v>
+      </c>
+      <c r="T97">
+        <v>140861400</v>
+      </c>
+      <c r="U97">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V97">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W97">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X97">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y97">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z97">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA97">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB97">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC97">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -5301,6 +9084,45 @@
       <c r="P98">
         <v>-166603309900</v>
       </c>
+      <c r="Q98">
+        <v>2067426633500</v>
+      </c>
+      <c r="R98">
+        <v>2234029943400</v>
+      </c>
+      <c r="S98">
+        <v>126222500</v>
+      </c>
+      <c r="T98">
+        <v>141571500</v>
+      </c>
+      <c r="U98">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V98">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W98">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X98">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y98">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z98">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA98">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB98">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC98">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -5351,6 +9173,45 @@
       <c r="P99">
         <v>-148295668300</v>
       </c>
+      <c r="Q99">
+        <v>2102821468400</v>
+      </c>
+      <c r="R99">
+        <v>2251117136700</v>
+      </c>
+      <c r="S99">
+        <v>128539500</v>
+      </c>
+      <c r="T99">
+        <v>142518200</v>
+      </c>
+      <c r="U99">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V99">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W99">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X99">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y99">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z99">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA99">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB99">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC99">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -5401,6 +9262,45 @@
       <c r="P100">
         <v>-174656447700</v>
       </c>
+      <c r="Q100">
+        <v>2114169837500</v>
+      </c>
+      <c r="R100">
+        <v>2288826285200</v>
+      </c>
+      <c r="S100">
+        <v>129307800</v>
+      </c>
+      <c r="T100">
+        <v>144670900</v>
+      </c>
+      <c r="U100">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V100">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W100">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X100">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y100">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z100">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA100">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB100">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC100">
+        <v>7.9</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -5451,6 +9351,45 @@
       <c r="P101">
         <v>-187033048400</v>
       </c>
+      <c r="Q101">
+        <v>2126925110100</v>
+      </c>
+      <c r="R101">
+        <v>2313958158500</v>
+      </c>
+      <c r="S101">
+        <v>130123400</v>
+      </c>
+      <c r="T101">
+        <v>146349900</v>
+      </c>
+      <c r="U101">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V101">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W101">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X101">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y101">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z101">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA101">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB101">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC101">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -5501,6 +9440,45 @@
       <c r="P102">
         <v>-182069133300</v>
       </c>
+      <c r="Q102">
+        <v>2142211069900</v>
+      </c>
+      <c r="R102">
+        <v>2324280203200</v>
+      </c>
+      <c r="S102">
+        <v>131020200</v>
+      </c>
+      <c r="T102">
+        <v>146921600</v>
+      </c>
+      <c r="U102">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V102">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W102">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X102">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y102">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z102">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA102">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB102">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC102">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -5551,6 +9529,45 @@
       <c r="P103">
         <v>-178928667800</v>
       </c>
+      <c r="Q103">
+        <v>2160480477500</v>
+      </c>
+      <c r="R103">
+        <v>2339409145300</v>
+      </c>
+      <c r="S103">
+        <v>132132800</v>
+      </c>
+      <c r="T103">
+        <v>147853100</v>
+      </c>
+      <c r="U103">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V103">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W103">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X103">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y103">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z103">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA103">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB103">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC103">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -5601,6 +9618,45 @@
       <c r="P104">
         <v>-164747969600</v>
       </c>
+      <c r="Q104">
+        <v>2198243098300</v>
+      </c>
+      <c r="R104">
+        <v>2362991067900</v>
+      </c>
+      <c r="S104">
+        <v>134266100</v>
+      </c>
+      <c r="T104">
+        <v>149487100</v>
+      </c>
+      <c r="U104">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V104">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W104">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X104">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y104">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z104">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA104">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB104">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC104">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -5651,6 +9707,45 @@
       <c r="P105">
         <v>-161344514600</v>
       </c>
+      <c r="Q105">
+        <v>2220559766500</v>
+      </c>
+      <c r="R105">
+        <v>2381904281100</v>
+      </c>
+      <c r="S105">
+        <v>135576300</v>
+      </c>
+      <c r="T105">
+        <v>150691500</v>
+      </c>
+      <c r="U105">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V105">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W105">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X105">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y105">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z105">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA105">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB105">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC105">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -5701,6 +9796,45 @@
       <c r="P106">
         <v>-172080471900</v>
       </c>
+      <c r="Q106">
+        <v>2237536473400</v>
+      </c>
+      <c r="R106">
+        <v>2409616945300</v>
+      </c>
+      <c r="S106">
+        <v>136496300</v>
+      </c>
+      <c r="T106">
+        <v>152462300</v>
+      </c>
+      <c r="U106">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V106">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W106">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X106">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y106">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z106">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA106">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB106">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC106">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -5751,6 +9885,45 @@
       <c r="P107">
         <v>-209073846600</v>
       </c>
+      <c r="Q107">
+        <v>2252561158300</v>
+      </c>
+      <c r="R107">
+        <v>2461635004900</v>
+      </c>
+      <c r="S107">
+        <v>137301400</v>
+      </c>
+      <c r="T107">
+        <v>155865700</v>
+      </c>
+      <c r="U107">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V107">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W107">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X107">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y107">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z107">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA107">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB107">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC107">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -5801,6 +9974,45 @@
       <c r="P108">
         <v>-245145288900</v>
       </c>
+      <c r="Q108">
+        <v>2281511270100</v>
+      </c>
+      <c r="R108">
+        <v>2526656559000</v>
+      </c>
+      <c r="S108">
+        <v>138823900</v>
+      </c>
+      <c r="T108">
+        <v>160299400</v>
+      </c>
+      <c r="U108">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V108">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W108">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X108">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y108">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z108">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA108">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB108">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC108">
+        <v>10.9</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -5851,6 +10063,45 @@
       <c r="P109">
         <v>-245692471000</v>
       </c>
+      <c r="Q109">
+        <v>2324433452600</v>
+      </c>
+      <c r="R109">
+        <v>2570125923600</v>
+      </c>
+      <c r="S109">
+        <v>141469500</v>
+      </c>
+      <c r="T109">
+        <v>162958300</v>
+      </c>
+      <c r="U109">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V109">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W109">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X109">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y109">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z109">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA109">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB109">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC109">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -5901,6 +10152,45 @@
       <c r="P110">
         <v>-228534182400</v>
       </c>
+      <c r="Q110">
+        <v>2364699539900</v>
+      </c>
+      <c r="R110">
+        <v>2593233722300</v>
+      </c>
+      <c r="S110">
+        <v>143931100</v>
+      </c>
+      <c r="T110">
+        <v>164570300</v>
+      </c>
+      <c r="U110">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V110">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W110">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X110">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y110">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z110">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA110">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB110">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC110">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -5951,6 +10241,45 @@
       <c r="P111">
         <v>-225237791400</v>
       </c>
+      <c r="Q111">
+        <v>2398995571900</v>
+      </c>
+      <c r="R111">
+        <v>2624233363300</v>
+      </c>
+      <c r="S111">
+        <v>145991800</v>
+      </c>
+      <c r="T111">
+        <v>166427500</v>
+      </c>
+      <c r="U111">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V111">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W111">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X111">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y111">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z111">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA111">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB111">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC111">
+        <v>1</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -6001,6 +10330,45 @@
       <c r="P112">
         <v>-234748530200</v>
       </c>
+      <c r="Q112">
+        <v>2428365478500</v>
+      </c>
+      <c r="R112">
+        <v>2663114008700</v>
+      </c>
+      <c r="S112">
+        <v>147766700</v>
+      </c>
+      <c r="T112">
+        <v>169563600</v>
+      </c>
+      <c r="U112">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V112">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W112">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X112">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y112">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z112">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA112">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB112">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC112">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -6051,6 +10419,45 @@
       <c r="P113">
         <v>-257548930000</v>
       </c>
+      <c r="Q113">
+        <v>2452517374700</v>
+      </c>
+      <c r="R113">
+        <v>2710066304700</v>
+      </c>
+      <c r="S113">
+        <v>149274600</v>
+      </c>
+      <c r="T113">
+        <v>172658600</v>
+      </c>
+      <c r="U113">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V113">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W113">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X113">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y113">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z113">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA113">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB113">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC113">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -6101,6 +10508,45 @@
       <c r="P114">
         <v>-296324265200</v>
       </c>
+      <c r="Q114">
+        <v>2472430895100</v>
+      </c>
+      <c r="R114">
+        <v>2768755160300</v>
+      </c>
+      <c r="S114">
+        <v>150615800</v>
+      </c>
+      <c r="T114">
+        <v>176425700</v>
+      </c>
+      <c r="U114">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V114">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W114">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X114">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y114">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z114">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA114">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB114">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC114">
+        <v>11.7</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -6151,6 +10597,45 @@
       <c r="P115">
         <v>-377039268000</v>
       </c>
+      <c r="Q115">
+        <v>2498904845900</v>
+      </c>
+      <c r="R115">
+        <v>2875944113900</v>
+      </c>
+      <c r="S115">
+        <v>152353400</v>
+      </c>
+      <c r="T115">
+        <v>184098100</v>
+      </c>
+      <c r="U115">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V115">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W115">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X115">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y115">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z115">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA115">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB115">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC115">
+        <v>24.3</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -6201,6 +10686,45 @@
       <c r="P116">
         <v>-377483119000</v>
       </c>
+      <c r="Q116">
+        <v>2498940513900</v>
+      </c>
+      <c r="R116">
+        <v>2876423632900</v>
+      </c>
+      <c r="S116">
+        <v>152355500</v>
+      </c>
+      <c r="T116">
+        <v>184122100</v>
+      </c>
+      <c r="U116">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V116">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W116">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X116">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y116">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z116">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA116">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB116">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC116">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -6251,10 +10775,49 @@
       <c r="P117">
         <v>-384972318700</v>
       </c>
+      <c r="Q117">
+        <v>2522135728100</v>
+      </c>
+      <c r="R117">
+        <v>2907108046800</v>
+      </c>
+      <c r="S117">
+        <v>153274300</v>
+      </c>
+      <c r="T117">
+        <v>186894500</v>
+      </c>
+      <c r="U117">
+        <v>21742549380.2</v>
+      </c>
+      <c r="V117">
+        <v>25061276265.5</v>
+      </c>
+      <c r="W117">
+        <v>50077141587.9</v>
+      </c>
+      <c r="X117">
+        <v>3135795.7</v>
+      </c>
+      <c r="Y117">
+        <v>1321330.2</v>
+      </c>
+      <c r="Z117">
+        <v>1611159.5</v>
+      </c>
+      <c r="AA117">
+        <v>-289829.3</v>
+      </c>
+      <c r="AB117">
+        <v>-3318726885.3</v>
+      </c>
+      <c r="AC117">
+        <v>2.3</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P117"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC117"/>
   </ignoredErrors>
 </worksheet>
 </file>